--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M241"/>
+  <dimension ref="A1:M242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.279</v>
+        <v>4.281</v>
       </c>
       <c r="C2" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="D2" t="n">
-        <v>4.279</v>
+        <v>4.281</v>
       </c>
       <c r="E2" t="n">
-        <v>4.27</v>
+        <v>4.28</v>
       </c>
       <c r="F2" t="n">
-        <v>335393.0657</v>
+        <v>108931.4417</v>
       </c>
       <c r="G2" t="n">
-        <v>4.37036666666666</v>
+        <v>4.372516666666661</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.268</v>
+        <v>4.279</v>
       </c>
       <c r="C3" t="n">
-        <v>4.307</v>
+        <v>4.27</v>
       </c>
       <c r="D3" t="n">
-        <v>4.307</v>
+        <v>4.279</v>
       </c>
       <c r="E3" t="n">
-        <v>4.268</v>
+        <v>4.27</v>
       </c>
       <c r="F3" t="n">
-        <v>65308.1137</v>
+        <v>335393.0657</v>
       </c>
       <c r="G3" t="n">
-        <v>4.368399999999994</v>
+        <v>4.37036666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.32</v>
+        <v>4.268</v>
       </c>
       <c r="C4" t="n">
-        <v>4.32</v>
+        <v>4.307</v>
       </c>
       <c r="D4" t="n">
-        <v>4.32</v>
+        <v>4.307</v>
       </c>
       <c r="E4" t="n">
-        <v>4.32</v>
+        <v>4.268</v>
       </c>
       <c r="F4" t="n">
-        <v>51754.802</v>
+        <v>65308.1137</v>
       </c>
       <c r="G4" t="n">
-        <v>4.366283333333327</v>
+        <v>4.368399999999994</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="C5" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="D5" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="E5" t="n">
-        <v>4.36</v>
+        <v>4.32</v>
       </c>
       <c r="F5" t="n">
-        <v>239490</v>
+        <v>51754.802</v>
       </c>
       <c r="G5" t="n">
-        <v>4.364816666666661</v>
+        <v>4.366283333333327</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="C6" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="D6" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="E6" t="n">
-        <v>4.38</v>
+        <v>4.36</v>
       </c>
       <c r="F6" t="n">
-        <v>11985.3289</v>
+        <v>239490</v>
       </c>
       <c r="G6" t="n">
-        <v>4.363699999999994</v>
+        <v>4.364816666666661</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="C7" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="D7" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="E7" t="n">
-        <v>4.36</v>
+        <v>4.38</v>
       </c>
       <c r="F7" t="n">
-        <v>14797.9582</v>
+        <v>11985.3289</v>
       </c>
       <c r="G7" t="n">
-        <v>4.365066666666661</v>
+        <v>4.363699999999994</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>4.36</v>
       </c>
       <c r="F8" t="n">
-        <v>9102.5792</v>
+        <v>14797.9582</v>
       </c>
       <c r="G8" t="n">
-        <v>4.365733333333328</v>
+        <v>4.365066666666661</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="C9" t="n">
-        <v>4.268</v>
+        <v>4.36</v>
       </c>
       <c r="D9" t="n">
-        <v>4.34</v>
+        <v>4.36</v>
       </c>
       <c r="E9" t="n">
-        <v>4.268</v>
+        <v>4.36</v>
       </c>
       <c r="F9" t="n">
-        <v>92000</v>
+        <v>9102.5792</v>
       </c>
       <c r="G9" t="n">
-        <v>4.365333333333328</v>
+        <v>4.365733333333328</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.29</v>
+        <v>4.34</v>
       </c>
       <c r="C10" t="n">
-        <v>4.29</v>
+        <v>4.268</v>
       </c>
       <c r="D10" t="n">
-        <v>4.29</v>
+        <v>4.34</v>
       </c>
       <c r="E10" t="n">
-        <v>4.278</v>
+        <v>4.268</v>
       </c>
       <c r="F10" t="n">
-        <v>109850</v>
+        <v>92000</v>
       </c>
       <c r="G10" t="n">
-        <v>4.365299999999995</v>
+        <v>4.365333333333328</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.278</v>
+        <v>4.29</v>
       </c>
       <c r="C11" t="n">
-        <v>4.278</v>
+        <v>4.29</v>
       </c>
       <c r="D11" t="n">
-        <v>4.288</v>
+        <v>4.29</v>
       </c>
       <c r="E11" t="n">
         <v>4.278</v>
       </c>
       <c r="F11" t="n">
-        <v>300414.3958</v>
+        <v>109850</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36523333333333</v>
+        <v>4.365299999999995</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.268</v>
+        <v>4.278</v>
       </c>
       <c r="C12" t="n">
-        <v>4.268</v>
+        <v>4.278</v>
       </c>
       <c r="D12" t="n">
-        <v>4.268</v>
+        <v>4.288</v>
       </c>
       <c r="E12" t="n">
-        <v>4.268</v>
+        <v>4.278</v>
       </c>
       <c r="F12" t="n">
-        <v>187288.7563</v>
+        <v>300414.3958</v>
       </c>
       <c r="G12" t="n">
-        <v>4.363916666666663</v>
+        <v>4.36523333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.306</v>
+        <v>4.268</v>
       </c>
       <c r="C13" t="n">
-        <v>4.306</v>
+        <v>4.268</v>
       </c>
       <c r="D13" t="n">
-        <v>4.306</v>
+        <v>4.268</v>
       </c>
       <c r="E13" t="n">
-        <v>4.306</v>
+        <v>4.268</v>
       </c>
       <c r="F13" t="n">
-        <v>665.0721</v>
+        <v>187288.7563</v>
       </c>
       <c r="G13" t="n">
-        <v>4.363216666666662</v>
+        <v>4.363916666666663</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.268</v>
+        <v>4.306</v>
       </c>
       <c r="C14" t="n">
-        <v>4.268</v>
+        <v>4.306</v>
       </c>
       <c r="D14" t="n">
-        <v>4.268</v>
+        <v>4.306</v>
       </c>
       <c r="E14" t="n">
-        <v>4.268</v>
+        <v>4.306</v>
       </c>
       <c r="F14" t="n">
-        <v>1354.8587</v>
+        <v>665.0721</v>
       </c>
       <c r="G14" t="n">
-        <v>4.361899999999995</v>
+        <v>4.363216666666662</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.293</v>
+        <v>4.268</v>
       </c>
       <c r="C15" t="n">
-        <v>4.294</v>
+        <v>4.268</v>
       </c>
       <c r="D15" t="n">
-        <v>4.294</v>
+        <v>4.268</v>
       </c>
       <c r="E15" t="n">
-        <v>4.293</v>
+        <v>4.268</v>
       </c>
       <c r="F15" t="n">
-        <v>37563.985</v>
+        <v>1354.8587</v>
       </c>
       <c r="G15" t="n">
-        <v>4.360933333333329</v>
+        <v>4.361899999999995</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.297</v>
+        <v>4.293</v>
       </c>
       <c r="C16" t="n">
-        <v>4.297</v>
+        <v>4.294</v>
       </c>
       <c r="D16" t="n">
-        <v>4.297</v>
+        <v>4.294</v>
       </c>
       <c r="E16" t="n">
-        <v>4.297</v>
+        <v>4.293</v>
       </c>
       <c r="F16" t="n">
-        <v>2841.2079</v>
+        <v>37563.985</v>
       </c>
       <c r="G16" t="n">
-        <v>4.360966666666662</v>
+        <v>4.360933333333329</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.278</v>
+        <v>4.297</v>
       </c>
       <c r="C17" t="n">
-        <v>4.278</v>
+        <v>4.297</v>
       </c>
       <c r="D17" t="n">
-        <v>4.278</v>
+        <v>4.297</v>
       </c>
       <c r="E17" t="n">
-        <v>4.278</v>
+        <v>4.297</v>
       </c>
       <c r="F17" t="n">
-        <v>15990</v>
+        <v>2841.2079</v>
       </c>
       <c r="G17" t="n">
-        <v>4.359866666666663</v>
+        <v>4.360966666666662</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>4.278</v>
       </c>
       <c r="F18" t="n">
-        <v>180365.4864</v>
+        <v>15990</v>
       </c>
       <c r="G18" t="n">
-        <v>4.35878333333333</v>
+        <v>4.359866666666663</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.276</v>
+        <v>4.278</v>
       </c>
       <c r="C19" t="n">
-        <v>4.276</v>
+        <v>4.278</v>
       </c>
       <c r="D19" t="n">
-        <v>4.276</v>
+        <v>4.278</v>
       </c>
       <c r="E19" t="n">
-        <v>4.276</v>
+        <v>4.278</v>
       </c>
       <c r="F19" t="n">
-        <v>1742.4498</v>
+        <v>180365.4864</v>
       </c>
       <c r="G19" t="n">
-        <v>4.357716666666663</v>
+        <v>4.35878333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,31 +1063,35 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.268</v>
+        <v>4.276</v>
       </c>
       <c r="C20" t="n">
-        <v>4.268</v>
+        <v>4.276</v>
       </c>
       <c r="D20" t="n">
-        <v>4.268</v>
+        <v>4.276</v>
       </c>
       <c r="E20" t="n">
-        <v>4.268</v>
+        <v>4.276</v>
       </c>
       <c r="F20" t="n">
-        <v>337926.4382</v>
+        <v>1742.4498</v>
       </c>
       <c r="G20" t="n">
-        <v>4.356516666666663</v>
+        <v>4.357716666666663</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.278</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1101,19 +1105,19 @@
         <v>4.268</v>
       </c>
       <c r="C21" t="n">
-        <v>4.269</v>
+        <v>4.268</v>
       </c>
       <c r="D21" t="n">
-        <v>4.269</v>
+        <v>4.268</v>
       </c>
       <c r="E21" t="n">
         <v>4.268</v>
       </c>
       <c r="F21" t="n">
-        <v>309335.5832</v>
+        <v>337926.4382</v>
       </c>
       <c r="G21" t="n">
-        <v>4.355499999999997</v>
+        <v>4.356516666666663</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1122,8 +1126,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.269</v>
+        <v>4.268</v>
       </c>
       <c r="C22" t="n">
         <v>4.269</v>
@@ -1142,23 +1152,31 @@
         <v>4.269</v>
       </c>
       <c r="E22" t="n">
-        <v>4.269</v>
+        <v>4.268</v>
       </c>
       <c r="F22" t="n">
-        <v>210457.662</v>
+        <v>309335.5832</v>
       </c>
       <c r="G22" t="n">
-        <v>4.353816666666663</v>
+        <v>4.355499999999997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>4.268</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1186,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.293</v>
+        <v>4.269</v>
       </c>
       <c r="C23" t="n">
-        <v>4.296</v>
+        <v>4.269</v>
       </c>
       <c r="D23" t="n">
-        <v>4.296</v>
+        <v>4.269</v>
       </c>
       <c r="E23" t="n">
-        <v>4.293</v>
+        <v>4.269</v>
       </c>
       <c r="F23" t="n">
-        <v>69019.8357</v>
+        <v>210457.662</v>
       </c>
       <c r="G23" t="n">
-        <v>4.353249999999997</v>
+        <v>4.353816666666663</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -1195,9 +1213,13 @@
         <v>4.269</v>
       </c>
       <c r="K23" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
+        <v>4.278</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1207,22 +1229,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.297</v>
+        <v>4.293</v>
       </c>
       <c r="C24" t="n">
-        <v>4.297</v>
+        <v>4.296</v>
       </c>
       <c r="D24" t="n">
-        <v>4.297</v>
+        <v>4.296</v>
       </c>
       <c r="E24" t="n">
-        <v>4.297</v>
+        <v>4.293</v>
       </c>
       <c r="F24" t="n">
-        <v>117771.5543</v>
+        <v>69019.8357</v>
       </c>
       <c r="G24" t="n">
-        <v>4.352699999999998</v>
+        <v>4.353249999999997</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1231,14 +1253,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.296</v>
+        <v>4.269</v>
       </c>
       <c r="K24" t="n">
-        <v>4.269</v>
+        <v>4.278</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M24" t="n">
@@ -1262,26 +1284,24 @@
         <v>4.297</v>
       </c>
       <c r="F25" t="n">
-        <v>8056.1287</v>
+        <v>117771.5543</v>
       </c>
       <c r="G25" t="n">
-        <v>4.352149999999998</v>
+        <v>4.352699999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.297</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>4.269</v>
+        <v>4.278</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M25" t="n">
@@ -1305,24 +1325,26 @@
         <v>4.297</v>
       </c>
       <c r="F26" t="n">
-        <v>11537.1666</v>
+        <v>8056.1287</v>
       </c>
       <c r="G26" t="n">
-        <v>4.350766666666666</v>
+        <v>4.352149999999998</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.297</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>4.297</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
+        <v>4.278</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1332,38 +1354,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.337</v>
+        <v>4.297</v>
       </c>
       <c r="C27" t="n">
-        <v>4.337</v>
+        <v>4.297</v>
       </c>
       <c r="D27" t="n">
-        <v>4.337</v>
+        <v>4.297</v>
       </c>
       <c r="E27" t="n">
-        <v>4.337</v>
+        <v>4.297</v>
       </c>
       <c r="F27" t="n">
-        <v>14464.9964</v>
+        <v>11537.1666</v>
       </c>
       <c r="G27" t="n">
-        <v>4.350049999999999</v>
+        <v>4.350766666666666</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.297</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>4.297</v>
+        <v>4.278</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1387,10 +1407,10 @@
         <v>4.337</v>
       </c>
       <c r="F28" t="n">
-        <v>115.3</v>
+        <v>14464.9964</v>
       </c>
       <c r="G28" t="n">
-        <v>4.349033333333332</v>
+        <v>4.350049999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1400,11 +1420,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>4.297</v>
+        <v>4.278</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1416,22 +1436,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.328</v>
+        <v>4.337</v>
       </c>
       <c r="C29" t="n">
-        <v>4.328</v>
+        <v>4.337</v>
       </c>
       <c r="D29" t="n">
-        <v>4.328</v>
+        <v>4.337</v>
       </c>
       <c r="E29" t="n">
-        <v>4.328</v>
+        <v>4.337</v>
       </c>
       <c r="F29" t="n">
-        <v>12018.323</v>
+        <v>115.3</v>
       </c>
       <c r="G29" t="n">
-        <v>4.347866666666664</v>
+        <v>4.349033333333332</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1440,8 +1460,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1451,22 +1477,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.339</v>
+        <v>4.328</v>
       </c>
       <c r="C30" t="n">
-        <v>4.339</v>
+        <v>4.328</v>
       </c>
       <c r="D30" t="n">
-        <v>4.339</v>
+        <v>4.328</v>
       </c>
       <c r="E30" t="n">
-        <v>4.339</v>
+        <v>4.328</v>
       </c>
       <c r="F30" t="n">
-        <v>1132.4336</v>
+        <v>12018.323</v>
       </c>
       <c r="G30" t="n">
-        <v>4.346666666666664</v>
+        <v>4.347866666666664</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1475,8 +1501,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1486,22 +1518,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.328</v>
+        <v>4.339</v>
       </c>
       <c r="C31" t="n">
-        <v>4.328</v>
+        <v>4.339</v>
       </c>
       <c r="D31" t="n">
-        <v>4.328</v>
+        <v>4.339</v>
       </c>
       <c r="E31" t="n">
-        <v>4.328</v>
+        <v>4.339</v>
       </c>
       <c r="F31" t="n">
-        <v>47408.717</v>
+        <v>1132.4336</v>
       </c>
       <c r="G31" t="n">
-        <v>4.345499999999997</v>
+        <v>4.346666666666664</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1510,8 +1542,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1521,22 +1559,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.318</v>
+        <v>4.328</v>
       </c>
       <c r="C32" t="n">
-        <v>4.318</v>
+        <v>4.328</v>
       </c>
       <c r="D32" t="n">
-        <v>4.318</v>
+        <v>4.328</v>
       </c>
       <c r="E32" t="n">
-        <v>4.318</v>
+        <v>4.328</v>
       </c>
       <c r="F32" t="n">
-        <v>77580</v>
+        <v>47408.717</v>
       </c>
       <c r="G32" t="n">
-        <v>4.344166666666663</v>
+        <v>4.345499999999997</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1545,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1556,22 +1600,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="C33" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="D33" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="E33" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="F33" t="n">
-        <v>173.9541</v>
+        <v>77580</v>
       </c>
       <c r="G33" t="n">
-        <v>4.342966666666663</v>
+        <v>4.344166666666663</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1580,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1594,19 +1644,19 @@
         <v>4.339</v>
       </c>
       <c r="C34" t="n">
-        <v>4.318</v>
+        <v>4.339</v>
       </c>
       <c r="D34" t="n">
         <v>4.339</v>
       </c>
       <c r="E34" t="n">
-        <v>4.318</v>
+        <v>4.339</v>
       </c>
       <c r="F34" t="n">
-        <v>87030.69620000001</v>
+        <v>173.9541</v>
       </c>
       <c r="G34" t="n">
-        <v>4.341416666666662</v>
+        <v>4.342966666666663</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1615,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1629,19 +1685,19 @@
         <v>4.339</v>
       </c>
       <c r="C35" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="D35" t="n">
         <v>4.339</v>
       </c>
       <c r="E35" t="n">
-        <v>4.339</v>
+        <v>4.318</v>
       </c>
       <c r="F35" t="n">
-        <v>116</v>
+        <v>87030.69620000001</v>
       </c>
       <c r="G35" t="n">
-        <v>4.340216666666662</v>
+        <v>4.341416666666662</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1650,8 +1706,14 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1661,22 +1723,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.36</v>
+        <v>4.339</v>
       </c>
       <c r="C36" t="n">
-        <v>4.36</v>
+        <v>4.339</v>
       </c>
       <c r="D36" t="n">
-        <v>4.36</v>
+        <v>4.339</v>
       </c>
       <c r="E36" t="n">
-        <v>4.36</v>
+        <v>4.339</v>
       </c>
       <c r="F36" t="n">
-        <v>114.7</v>
+        <v>116</v>
       </c>
       <c r="G36" t="n">
-        <v>4.339366666666662</v>
+        <v>4.340216666666662</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1685,8 +1747,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1708,10 +1776,10 @@
         <v>4.36</v>
       </c>
       <c r="F37" t="n">
-        <v>578.9618</v>
+        <v>114.7</v>
       </c>
       <c r="G37" t="n">
-        <v>4.338449999999995</v>
+        <v>4.339366666666662</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1720,8 +1788,14 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,19 +1808,19 @@
         <v>4.36</v>
       </c>
       <c r="C38" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="D38" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="E38" t="n">
         <v>4.36</v>
       </c>
       <c r="F38" t="n">
-        <v>1929.4989</v>
+        <v>578.9618</v>
       </c>
       <c r="G38" t="n">
-        <v>4.338366666666662</v>
+        <v>4.338449999999995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1755,8 +1829,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1766,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.399</v>
+        <v>4.36</v>
       </c>
       <c r="C39" t="n">
-        <v>4.409</v>
+        <v>4.41</v>
       </c>
       <c r="D39" t="n">
-        <v>4.409</v>
+        <v>4.41</v>
       </c>
       <c r="E39" t="n">
-        <v>4.399</v>
+        <v>4.36</v>
       </c>
       <c r="F39" t="n">
-        <v>66010</v>
+        <v>1929.4989</v>
       </c>
       <c r="G39" t="n">
-        <v>4.338266666666661</v>
+        <v>4.338366666666662</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1790,8 +1870,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1801,7 +1887,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.409</v>
+        <v>4.399</v>
       </c>
       <c r="C40" t="n">
         <v>4.409</v>
@@ -1810,13 +1896,13 @@
         <v>4.409</v>
       </c>
       <c r="E40" t="n">
-        <v>4.409</v>
+        <v>4.399</v>
       </c>
       <c r="F40" t="n">
-        <v>42330.9497</v>
+        <v>66010</v>
       </c>
       <c r="G40" t="n">
-        <v>4.338166666666662</v>
+        <v>4.338266666666661</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1825,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1836,22 +1928,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33</v>
+        <v>4.409</v>
       </c>
       <c r="C41" t="n">
-        <v>4.329</v>
+        <v>4.409</v>
       </c>
       <c r="D41" t="n">
-        <v>4.33</v>
+        <v>4.409</v>
       </c>
       <c r="E41" t="n">
-        <v>4.329</v>
+        <v>4.409</v>
       </c>
       <c r="F41" t="n">
-        <v>182461.1104</v>
+        <v>42330.9497</v>
       </c>
       <c r="G41" t="n">
-        <v>4.336733333333328</v>
+        <v>4.338166666666662</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1860,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1874,31 +1972,37 @@
         <v>4.33</v>
       </c>
       <c r="C42" t="n">
-        <v>4.33</v>
+        <v>4.329</v>
       </c>
       <c r="D42" t="n">
         <v>4.33</v>
       </c>
       <c r="E42" t="n">
-        <v>4.33</v>
+        <v>4.329</v>
       </c>
       <c r="F42" t="n">
-        <v>64857.1504</v>
+        <v>182461.1104</v>
       </c>
       <c r="G42" t="n">
-        <v>4.33531666666666</v>
+        <v>4.336733333333328</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>4.278</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>1.006921458625526</v>
       </c>
     </row>
     <row r="43">
@@ -1918,10 +2022,10 @@
         <v>4.33</v>
       </c>
       <c r="F43" t="n">
-        <v>30017.2196</v>
+        <v>64857.1504</v>
       </c>
       <c r="G43" t="n">
-        <v>4.333899999999994</v>
+        <v>4.33531666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1941,22 +2045,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="C44" t="n">
-        <v>4.318</v>
+        <v>4.33</v>
       </c>
       <c r="D44" t="n">
-        <v>4.32</v>
+        <v>4.33</v>
       </c>
       <c r="E44" t="n">
-        <v>4.318</v>
+        <v>4.33</v>
       </c>
       <c r="F44" t="n">
-        <v>70038.91409999999</v>
+        <v>30017.2196</v>
       </c>
       <c r="G44" t="n">
-        <v>4.332533333333327</v>
+        <v>4.333899999999994</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1976,22 +2080,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.318</v>
+        <v>4.32</v>
       </c>
       <c r="C45" t="n">
         <v>4.318</v>
       </c>
       <c r="D45" t="n">
-        <v>4.318</v>
+        <v>4.32</v>
       </c>
       <c r="E45" t="n">
         <v>4.318</v>
       </c>
       <c r="F45" t="n">
-        <v>1810.9952</v>
+        <v>70038.91409999999</v>
       </c>
       <c r="G45" t="n">
-        <v>4.332166666666661</v>
+        <v>4.332533333333327</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2023,10 +2127,10 @@
         <v>4.318</v>
       </c>
       <c r="F46" t="n">
-        <v>7964.0761</v>
+        <v>1810.9952</v>
       </c>
       <c r="G46" t="n">
-        <v>4.33096666666666</v>
+        <v>4.332166666666661</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,22 +2150,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.33</v>
+        <v>4.318</v>
       </c>
       <c r="C47" t="n">
-        <v>4.33</v>
+        <v>4.318</v>
       </c>
       <c r="D47" t="n">
-        <v>4.33</v>
+        <v>4.318</v>
       </c>
       <c r="E47" t="n">
-        <v>4.33</v>
+        <v>4.318</v>
       </c>
       <c r="F47" t="n">
-        <v>106345.5821</v>
+        <v>7964.0761</v>
       </c>
       <c r="G47" t="n">
-        <v>4.32996666666666</v>
+        <v>4.33096666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2093,10 +2197,10 @@
         <v>4.33</v>
       </c>
       <c r="F48" t="n">
-        <v>48727.1878</v>
+        <v>106345.5821</v>
       </c>
       <c r="G48" t="n">
-        <v>4.328199999999994</v>
+        <v>4.32996666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2116,22 +2220,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.391</v>
+        <v>4.33</v>
       </c>
       <c r="C49" t="n">
-        <v>4.391</v>
+        <v>4.33</v>
       </c>
       <c r="D49" t="n">
-        <v>4.391</v>
+        <v>4.33</v>
       </c>
       <c r="E49" t="n">
-        <v>4.391</v>
+        <v>4.33</v>
       </c>
       <c r="F49" t="n">
-        <v>786.4462</v>
+        <v>48727.1878</v>
       </c>
       <c r="G49" t="n">
-        <v>4.327449999999994</v>
+        <v>4.328199999999994</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2151,22 +2255,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.389</v>
+        <v>4.391</v>
       </c>
       <c r="C50" t="n">
-        <v>4.389</v>
+        <v>4.391</v>
       </c>
       <c r="D50" t="n">
-        <v>4.389</v>
+        <v>4.391</v>
       </c>
       <c r="E50" t="n">
-        <v>4.389</v>
+        <v>4.391</v>
       </c>
       <c r="F50" t="n">
-        <v>24383.5523</v>
+        <v>786.4462</v>
       </c>
       <c r="G50" t="n">
-        <v>4.326666666666662</v>
+        <v>4.327449999999994</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2198,10 +2302,10 @@
         <v>4.389</v>
       </c>
       <c r="F51" t="n">
-        <v>493.5828</v>
+        <v>24383.5523</v>
       </c>
       <c r="G51" t="n">
-        <v>4.325883333333328</v>
+        <v>4.326666666666662</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2221,22 +2325,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.341</v>
+        <v>4.389</v>
       </c>
       <c r="C52" t="n">
-        <v>4.341</v>
+        <v>4.389</v>
       </c>
       <c r="D52" t="n">
-        <v>4.341</v>
+        <v>4.389</v>
       </c>
       <c r="E52" t="n">
-        <v>4.341</v>
+        <v>4.389</v>
       </c>
       <c r="F52" t="n">
-        <v>772.7560999999999</v>
+        <v>493.5828</v>
       </c>
       <c r="G52" t="n">
-        <v>4.324116666666662</v>
+        <v>4.325883333333328</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2268,10 +2372,10 @@
         <v>4.341</v>
       </c>
       <c r="F53" t="n">
-        <v>1346.4387</v>
+        <v>772.7560999999999</v>
       </c>
       <c r="G53" t="n">
-        <v>4.322949999999995</v>
+        <v>4.324116666666662</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2291,22 +2395,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.389</v>
+        <v>4.341</v>
       </c>
       <c r="C54" t="n">
-        <v>4.389</v>
+        <v>4.341</v>
       </c>
       <c r="D54" t="n">
-        <v>4.389</v>
+        <v>4.341</v>
       </c>
       <c r="E54" t="n">
-        <v>4.389</v>
+        <v>4.341</v>
       </c>
       <c r="F54" t="n">
-        <v>114</v>
+        <v>1346.4387</v>
       </c>
       <c r="G54" t="n">
-        <v>4.323583333333329</v>
+        <v>4.322949999999995</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2329,19 +2433,19 @@
         <v>4.389</v>
       </c>
       <c r="C55" t="n">
-        <v>4.392</v>
+        <v>4.389</v>
       </c>
       <c r="D55" t="n">
-        <v>4.392</v>
+        <v>4.389</v>
       </c>
       <c r="E55" t="n">
         <v>4.389</v>
       </c>
       <c r="F55" t="n">
-        <v>158735.172</v>
+        <v>114</v>
       </c>
       <c r="G55" t="n">
-        <v>4.323599999999995</v>
+        <v>4.323583333333329</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2361,22 +2465,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.394</v>
+        <v>4.389</v>
       </c>
       <c r="C56" t="n">
-        <v>4.408</v>
+        <v>4.392</v>
       </c>
       <c r="D56" t="n">
-        <v>4.408</v>
+        <v>4.392</v>
       </c>
       <c r="E56" t="n">
-        <v>4.394</v>
+        <v>4.389</v>
       </c>
       <c r="F56" t="n">
-        <v>280056.020074909</v>
+        <v>158735.172</v>
       </c>
       <c r="G56" t="n">
-        <v>4.325066666666662</v>
+        <v>4.323599999999995</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2396,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.408</v>
+        <v>4.394</v>
       </c>
       <c r="C57" t="n">
         <v>4.408</v>
@@ -2405,13 +2509,13 @@
         <v>4.408</v>
       </c>
       <c r="E57" t="n">
-        <v>4.408</v>
+        <v>4.394</v>
       </c>
       <c r="F57" t="n">
-        <v>4995.5044</v>
+        <v>280056.020074909</v>
       </c>
       <c r="G57" t="n">
-        <v>4.326533333333329</v>
+        <v>4.325066666666662</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2431,22 +2535,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.394</v>
+        <v>4.408</v>
       </c>
       <c r="C58" t="n">
-        <v>4.394</v>
+        <v>4.408</v>
       </c>
       <c r="D58" t="n">
-        <v>4.394</v>
+        <v>4.408</v>
       </c>
       <c r="E58" t="n">
-        <v>4.394</v>
+        <v>4.408</v>
       </c>
       <c r="F58" t="n">
-        <v>307063.1615</v>
+        <v>4995.5044</v>
       </c>
       <c r="G58" t="n">
-        <v>4.32843333333333</v>
+        <v>4.326533333333329</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2466,22 +2570,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.4</v>
+        <v>4.394</v>
       </c>
       <c r="C59" t="n">
-        <v>4.407</v>
+        <v>4.394</v>
       </c>
       <c r="D59" t="n">
-        <v>4.407</v>
+        <v>4.394</v>
       </c>
       <c r="E59" t="n">
-        <v>4.4</v>
+        <v>4.394</v>
       </c>
       <c r="F59" t="n">
-        <v>13490.198</v>
+        <v>307063.1615</v>
       </c>
       <c r="G59" t="n">
-        <v>4.330566666666663</v>
+        <v>4.32843333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2501,7 +2605,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.407</v>
+        <v>4.4</v>
       </c>
       <c r="C60" t="n">
         <v>4.407</v>
@@ -2510,13 +2614,13 @@
         <v>4.407</v>
       </c>
       <c r="E60" t="n">
-        <v>4.407</v>
+        <v>4.4</v>
       </c>
       <c r="F60" t="n">
-        <v>1153169.8733</v>
+        <v>13490.198</v>
       </c>
       <c r="G60" t="n">
-        <v>4.332016666666663</v>
+        <v>4.330566666666663</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2536,22 +2640,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.4</v>
+        <v>4.407</v>
       </c>
       <c r="C61" t="n">
-        <v>4.4</v>
+        <v>4.407</v>
       </c>
       <c r="D61" t="n">
-        <v>4.4</v>
+        <v>4.407</v>
       </c>
       <c r="E61" t="n">
-        <v>4.4</v>
+        <v>4.407</v>
       </c>
       <c r="F61" t="n">
-        <v>138645.6617</v>
+        <v>1153169.8733</v>
       </c>
       <c r="G61" t="n">
-        <v>4.334016666666662</v>
+        <v>4.332016666666663</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2583,10 +2687,10 @@
         <v>4.4</v>
       </c>
       <c r="F62" t="n">
-        <v>50000</v>
+        <v>138645.6617</v>
       </c>
       <c r="G62" t="n">
-        <v>4.336183333333329</v>
+        <v>4.334016666666662</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2618,10 +2722,10 @@
         <v>4.4</v>
       </c>
       <c r="F63" t="n">
-        <v>206267.6513</v>
+        <v>50000</v>
       </c>
       <c r="G63" t="n">
-        <v>4.337733333333329</v>
+        <v>4.336183333333329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2641,7 +2745,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.392</v>
+        <v>4.4</v>
       </c>
       <c r="C64" t="n">
         <v>4.4</v>
@@ -2650,13 +2754,13 @@
         <v>4.4</v>
       </c>
       <c r="E64" t="n">
-        <v>4.362</v>
+        <v>4.4</v>
       </c>
       <c r="F64" t="n">
-        <v>14662.6803</v>
+        <v>206267.6513</v>
       </c>
       <c r="G64" t="n">
-        <v>4.339066666666662</v>
+        <v>4.337733333333329</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2676,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.4</v>
+        <v>4.392</v>
       </c>
       <c r="C65" t="n">
         <v>4.4</v>
@@ -2685,13 +2789,13 @@
         <v>4.4</v>
       </c>
       <c r="E65" t="n">
-        <v>4.4</v>
+        <v>4.362</v>
       </c>
       <c r="F65" t="n">
-        <v>178452.8676</v>
+        <v>14662.6803</v>
       </c>
       <c r="G65" t="n">
-        <v>4.339733333333328</v>
+        <v>4.339066666666662</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2711,22 +2815,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="C66" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="D66" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="E66" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="F66" t="n">
-        <v>8287.4202</v>
+        <v>178452.8676</v>
       </c>
       <c r="G66" t="n">
-        <v>4.339333333333328</v>
+        <v>4.339733333333328</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2758,10 +2862,10 @@
         <v>4.356</v>
       </c>
       <c r="F67" t="n">
-        <v>57892.7759</v>
+        <v>8287.4202</v>
       </c>
       <c r="G67" t="n">
-        <v>4.339266666666661</v>
+        <v>4.339333333333328</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2781,22 +2885,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.366</v>
+        <v>4.356</v>
       </c>
       <c r="C68" t="n">
         <v>4.356</v>
       </c>
       <c r="D68" t="n">
-        <v>4.366</v>
+        <v>4.356</v>
       </c>
       <c r="E68" t="n">
         <v>4.356</v>
       </c>
       <c r="F68" t="n">
-        <v>100000</v>
+        <v>57892.7759</v>
       </c>
       <c r="G68" t="n">
-        <v>4.339199999999994</v>
+        <v>4.339266666666661</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2816,22 +2920,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.398</v>
+        <v>4.366</v>
       </c>
       <c r="C69" t="n">
-        <v>4.398</v>
+        <v>4.356</v>
       </c>
       <c r="D69" t="n">
-        <v>4.398</v>
+        <v>4.366</v>
       </c>
       <c r="E69" t="n">
-        <v>4.398</v>
+        <v>4.356</v>
       </c>
       <c r="F69" t="n">
-        <v>25710</v>
+        <v>100000</v>
       </c>
       <c r="G69" t="n">
-        <v>4.341366666666661</v>
+        <v>4.339199999999994</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2851,22 +2955,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.408</v>
+        <v>4.398</v>
       </c>
       <c r="C70" t="n">
         <v>4.398</v>
       </c>
       <c r="D70" t="n">
-        <v>4.408</v>
+        <v>4.398</v>
       </c>
       <c r="E70" t="n">
         <v>4.398</v>
       </c>
       <c r="F70" t="n">
-        <v>56523.4104</v>
+        <v>25710</v>
       </c>
       <c r="G70" t="n">
-        <v>4.343166666666662</v>
+        <v>4.341366666666661</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2886,22 +2990,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.407</v>
+        <v>4.408</v>
       </c>
       <c r="C71" t="n">
-        <v>4.407</v>
+        <v>4.398</v>
       </c>
       <c r="D71" t="n">
-        <v>4.407</v>
+        <v>4.408</v>
       </c>
       <c r="E71" t="n">
-        <v>4.407</v>
+        <v>4.398</v>
       </c>
       <c r="F71" t="n">
-        <v>369.5414</v>
+        <v>56523.4104</v>
       </c>
       <c r="G71" t="n">
-        <v>4.345316666666661</v>
+        <v>4.343166666666662</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2921,22 +3025,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.398</v>
+        <v>4.407</v>
       </c>
       <c r="C72" t="n">
-        <v>4.397</v>
+        <v>4.407</v>
       </c>
       <c r="D72" t="n">
-        <v>4.398</v>
+        <v>4.407</v>
       </c>
       <c r="E72" t="n">
-        <v>4.397</v>
+        <v>4.407</v>
       </c>
       <c r="F72" t="n">
-        <v>29843.6772</v>
+        <v>369.5414</v>
       </c>
       <c r="G72" t="n">
-        <v>4.347466666666661</v>
+        <v>4.345316666666661</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2956,22 +3060,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="C73" t="n">
         <v>4.397</v>
       </c>
-      <c r="C73" t="n">
-        <v>4.387</v>
-      </c>
       <c r="D73" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="E73" t="n">
         <v>4.397</v>
       </c>
-      <c r="E73" t="n">
-        <v>4.387</v>
-      </c>
       <c r="F73" t="n">
-        <v>37393.3704</v>
+        <v>29843.6772</v>
       </c>
       <c r="G73" t="n">
-        <v>4.348816666666662</v>
+        <v>4.347466666666661</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2991,22 +3095,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>4.397</v>
+      </c>
+      <c r="C74" t="n">
         <v>4.387</v>
       </c>
-      <c r="C74" t="n">
-        <v>4.365</v>
-      </c>
       <c r="D74" t="n">
+        <v>4.397</v>
+      </c>
+      <c r="E74" t="n">
         <v>4.387</v>
       </c>
-      <c r="E74" t="n">
-        <v>4.365</v>
-      </c>
       <c r="F74" t="n">
-        <v>85251.32950000001</v>
+        <v>37393.3704</v>
       </c>
       <c r="G74" t="n">
-        <v>4.350433333333329</v>
+        <v>4.348816666666662</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3026,22 +3130,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.4</v>
+        <v>4.387</v>
       </c>
       <c r="C75" t="n">
-        <v>4.4</v>
+        <v>4.365</v>
       </c>
       <c r="D75" t="n">
-        <v>4.4</v>
+        <v>4.387</v>
       </c>
       <c r="E75" t="n">
-        <v>4.4</v>
+        <v>4.365</v>
       </c>
       <c r="F75" t="n">
-        <v>351.6229</v>
+        <v>85251.32950000001</v>
       </c>
       <c r="G75" t="n">
-        <v>4.352199999999995</v>
+        <v>4.350433333333329</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3061,22 +3165,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.366</v>
+        <v>4.4</v>
       </c>
       <c r="C76" t="n">
-        <v>4.366</v>
+        <v>4.4</v>
       </c>
       <c r="D76" t="n">
-        <v>4.366</v>
+        <v>4.4</v>
       </c>
       <c r="E76" t="n">
-        <v>4.366</v>
+        <v>4.4</v>
       </c>
       <c r="F76" t="n">
-        <v>29562.1413</v>
+        <v>351.6229</v>
       </c>
       <c r="G76" t="n">
-        <v>4.353349999999995</v>
+        <v>4.352199999999995</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3096,22 +3200,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.365</v>
+        <v>4.366</v>
       </c>
       <c r="C77" t="n">
-        <v>4.356</v>
+        <v>4.366</v>
       </c>
       <c r="D77" t="n">
-        <v>4.365</v>
+        <v>4.366</v>
       </c>
       <c r="E77" t="n">
-        <v>4.356</v>
+        <v>4.366</v>
       </c>
       <c r="F77" t="n">
-        <v>70427.77340000001</v>
+        <v>29562.1413</v>
       </c>
       <c r="G77" t="n">
-        <v>4.354649999999994</v>
+        <v>4.353349999999995</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3131,22 +3235,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.399</v>
+        <v>4.365</v>
       </c>
       <c r="C78" t="n">
-        <v>4.399</v>
+        <v>4.356</v>
       </c>
       <c r="D78" t="n">
-        <v>4.399</v>
+        <v>4.365</v>
       </c>
       <c r="E78" t="n">
-        <v>4.399</v>
+        <v>4.356</v>
       </c>
       <c r="F78" t="n">
-        <v>334.1176</v>
+        <v>70427.77340000001</v>
       </c>
       <c r="G78" t="n">
-        <v>4.35666666666666</v>
+        <v>4.354649999999994</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3169,19 +3273,19 @@
         <v>4.399</v>
       </c>
       <c r="C79" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
       <c r="D79" t="n">
-        <v>4.4</v>
+        <v>4.399</v>
       </c>
       <c r="E79" t="n">
         <v>4.399</v>
       </c>
       <c r="F79" t="n">
-        <v>200000</v>
+        <v>334.1176</v>
       </c>
       <c r="G79" t="n">
-        <v>4.358733333333327</v>
+        <v>4.35666666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3201,22 +3305,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>4.399</v>
+      </c>
+      <c r="C80" t="n">
         <v>4.4</v>
-      </c>
-      <c r="C80" t="n">
-        <v>4.356</v>
       </c>
       <c r="D80" t="n">
         <v>4.4</v>
       </c>
       <c r="E80" t="n">
-        <v>4.356</v>
+        <v>4.399</v>
       </c>
       <c r="F80" t="n">
-        <v>46699.8982</v>
+        <v>200000</v>
       </c>
       <c r="G80" t="n">
-        <v>4.360199999999994</v>
+        <v>4.358733333333327</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3236,22 +3340,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="C81" t="n">
         <v>4.356</v>
       </c>
       <c r="D81" t="n">
-        <v>4.356</v>
+        <v>4.4</v>
       </c>
       <c r="E81" t="n">
         <v>4.356</v>
       </c>
       <c r="F81" t="n">
-        <v>7131.8861</v>
+        <v>46699.8982</v>
       </c>
       <c r="G81" t="n">
-        <v>4.361649999999994</v>
+        <v>4.360199999999994</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3274,19 +3378,19 @@
         <v>4.356</v>
       </c>
       <c r="C82" t="n">
-        <v>4.352</v>
+        <v>4.356</v>
       </c>
       <c r="D82" t="n">
         <v>4.356</v>
       </c>
       <c r="E82" t="n">
-        <v>4.352</v>
+        <v>4.356</v>
       </c>
       <c r="F82" t="n">
-        <v>86356.9538</v>
+        <v>7131.8861</v>
       </c>
       <c r="G82" t="n">
-        <v>4.363033333333326</v>
+        <v>4.361649999999994</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3306,22 +3410,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.353</v>
+        <v>4.356</v>
       </c>
       <c r="C83" t="n">
-        <v>4.34</v>
+        <v>4.352</v>
       </c>
       <c r="D83" t="n">
-        <v>4.353</v>
+        <v>4.356</v>
       </c>
       <c r="E83" t="n">
-        <v>4.34</v>
+        <v>4.352</v>
       </c>
       <c r="F83" t="n">
-        <v>300000</v>
+        <v>86356.9538</v>
       </c>
       <c r="G83" t="n">
-        <v>4.36376666666666</v>
+        <v>4.363033333333326</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3341,22 +3445,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.35</v>
+        <v>4.353</v>
       </c>
       <c r="C84" t="n">
-        <v>4.333</v>
+        <v>4.34</v>
       </c>
       <c r="D84" t="n">
-        <v>4.35</v>
+        <v>4.353</v>
       </c>
       <c r="E84" t="n">
-        <v>4.333</v>
+        <v>4.34</v>
       </c>
       <c r="F84" t="n">
-        <v>130000</v>
+        <v>300000</v>
       </c>
       <c r="G84" t="n">
-        <v>4.364366666666659</v>
+        <v>4.36376666666666</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3376,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C85" t="n">
         <v>4.333</v>
       </c>
-      <c r="C85" t="n">
-        <v>4.256</v>
-      </c>
       <c r="D85" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E85" t="n">
         <v>4.333</v>
       </c>
-      <c r="E85" t="n">
-        <v>4.256</v>
-      </c>
       <c r="F85" t="n">
-        <v>825576.3454</v>
+        <v>130000</v>
       </c>
       <c r="G85" t="n">
-        <v>4.363683333333326</v>
+        <v>4.364366666666659</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3411,22 +3515,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.336</v>
+        <v>4.333</v>
       </c>
       <c r="C86" t="n">
-        <v>4.336</v>
+        <v>4.256</v>
       </c>
       <c r="D86" t="n">
-        <v>4.336</v>
+        <v>4.333</v>
       </c>
       <c r="E86" t="n">
-        <v>4.336</v>
+        <v>4.256</v>
       </c>
       <c r="F86" t="n">
-        <v>322.0236</v>
+        <v>825576.3454</v>
       </c>
       <c r="G86" t="n">
-        <v>4.364333333333326</v>
+        <v>4.363683333333326</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3446,22 +3550,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.258</v>
+        <v>4.336</v>
       </c>
       <c r="C87" t="n">
-        <v>4.258</v>
+        <v>4.336</v>
       </c>
       <c r="D87" t="n">
-        <v>4.258</v>
+        <v>4.336</v>
       </c>
       <c r="E87" t="n">
-        <v>4.258</v>
+        <v>4.336</v>
       </c>
       <c r="F87" t="n">
-        <v>3730</v>
+        <v>322.0236</v>
       </c>
       <c r="G87" t="n">
-        <v>4.363016666666659</v>
+        <v>4.364333333333326</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3481,22 +3585,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.259</v>
+        <v>4.258</v>
       </c>
       <c r="C88" t="n">
         <v>4.258</v>
       </c>
       <c r="D88" t="n">
-        <v>4.259</v>
+        <v>4.258</v>
       </c>
       <c r="E88" t="n">
         <v>4.258</v>
       </c>
       <c r="F88" t="n">
-        <v>429129.0646</v>
+        <v>3730</v>
       </c>
       <c r="G88" t="n">
-        <v>4.361699999999993</v>
+        <v>4.363016666666659</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3516,22 +3620,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.258</v>
+        <v>4.259</v>
       </c>
       <c r="C89" t="n">
         <v>4.258</v>
       </c>
       <c r="D89" t="n">
-        <v>4.258</v>
+        <v>4.259</v>
       </c>
       <c r="E89" t="n">
         <v>4.258</v>
       </c>
       <c r="F89" t="n">
-        <v>104148.7583</v>
+        <v>429129.0646</v>
       </c>
       <c r="G89" t="n">
-        <v>4.360533333333326</v>
+        <v>4.361699999999993</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3551,22 +3655,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.257</v>
+        <v>4.258</v>
       </c>
       <c r="C90" t="n">
-        <v>4.253</v>
+        <v>4.258</v>
       </c>
       <c r="D90" t="n">
-        <v>4.257</v>
+        <v>4.258</v>
       </c>
       <c r="E90" t="n">
-        <v>4.253</v>
+        <v>4.258</v>
       </c>
       <c r="F90" t="n">
-        <v>533277.8229</v>
+        <v>104148.7583</v>
       </c>
       <c r="G90" t="n">
-        <v>4.359099999999993</v>
+        <v>4.360533333333326</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3586,22 +3690,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.252</v>
+        <v>4.257</v>
       </c>
       <c r="C91" t="n">
-        <v>4.252</v>
+        <v>4.253</v>
       </c>
       <c r="D91" t="n">
-        <v>4.252</v>
+        <v>4.257</v>
       </c>
       <c r="E91" t="n">
-        <v>4.252</v>
+        <v>4.253</v>
       </c>
       <c r="F91" t="n">
-        <v>1376.7275</v>
+        <v>533277.8229</v>
       </c>
       <c r="G91" t="n">
-        <v>4.357833333333327</v>
+        <v>4.359099999999993</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3624,19 +3728,19 @@
         <v>4.252</v>
       </c>
       <c r="C92" t="n">
-        <v>4.251</v>
+        <v>4.252</v>
       </c>
       <c r="D92" t="n">
         <v>4.252</v>
       </c>
       <c r="E92" t="n">
-        <v>4.251</v>
+        <v>4.252</v>
       </c>
       <c r="F92" t="n">
-        <v>103370.4768</v>
+        <v>1376.7275</v>
       </c>
       <c r="G92" t="n">
-        <v>4.356716666666659</v>
+        <v>4.357833333333327</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3656,32 +3760,38 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.296</v>
+        <v>4.252</v>
       </c>
       <c r="C93" t="n">
-        <v>4.296</v>
+        <v>4.251</v>
       </c>
       <c r="D93" t="n">
-        <v>4.296</v>
+        <v>4.252</v>
       </c>
       <c r="E93" t="n">
-        <v>4.296</v>
+        <v>4.251</v>
       </c>
       <c r="F93" t="n">
-        <v>34136.97</v>
+        <v>103370.4768</v>
       </c>
       <c r="G93" t="n">
-        <v>4.355999999999993</v>
+        <v>4.356716666666659</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>4.252</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3691,22 +3801,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.25</v>
+        <v>4.296</v>
       </c>
       <c r="C94" t="n">
-        <v>4.25</v>
+        <v>4.296</v>
       </c>
       <c r="D94" t="n">
-        <v>4.25</v>
+        <v>4.296</v>
       </c>
       <c r="E94" t="n">
-        <v>4.25</v>
+        <v>4.296</v>
       </c>
       <c r="F94" t="n">
-        <v>118</v>
+        <v>34136.97</v>
       </c>
       <c r="G94" t="n">
-        <v>4.35486666666666</v>
+        <v>4.355999999999993</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3716,7 +3826,11 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3726,22 +3840,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.296</v>
+        <v>4.25</v>
       </c>
       <c r="C95" t="n">
         <v>4.25</v>
       </c>
       <c r="D95" t="n">
-        <v>4.296</v>
+        <v>4.25</v>
       </c>
       <c r="E95" t="n">
         <v>4.25</v>
       </c>
       <c r="F95" t="n">
-        <v>426.4181</v>
+        <v>118</v>
       </c>
       <c r="G95" t="n">
-        <v>4.353383333333326</v>
+        <v>4.35486666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3751,7 +3865,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3761,22 +3879,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.29</v>
+        <v>4.296</v>
       </c>
       <c r="C96" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="D96" t="n">
-        <v>4.29</v>
+        <v>4.296</v>
       </c>
       <c r="E96" t="n">
-        <v>4.29</v>
+        <v>4.25</v>
       </c>
       <c r="F96" t="n">
-        <v>14371.7677</v>
+        <v>426.4181</v>
       </c>
       <c r="G96" t="n">
-        <v>4.35221666666666</v>
+        <v>4.353383333333326</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3786,7 +3904,11 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3796,22 +3918,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="C97" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="D97" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="E97" t="n">
-        <v>4.25</v>
+        <v>4.29</v>
       </c>
       <c r="F97" t="n">
-        <v>83008.94530000001</v>
+        <v>14371.7677</v>
       </c>
       <c r="G97" t="n">
-        <v>4.350383333333326</v>
+        <v>4.35221666666666</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3821,7 +3943,11 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3831,22 +3957,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.295</v>
+        <v>4.25</v>
       </c>
       <c r="C98" t="n">
-        <v>4.295</v>
+        <v>4.25</v>
       </c>
       <c r="D98" t="n">
-        <v>4.295</v>
+        <v>4.25</v>
       </c>
       <c r="E98" t="n">
-        <v>4.295</v>
+        <v>4.25</v>
       </c>
       <c r="F98" t="n">
-        <v>293.4007</v>
+        <v>83008.94530000001</v>
       </c>
       <c r="G98" t="n">
-        <v>4.348466666666659</v>
+        <v>4.350383333333326</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3856,7 +3982,11 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3866,22 +3996,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.293</v>
+        <v>4.295</v>
       </c>
       <c r="C99" t="n">
-        <v>4.293</v>
+        <v>4.295</v>
       </c>
       <c r="D99" t="n">
-        <v>4.293</v>
+        <v>4.295</v>
       </c>
       <c r="E99" t="n">
-        <v>4.293</v>
+        <v>4.295</v>
       </c>
       <c r="F99" t="n">
-        <v>33580.981</v>
+        <v>293.4007</v>
       </c>
       <c r="G99" t="n">
-        <v>4.346533333333326</v>
+        <v>4.348466666666659</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3891,7 +4021,11 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3901,22 +4035,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.305</v>
+        <v>4.293</v>
       </c>
       <c r="C100" t="n">
-        <v>4.306</v>
+        <v>4.293</v>
       </c>
       <c r="D100" t="n">
-        <v>4.306</v>
+        <v>4.293</v>
       </c>
       <c r="E100" t="n">
-        <v>4.305</v>
+        <v>4.293</v>
       </c>
       <c r="F100" t="n">
-        <v>52922.3619</v>
+        <v>33580.981</v>
       </c>
       <c r="G100" t="n">
-        <v>4.344816666666659</v>
+        <v>4.346533333333326</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3926,7 +4060,11 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -3936,32 +4074,38 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.317</v>
+        <v>4.305</v>
       </c>
       <c r="C101" t="n">
-        <v>4.32</v>
+        <v>4.306</v>
       </c>
       <c r="D101" t="n">
-        <v>4.32</v>
+        <v>4.306</v>
       </c>
       <c r="E101" t="n">
-        <v>4.317</v>
+        <v>4.305</v>
       </c>
       <c r="F101" t="n">
-        <v>71207.85000000001</v>
+        <v>52922.3619</v>
       </c>
       <c r="G101" t="n">
-        <v>4.344666666666659</v>
+        <v>4.344816666666659</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>4.293</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -3971,7 +4115,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.32</v>
+        <v>4.317</v>
       </c>
       <c r="C102" t="n">
         <v>4.32</v>
@@ -3980,13 +4124,13 @@
         <v>4.32</v>
       </c>
       <c r="E102" t="n">
-        <v>4.32</v>
+        <v>4.317</v>
       </c>
       <c r="F102" t="n">
-        <v>163730.6764</v>
+        <v>71207.85000000001</v>
       </c>
       <c r="G102" t="n">
-        <v>4.344499999999993</v>
+        <v>4.344666666666659</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3996,7 +4140,11 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4018,10 +4166,10 @@
         <v>4.32</v>
       </c>
       <c r="F103" t="n">
-        <v>45412.612</v>
+        <v>163730.6764</v>
       </c>
       <c r="G103" t="n">
-        <v>4.344333333333326</v>
+        <v>4.344499999999993</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4031,7 +4179,11 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4041,22 +4193,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.306</v>
+        <v>4.32</v>
       </c>
       <c r="C104" t="n">
-        <v>4.306</v>
+        <v>4.32</v>
       </c>
       <c r="D104" t="n">
-        <v>4.306</v>
+        <v>4.32</v>
       </c>
       <c r="E104" t="n">
-        <v>4.306</v>
+        <v>4.32</v>
       </c>
       <c r="F104" t="n">
-        <v>4269.5443</v>
+        <v>45412.612</v>
       </c>
       <c r="G104" t="n">
-        <v>4.344133333333327</v>
+        <v>4.344333333333326</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4066,7 +4218,11 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4088,10 +4244,10 @@
         <v>4.306</v>
       </c>
       <c r="F105" t="n">
-        <v>160544.2825</v>
+        <v>4269.5443</v>
       </c>
       <c r="G105" t="n">
-        <v>4.343933333333326</v>
+        <v>4.344133333333327</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4101,7 +4257,11 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4123,10 +4283,10 @@
         <v>4.306</v>
       </c>
       <c r="F106" t="n">
-        <v>2497.8125</v>
+        <v>160544.2825</v>
       </c>
       <c r="G106" t="n">
-        <v>4.343733333333327</v>
+        <v>4.343933333333326</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4136,7 +4296,11 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4158,10 +4322,10 @@
         <v>4.306</v>
       </c>
       <c r="F107" t="n">
-        <v>10527.0752</v>
+        <v>2497.8125</v>
       </c>
       <c r="G107" t="n">
-        <v>4.343333333333326</v>
+        <v>4.343733333333327</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4171,7 +4335,11 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4181,22 +4349,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.295</v>
+        <v>4.306</v>
       </c>
       <c r="C108" t="n">
-        <v>4.295</v>
+        <v>4.306</v>
       </c>
       <c r="D108" t="n">
-        <v>4.295</v>
+        <v>4.306</v>
       </c>
       <c r="E108" t="n">
-        <v>4.295</v>
+        <v>4.306</v>
       </c>
       <c r="F108" t="n">
-        <v>50000</v>
+        <v>10527.0752</v>
       </c>
       <c r="G108" t="n">
-        <v>4.342749999999993</v>
+        <v>4.343333333333326</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4206,7 +4374,11 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4228,10 +4400,10 @@
         <v>4.295</v>
       </c>
       <c r="F109" t="n">
-        <v>43967.2489</v>
+        <v>50000</v>
       </c>
       <c r="G109" t="n">
-        <v>4.341149999999994</v>
+        <v>4.342749999999993</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4241,7 +4413,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4251,22 +4427,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.306</v>
+        <v>4.295</v>
       </c>
       <c r="C110" t="n">
-        <v>4.306</v>
+        <v>4.295</v>
       </c>
       <c r="D110" t="n">
-        <v>4.306</v>
+        <v>4.295</v>
       </c>
       <c r="E110" t="n">
-        <v>4.306</v>
+        <v>4.295</v>
       </c>
       <c r="F110" t="n">
-        <v>278.0186</v>
+        <v>43967.2489</v>
       </c>
       <c r="G110" t="n">
-        <v>4.33976666666666</v>
+        <v>4.341149999999994</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4276,7 +4452,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4298,10 +4478,10 @@
         <v>4.306</v>
       </c>
       <c r="F111" t="n">
-        <v>42653.9462</v>
+        <v>278.0186</v>
       </c>
       <c r="G111" t="n">
-        <v>4.338383333333326</v>
+        <v>4.33976666666666</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4311,7 +4491,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4321,22 +4505,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.307</v>
+        <v>4.306</v>
       </c>
       <c r="C112" t="n">
-        <v>4.307</v>
+        <v>4.306</v>
       </c>
       <c r="D112" t="n">
-        <v>4.307</v>
+        <v>4.306</v>
       </c>
       <c r="E112" t="n">
-        <v>4.307</v>
+        <v>4.306</v>
       </c>
       <c r="F112" t="n">
-        <v>27695.8017</v>
+        <v>42653.9462</v>
       </c>
       <c r="G112" t="n">
-        <v>4.337816666666659</v>
+        <v>4.338383333333326</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4346,7 +4530,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4368,10 +4556,10 @@
         <v>4.307</v>
       </c>
       <c r="F113" t="n">
-        <v>132997.098</v>
+        <v>27695.8017</v>
       </c>
       <c r="G113" t="n">
-        <v>4.337249999999993</v>
+        <v>4.337816666666659</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4381,7 +4569,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4391,22 +4583,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.306</v>
+        <v>4.307</v>
       </c>
       <c r="C114" t="n">
-        <v>4.306</v>
+        <v>4.307</v>
       </c>
       <c r="D114" t="n">
-        <v>4.306</v>
+        <v>4.307</v>
       </c>
       <c r="E114" t="n">
-        <v>4.306</v>
+        <v>4.307</v>
       </c>
       <c r="F114" t="n">
-        <v>101209.0952</v>
+        <v>132997.098</v>
       </c>
       <c r="G114" t="n">
-        <v>4.335866666666659</v>
+        <v>4.337249999999993</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4416,7 +4608,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4438,10 +4634,10 @@
         <v>4.306</v>
       </c>
       <c r="F115" t="n">
-        <v>997.1287</v>
+        <v>101209.0952</v>
       </c>
       <c r="G115" t="n">
-        <v>4.334433333333325</v>
+        <v>4.335866666666659</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4451,7 +4647,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4461,22 +4661,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.294</v>
+        <v>4.306</v>
       </c>
       <c r="C116" t="n">
-        <v>4.294</v>
+        <v>4.306</v>
       </c>
       <c r="D116" t="n">
-        <v>4.294</v>
+        <v>4.306</v>
       </c>
       <c r="E116" t="n">
-        <v>4.294</v>
+        <v>4.306</v>
       </c>
       <c r="F116" t="n">
-        <v>227418.2091</v>
+        <v>997.1287</v>
       </c>
       <c r="G116" t="n">
-        <v>4.332533333333325</v>
+        <v>4.334433333333325</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4486,7 +4686,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4496,22 +4700,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.295</v>
+        <v>4.294</v>
       </c>
       <c r="C117" t="n">
-        <v>4.295</v>
+        <v>4.294</v>
       </c>
       <c r="D117" t="n">
-        <v>4.295</v>
+        <v>4.294</v>
       </c>
       <c r="E117" t="n">
-        <v>4.295</v>
+        <v>4.294</v>
       </c>
       <c r="F117" t="n">
-        <v>55626.9406</v>
+        <v>227418.2091</v>
       </c>
       <c r="G117" t="n">
-        <v>4.330649999999991</v>
+        <v>4.332533333333325</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4521,7 +4725,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4543,10 +4751,10 @@
         <v>4.295</v>
       </c>
       <c r="F118" t="n">
-        <v>130000</v>
+        <v>55626.9406</v>
       </c>
       <c r="G118" t="n">
-        <v>4.328999999999992</v>
+        <v>4.330649999999991</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4556,7 +4764,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4566,22 +4778,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="C119" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="D119" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="E119" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="F119" t="n">
-        <v>116</v>
+        <v>130000</v>
       </c>
       <c r="G119" t="n">
-        <v>4.327883333333324</v>
+        <v>4.328999999999992</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4591,7 +4803,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4601,22 +4817,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.295</v>
+        <v>4.34</v>
       </c>
       <c r="C120" t="n">
-        <v>4.295</v>
+        <v>4.34</v>
       </c>
       <c r="D120" t="n">
-        <v>4.295</v>
+        <v>4.34</v>
       </c>
       <c r="E120" t="n">
-        <v>4.295</v>
+        <v>4.34</v>
       </c>
       <c r="F120" t="n">
-        <v>20032.7067</v>
+        <v>116</v>
       </c>
       <c r="G120" t="n">
-        <v>4.326016666666659</v>
+        <v>4.327883333333324</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4626,7 +4842,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4648,10 +4868,10 @@
         <v>4.295</v>
       </c>
       <c r="F121" t="n">
-        <v>27427.4579</v>
+        <v>20032.7067</v>
       </c>
       <c r="G121" t="n">
-        <v>4.324266666666659</v>
+        <v>4.326016666666659</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4661,7 +4881,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4671,22 +4895,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="C122" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="D122" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="E122" t="n">
-        <v>4.34</v>
+        <v>4.295</v>
       </c>
       <c r="F122" t="n">
-        <v>262.0485</v>
+        <v>27427.4579</v>
       </c>
       <c r="G122" t="n">
-        <v>4.323266666666659</v>
+        <v>4.324266666666659</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4696,7 +4920,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4718,10 +4946,10 @@
         <v>4.34</v>
       </c>
       <c r="F123" t="n">
-        <v>95853.4216</v>
+        <v>262.0485</v>
       </c>
       <c r="G123" t="n">
-        <v>4.32226666666666</v>
+        <v>4.323266666666659</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4731,7 +4959,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4741,22 +4973,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="C124" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="D124" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="E124" t="n">
-        <v>4.35</v>
+        <v>4.34</v>
       </c>
       <c r="F124" t="n">
-        <v>248.3738</v>
+        <v>95853.4216</v>
       </c>
       <c r="G124" t="n">
-        <v>4.321433333333327</v>
+        <v>4.32226666666666</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4766,7 +4998,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +5012,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.305</v>
+        <v>4.35</v>
       </c>
       <c r="C125" t="n">
-        <v>4.305</v>
+        <v>4.35</v>
       </c>
       <c r="D125" t="n">
-        <v>4.305</v>
+        <v>4.35</v>
       </c>
       <c r="E125" t="n">
-        <v>4.305</v>
+        <v>4.35</v>
       </c>
       <c r="F125" t="n">
-        <v>25410</v>
+        <v>248.3738</v>
       </c>
       <c r="G125" t="n">
-        <v>4.319849999999994</v>
+        <v>4.321433333333327</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4801,7 +5037,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4823,10 +5063,10 @@
         <v>4.305</v>
       </c>
       <c r="F126" t="n">
-        <v>20000</v>
+        <v>25410</v>
       </c>
       <c r="G126" t="n">
-        <v>4.318999999999994</v>
+        <v>4.319849999999994</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4836,7 +5076,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4849,19 +5093,19 @@
         <v>4.305</v>
       </c>
       <c r="C127" t="n">
-        <v>4.294</v>
+        <v>4.305</v>
       </c>
       <c r="D127" t="n">
         <v>4.305</v>
       </c>
       <c r="E127" t="n">
-        <v>4.294</v>
+        <v>4.305</v>
       </c>
       <c r="F127" t="n">
-        <v>353725.9019</v>
+        <v>20000</v>
       </c>
       <c r="G127" t="n">
-        <v>4.317966666666661</v>
+        <v>4.318999999999994</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4871,7 +5115,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4881,22 +5129,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.314</v>
+        <v>4.305</v>
       </c>
       <c r="C128" t="n">
-        <v>4.314</v>
+        <v>4.294</v>
       </c>
       <c r="D128" t="n">
-        <v>4.314</v>
+        <v>4.305</v>
       </c>
       <c r="E128" t="n">
-        <v>4.314</v>
+        <v>4.294</v>
       </c>
       <c r="F128" t="n">
-        <v>237.9243</v>
+        <v>353725.9019</v>
       </c>
       <c r="G128" t="n">
-        <v>4.317266666666661</v>
+        <v>4.317966666666661</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4906,7 +5154,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4916,22 +5168,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.294</v>
+        <v>4.314</v>
       </c>
       <c r="C129" t="n">
-        <v>4.294</v>
+        <v>4.314</v>
       </c>
       <c r="D129" t="n">
-        <v>4.294</v>
+        <v>4.314</v>
       </c>
       <c r="E129" t="n">
-        <v>4.294</v>
+        <v>4.314</v>
       </c>
       <c r="F129" t="n">
-        <v>5203.4608</v>
+        <v>237.9243</v>
       </c>
       <c r="G129" t="n">
-        <v>4.315533333333327</v>
+        <v>4.317266666666661</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4941,7 +5193,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4951,22 +5207,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.309</v>
+        <v>4.294</v>
       </c>
       <c r="C130" t="n">
-        <v>4.309</v>
+        <v>4.294</v>
       </c>
       <c r="D130" t="n">
-        <v>4.309</v>
+        <v>4.294</v>
       </c>
       <c r="E130" t="n">
-        <v>4.309</v>
+        <v>4.294</v>
       </c>
       <c r="F130" t="n">
-        <v>226.2902</v>
+        <v>5203.4608</v>
       </c>
       <c r="G130" t="n">
-        <v>4.314049999999994</v>
+        <v>4.315533333333327</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4976,7 +5232,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4998,10 +5258,10 @@
         <v>4.309</v>
       </c>
       <c r="F131" t="n">
-        <v>371.315850545</v>
+        <v>226.2902</v>
       </c>
       <c r="G131" t="n">
-        <v>4.312416666666661</v>
+        <v>4.314049999999994</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5011,7 +5271,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5021,22 +5285,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="C132" t="n">
-        <v>4.28</v>
+        <v>4.309</v>
       </c>
       <c r="D132" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="E132" t="n">
-        <v>4.28</v>
+        <v>4.309</v>
       </c>
       <c r="F132" t="n">
-        <v>32156.9863</v>
+        <v>371.315850545</v>
       </c>
       <c r="G132" t="n">
-        <v>4.31046666666666</v>
+        <v>4.312416666666661</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5046,7 +5310,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5056,22 +5324,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.299</v>
+        <v>4.281</v>
       </c>
       <c r="C133" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="D133" t="n">
-        <v>4.299</v>
+        <v>4.281</v>
       </c>
       <c r="E133" t="n">
-        <v>4.299</v>
+        <v>4.28</v>
       </c>
       <c r="F133" t="n">
-        <v>215.4758</v>
+        <v>32156.9863</v>
       </c>
       <c r="G133" t="n">
-        <v>4.308999999999994</v>
+        <v>4.31046666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5081,7 +5349,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5091,22 +5363,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.288</v>
+        <v>4.299</v>
       </c>
       <c r="C134" t="n">
-        <v>4.298</v>
+        <v>4.299</v>
       </c>
       <c r="D134" t="n">
-        <v>4.298</v>
+        <v>4.299</v>
       </c>
       <c r="E134" t="n">
-        <v>4.288</v>
+        <v>4.299</v>
       </c>
       <c r="F134" t="n">
-        <v>181940</v>
+        <v>215.4758</v>
       </c>
       <c r="G134" t="n">
-        <v>4.307883333333327</v>
+        <v>4.308999999999994</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5116,7 +5388,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +5402,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.309</v>
+        <v>4.288</v>
       </c>
       <c r="C135" t="n">
-        <v>4.309</v>
+        <v>4.298</v>
       </c>
       <c r="D135" t="n">
-        <v>4.309</v>
+        <v>4.298</v>
       </c>
       <c r="E135" t="n">
-        <v>4.309</v>
+        <v>4.288</v>
       </c>
       <c r="F135" t="n">
-        <v>204.2269</v>
+        <v>181940</v>
       </c>
       <c r="G135" t="n">
-        <v>4.306366666666661</v>
+        <v>4.307883333333327</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5151,7 +5427,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5161,22 +5441,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="C136" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="D136" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="E136" t="n">
-        <v>4.281</v>
+        <v>4.309</v>
       </c>
       <c r="F136" t="n">
-        <v>127.0198</v>
+        <v>204.2269</v>
       </c>
       <c r="G136" t="n">
-        <v>4.304949999999995</v>
+        <v>4.306366666666661</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5186,7 +5466,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5196,22 +5480,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.309</v>
+        <v>4.281</v>
       </c>
       <c r="C137" t="n">
-        <v>4.309</v>
+        <v>4.281</v>
       </c>
       <c r="D137" t="n">
-        <v>4.309</v>
+        <v>4.281</v>
       </c>
       <c r="E137" t="n">
-        <v>4.309</v>
+        <v>4.281</v>
       </c>
       <c r="F137" t="n">
-        <v>194.0155</v>
+        <v>127.0198</v>
       </c>
       <c r="G137" t="n">
-        <v>4.304166666666662</v>
+        <v>4.304949999999995</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5221,7 +5505,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5231,22 +5519,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.283</v>
+        <v>4.309</v>
       </c>
       <c r="C138" t="n">
-        <v>4.292</v>
+        <v>4.309</v>
       </c>
       <c r="D138" t="n">
-        <v>4.292</v>
+        <v>4.309</v>
       </c>
       <c r="E138" t="n">
-        <v>4.283</v>
+        <v>4.309</v>
       </c>
       <c r="F138" t="n">
-        <v>35190</v>
+        <v>194.0155</v>
       </c>
       <c r="G138" t="n">
-        <v>4.302383333333328</v>
+        <v>4.304166666666662</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5256,7 +5544,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5266,22 +5558,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.282</v>
+        <v>4.283</v>
       </c>
       <c r="C139" t="n">
-        <v>4.28</v>
+        <v>4.292</v>
       </c>
       <c r="D139" t="n">
-        <v>4.282</v>
+        <v>4.292</v>
       </c>
       <c r="E139" t="n">
-        <v>4.28</v>
+        <v>4.283</v>
       </c>
       <c r="F139" t="n">
-        <v>40596.1677</v>
+        <v>35190</v>
       </c>
       <c r="G139" t="n">
-        <v>4.300383333333328</v>
+        <v>4.302383333333328</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5291,7 +5583,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5301,22 +5597,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.283</v>
+        <v>4.282</v>
       </c>
       <c r="C140" t="n">
         <v>4.28</v>
       </c>
       <c r="D140" t="n">
-        <v>4.283</v>
+        <v>4.282</v>
       </c>
       <c r="E140" t="n">
         <v>4.28</v>
       </c>
       <c r="F140" t="n">
-        <v>36417.1258</v>
+        <v>40596.1677</v>
       </c>
       <c r="G140" t="n">
-        <v>4.299116666666661</v>
+        <v>4.300383333333328</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5326,7 +5622,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5336,22 +5636,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="C141" t="n">
         <v>4.28</v>
       </c>
-      <c r="C141" t="n">
-        <v>4.258</v>
-      </c>
       <c r="D141" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="E141" t="n">
         <v>4.28</v>
       </c>
-      <c r="E141" t="n">
-        <v>4.258</v>
-      </c>
       <c r="F141" t="n">
-        <v>676397.9323</v>
+        <v>36417.1258</v>
       </c>
       <c r="G141" t="n">
-        <v>4.297483333333328</v>
+        <v>4.299116666666661</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5361,7 +5661,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5371,22 +5675,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.251</v>
+        <v>4.28</v>
       </c>
       <c r="C142" t="n">
-        <v>4.249</v>
+        <v>4.258</v>
       </c>
       <c r="D142" t="n">
-        <v>4.251</v>
+        <v>4.28</v>
       </c>
       <c r="E142" t="n">
-        <v>4.249</v>
+        <v>4.258</v>
       </c>
       <c r="F142" t="n">
-        <v>167067.8155</v>
+        <v>676397.9323</v>
       </c>
       <c r="G142" t="n">
-        <v>4.295766666666662</v>
+        <v>4.297483333333328</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5396,7 +5700,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5406,22 +5714,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.299</v>
+        <v>4.251</v>
       </c>
       <c r="C143" t="n">
-        <v>4.299</v>
+        <v>4.249</v>
       </c>
       <c r="D143" t="n">
-        <v>4.299</v>
+        <v>4.251</v>
       </c>
       <c r="E143" t="n">
-        <v>4.299</v>
+        <v>4.249</v>
       </c>
       <c r="F143" t="n">
-        <v>120</v>
+        <v>167067.8155</v>
       </c>
       <c r="G143" t="n">
-        <v>4.295083333333328</v>
+        <v>4.295766666666662</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5431,7 +5739,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5453,10 +5765,10 @@
         <v>4.299</v>
       </c>
       <c r="F144" t="n">
-        <v>50540</v>
+        <v>120</v>
       </c>
       <c r="G144" t="n">
-        <v>4.294516666666661</v>
+        <v>4.295083333333328</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5466,7 +5778,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5488,10 +5804,10 @@
         <v>4.299</v>
       </c>
       <c r="F145" t="n">
-        <v>251249.0112</v>
+        <v>50540</v>
       </c>
       <c r="G145" t="n">
-        <v>4.295233333333327</v>
+        <v>4.294516666666661</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5501,7 +5817,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5511,22 +5831,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.309</v>
+        <v>4.299</v>
       </c>
       <c r="C146" t="n">
-        <v>4.309</v>
+        <v>4.299</v>
       </c>
       <c r="D146" t="n">
-        <v>4.309</v>
+        <v>4.299</v>
       </c>
       <c r="E146" t="n">
-        <v>4.309</v>
+        <v>4.299</v>
       </c>
       <c r="F146" t="n">
-        <v>4988.0877</v>
+        <v>251249.0112</v>
       </c>
       <c r="G146" t="n">
-        <v>4.294783333333327</v>
+        <v>4.295233333333327</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5536,7 +5856,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5546,7 +5870,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="C147" t="n">
         <v>4.309</v>
@@ -5555,13 +5879,13 @@
         <v>4.309</v>
       </c>
       <c r="E147" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="F147" t="n">
-        <v>156838.625549455</v>
+        <v>4988.0877</v>
       </c>
       <c r="G147" t="n">
-        <v>4.295633333333328</v>
+        <v>4.294783333333327</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5571,7 +5895,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5581,22 +5909,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.318</v>
+        <v>4.308</v>
       </c>
       <c r="C148" t="n">
-        <v>4.318</v>
+        <v>4.309</v>
       </c>
       <c r="D148" t="n">
-        <v>4.318</v>
+        <v>4.309</v>
       </c>
       <c r="E148" t="n">
-        <v>4.318</v>
+        <v>4.308</v>
       </c>
       <c r="F148" t="n">
-        <v>116</v>
+        <v>156838.625549455</v>
       </c>
       <c r="G148" t="n">
-        <v>4.296633333333328</v>
+        <v>4.295633333333328</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5606,7 +5934,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5619,19 +5951,19 @@
         <v>4.318</v>
       </c>
       <c r="C149" t="n">
-        <v>4.319</v>
+        <v>4.318</v>
       </c>
       <c r="D149" t="n">
-        <v>4.319</v>
+        <v>4.318</v>
       </c>
       <c r="E149" t="n">
         <v>4.318</v>
       </c>
       <c r="F149" t="n">
-        <v>14447.9847</v>
+        <v>116</v>
       </c>
       <c r="G149" t="n">
-        <v>4.297649999999995</v>
+        <v>4.296633333333328</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5641,7 +5973,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5651,7 +5987,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.319</v>
+        <v>4.318</v>
       </c>
       <c r="C150" t="n">
         <v>4.319</v>
@@ -5660,13 +5996,13 @@
         <v>4.319</v>
       </c>
       <c r="E150" t="n">
-        <v>4.319</v>
+        <v>4.318</v>
       </c>
       <c r="F150" t="n">
-        <v>53526.3442</v>
+        <v>14447.9847</v>
       </c>
       <c r="G150" t="n">
-        <v>4.298749999999996</v>
+        <v>4.297649999999995</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5676,7 +6012,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5689,19 +6029,19 @@
         <v>4.319</v>
       </c>
       <c r="C151" t="n">
-        <v>4.339</v>
+        <v>4.319</v>
       </c>
       <c r="D151" t="n">
-        <v>4.339</v>
+        <v>4.319</v>
       </c>
       <c r="E151" t="n">
         <v>4.319</v>
       </c>
       <c r="F151" t="n">
-        <v>95362.49400000001</v>
+        <v>53526.3442</v>
       </c>
       <c r="G151" t="n">
-        <v>4.300199999999995</v>
+        <v>4.298749999999996</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5711,7 +6051,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5721,7 +6065,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.339</v>
+        <v>4.319</v>
       </c>
       <c r="C152" t="n">
         <v>4.339</v>
@@ -5730,13 +6074,13 @@
         <v>4.339</v>
       </c>
       <c r="E152" t="n">
-        <v>4.339</v>
+        <v>4.319</v>
       </c>
       <c r="F152" t="n">
-        <v>363885.7306</v>
+        <v>95362.49400000001</v>
       </c>
       <c r="G152" t="n">
-        <v>4.301666666666662</v>
+        <v>4.300199999999995</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5746,7 +6090,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5756,22 +6104,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.329</v>
+        <v>4.339</v>
       </c>
       <c r="C153" t="n">
-        <v>4.329</v>
+        <v>4.339</v>
       </c>
       <c r="D153" t="n">
-        <v>4.329</v>
+        <v>4.339</v>
       </c>
       <c r="E153" t="n">
-        <v>4.329</v>
+        <v>4.339</v>
       </c>
       <c r="F153" t="n">
-        <v>154.7058</v>
+        <v>363885.7306</v>
       </c>
       <c r="G153" t="n">
-        <v>4.302216666666663</v>
+        <v>4.301666666666662</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5781,7 +6129,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5791,22 +6143,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.357</v>
+        <v>4.329</v>
       </c>
       <c r="C154" t="n">
         <v>4.329</v>
       </c>
       <c r="D154" t="n">
-        <v>4.357</v>
+        <v>4.329</v>
       </c>
       <c r="E154" t="n">
         <v>4.329</v>
       </c>
       <c r="F154" t="n">
-        <v>276.1862</v>
+        <v>154.7058</v>
       </c>
       <c r="G154" t="n">
-        <v>4.30353333333333</v>
+        <v>4.302216666666663</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5816,7 +6168,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5826,22 +6182,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.329</v>
+        <v>4.357</v>
       </c>
       <c r="C155" t="n">
         <v>4.329</v>
       </c>
       <c r="D155" t="n">
-        <v>4.329</v>
+        <v>4.357</v>
       </c>
       <c r="E155" t="n">
         <v>4.329</v>
       </c>
       <c r="F155" t="n">
-        <v>13842.8088</v>
+        <v>276.1862</v>
       </c>
       <c r="G155" t="n">
-        <v>4.304849999999997</v>
+        <v>4.30353333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5851,7 +6207,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5873,10 +6233,10 @@
         <v>4.329</v>
       </c>
       <c r="F156" t="n">
-        <v>12817.2992</v>
+        <v>13842.8088</v>
       </c>
       <c r="G156" t="n">
-        <v>4.305499999999996</v>
+        <v>4.304849999999997</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5886,7 +6246,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5896,22 +6260,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.319</v>
+        <v>4.329</v>
       </c>
       <c r="C157" t="n">
-        <v>4.318</v>
+        <v>4.329</v>
       </c>
       <c r="D157" t="n">
-        <v>4.319</v>
+        <v>4.329</v>
       </c>
       <c r="E157" t="n">
-        <v>4.318</v>
+        <v>4.329</v>
       </c>
       <c r="F157" t="n">
-        <v>204819.3268</v>
+        <v>12817.2992</v>
       </c>
       <c r="G157" t="n">
-        <v>4.306633333333329</v>
+        <v>4.305499999999996</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5921,7 +6285,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5931,22 +6299,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.309</v>
+        <v>4.319</v>
       </c>
       <c r="C158" t="n">
-        <v>4.309</v>
+        <v>4.318</v>
       </c>
       <c r="D158" t="n">
-        <v>4.309</v>
+        <v>4.319</v>
       </c>
       <c r="E158" t="n">
-        <v>4.309</v>
+        <v>4.318</v>
       </c>
       <c r="F158" t="n">
-        <v>45601.3317</v>
+        <v>204819.3268</v>
       </c>
       <c r="G158" t="n">
-        <v>4.306866666666663</v>
+        <v>4.306633333333329</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5956,7 +6324,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5969,19 +6341,19 @@
         <v>4.309</v>
       </c>
       <c r="C159" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="D159" t="n">
         <v>4.309</v>
       </c>
       <c r="E159" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="F159" t="n">
-        <v>107560.042750545</v>
+        <v>45601.3317</v>
       </c>
       <c r="G159" t="n">
-        <v>4.307116666666662</v>
+        <v>4.306866666666663</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5991,7 +6363,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6001,22 +6377,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.265</v>
+        <v>4.309</v>
       </c>
       <c r="C160" t="n">
-        <v>4.258</v>
+        <v>4.308</v>
       </c>
       <c r="D160" t="n">
-        <v>4.265</v>
+        <v>4.309</v>
       </c>
       <c r="E160" t="n">
-        <v>4.258</v>
+        <v>4.308</v>
       </c>
       <c r="F160" t="n">
-        <v>405721.8803</v>
+        <v>107560.042750545</v>
       </c>
       <c r="G160" t="n">
-        <v>4.306316666666662</v>
+        <v>4.307116666666662</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6026,7 +6402,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6036,22 +6416,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.308</v>
+        <v>4.265</v>
       </c>
       <c r="C161" t="n">
-        <v>4.308</v>
+        <v>4.258</v>
       </c>
       <c r="D161" t="n">
-        <v>4.308</v>
+        <v>4.265</v>
       </c>
       <c r="E161" t="n">
-        <v>4.308</v>
+        <v>4.258</v>
       </c>
       <c r="F161" t="n">
-        <v>184.3575</v>
+        <v>405721.8803</v>
       </c>
       <c r="G161" t="n">
-        <v>4.306116666666663</v>
+        <v>4.306316666666662</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6061,7 +6441,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6071,22 +6455,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.307</v>
+        <v>4.308</v>
       </c>
       <c r="C162" t="n">
-        <v>4.307</v>
+        <v>4.308</v>
       </c>
       <c r="D162" t="n">
-        <v>4.307</v>
+        <v>4.308</v>
       </c>
       <c r="E162" t="n">
-        <v>4.307</v>
+        <v>4.308</v>
       </c>
       <c r="F162" t="n">
-        <v>100000</v>
+        <v>184.3575</v>
       </c>
       <c r="G162" t="n">
-        <v>4.305899999999996</v>
+        <v>4.306116666666663</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6096,7 +6480,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6106,22 +6494,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.269</v>
+        <v>4.307</v>
       </c>
       <c r="C163" t="n">
-        <v>4.269</v>
+        <v>4.307</v>
       </c>
       <c r="D163" t="n">
-        <v>4.269</v>
+        <v>4.307</v>
       </c>
       <c r="E163" t="n">
-        <v>4.269</v>
+        <v>4.307</v>
       </c>
       <c r="F163" t="n">
-        <v>138.1523</v>
+        <v>100000</v>
       </c>
       <c r="G163" t="n">
-        <v>4.305049999999996</v>
+        <v>4.305899999999996</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6131,7 +6519,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6153,10 +6545,10 @@
         <v>4.269</v>
       </c>
       <c r="F164" t="n">
-        <v>30000</v>
+        <v>138.1523</v>
       </c>
       <c r="G164" t="n">
-        <v>4.30443333333333</v>
+        <v>4.305049999999996</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6166,7 +6558,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6176,22 +6572,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.308</v>
+        <v>4.269</v>
       </c>
       <c r="C165" t="n">
-        <v>4.308</v>
+        <v>4.269</v>
       </c>
       <c r="D165" t="n">
-        <v>4.308</v>
+        <v>4.269</v>
       </c>
       <c r="E165" t="n">
-        <v>4.308</v>
+        <v>4.269</v>
       </c>
       <c r="F165" t="n">
-        <v>5000</v>
+        <v>30000</v>
       </c>
       <c r="G165" t="n">
-        <v>4.304466666666664</v>
+        <v>4.30443333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6201,7 +6597,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6223,10 +6623,10 @@
         <v>4.308</v>
       </c>
       <c r="F166" t="n">
-        <v>94815.6425</v>
+        <v>5000</v>
       </c>
       <c r="G166" t="n">
-        <v>4.304499999999996</v>
+        <v>4.304466666666664</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6236,7 +6636,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6650,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.309</v>
+        <v>4.308</v>
       </c>
       <c r="C167" t="n">
-        <v>4.309</v>
+        <v>4.308</v>
       </c>
       <c r="D167" t="n">
-        <v>4.309</v>
+        <v>4.308</v>
       </c>
       <c r="E167" t="n">
-        <v>4.309</v>
+        <v>4.308</v>
       </c>
       <c r="F167" t="n">
-        <v>1013334.6663</v>
+        <v>94815.6425</v>
       </c>
       <c r="G167" t="n">
-        <v>4.304549999999997</v>
+        <v>4.304499999999996</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6271,7 +6675,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6281,22 +6689,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="C168" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="D168" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="E168" t="n">
-        <v>4.308</v>
+        <v>4.309</v>
       </c>
       <c r="F168" t="n">
-        <v>58167.4985</v>
+        <v>1013334.6663</v>
       </c>
       <c r="G168" t="n">
-        <v>4.304766666666664</v>
+        <v>4.304549999999997</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6306,7 +6714,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6328,10 +6740,10 @@
         <v>4.308</v>
       </c>
       <c r="F169" t="n">
-        <v>576897.4661</v>
+        <v>58167.4985</v>
       </c>
       <c r="G169" t="n">
-        <v>4.30498333333333</v>
+        <v>4.304766666666664</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6341,7 +6753,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6351,22 +6767,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.328</v>
+        <v>4.308</v>
       </c>
       <c r="C170" t="n">
-        <v>4.328</v>
+        <v>4.308</v>
       </c>
       <c r="D170" t="n">
-        <v>4.328</v>
+        <v>4.308</v>
       </c>
       <c r="E170" t="n">
-        <v>4.328</v>
+        <v>4.308</v>
       </c>
       <c r="F170" t="n">
-        <v>50000</v>
+        <v>576897.4661</v>
       </c>
       <c r="G170" t="n">
-        <v>4.305349999999996</v>
+        <v>4.30498333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6376,7 +6792,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6389,19 +6809,19 @@
         <v>4.328</v>
       </c>
       <c r="C171" t="n">
-        <v>4.312</v>
+        <v>4.328</v>
       </c>
       <c r="D171" t="n">
         <v>4.328</v>
       </c>
       <c r="E171" t="n">
-        <v>4.312</v>
+        <v>4.328</v>
       </c>
       <c r="F171" t="n">
-        <v>280610</v>
+        <v>50000</v>
       </c>
       <c r="G171" t="n">
-        <v>4.305449999999997</v>
+        <v>4.305349999999996</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6411,7 +6831,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6421,22 +6845,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.302</v>
+        <v>4.328</v>
       </c>
       <c r="C172" t="n">
-        <v>4.302</v>
+        <v>4.312</v>
       </c>
       <c r="D172" t="n">
-        <v>4.302</v>
+        <v>4.328</v>
       </c>
       <c r="E172" t="n">
-        <v>4.302</v>
+        <v>4.312</v>
       </c>
       <c r="F172" t="n">
-        <v>42742.116</v>
+        <v>280610</v>
       </c>
       <c r="G172" t="n">
-        <v>4.305366666666663</v>
+        <v>4.305449999999997</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6446,7 +6870,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6456,22 +6884,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.312</v>
+        <v>4.302</v>
       </c>
       <c r="C173" t="n">
-        <v>4.312</v>
+        <v>4.302</v>
       </c>
       <c r="D173" t="n">
-        <v>4.312</v>
+        <v>4.302</v>
       </c>
       <c r="E173" t="n">
-        <v>4.312</v>
+        <v>4.302</v>
       </c>
       <c r="F173" t="n">
-        <v>761.3774</v>
+        <v>42742.116</v>
       </c>
       <c r="G173" t="n">
-        <v>4.305449999999997</v>
+        <v>4.305366666666663</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6481,7 +6909,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6491,22 +6923,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.322</v>
+        <v>4.312</v>
       </c>
       <c r="C174" t="n">
-        <v>4.322</v>
+        <v>4.312</v>
       </c>
       <c r="D174" t="n">
-        <v>4.322</v>
+        <v>4.312</v>
       </c>
       <c r="E174" t="n">
-        <v>4.322</v>
+        <v>4.312</v>
       </c>
       <c r="F174" t="n">
-        <v>11760</v>
+        <v>761.3774</v>
       </c>
       <c r="G174" t="n">
-        <v>4.305716666666664</v>
+        <v>4.305449999999997</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6516,7 +6948,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6538,10 +6974,10 @@
         <v>4.322</v>
       </c>
       <c r="F175" t="n">
-        <v>400000</v>
+        <v>11760</v>
       </c>
       <c r="G175" t="n">
-        <v>4.305983333333331</v>
+        <v>4.305716666666664</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6551,7 +6987,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6561,22 +7001,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.318</v>
+        <v>4.322</v>
       </c>
       <c r="C176" t="n">
-        <v>4.318</v>
+        <v>4.322</v>
       </c>
       <c r="D176" t="n">
-        <v>4.318</v>
+        <v>4.322</v>
       </c>
       <c r="E176" t="n">
-        <v>4.318</v>
+        <v>4.322</v>
       </c>
       <c r="F176" t="n">
-        <v>49409.598</v>
+        <v>400000</v>
       </c>
       <c r="G176" t="n">
-        <v>4.306383333333331</v>
+        <v>4.305983333333331</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6586,7 +7026,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6596,22 +7040,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.313</v>
+        <v>4.318</v>
       </c>
       <c r="C177" t="n">
-        <v>4.313</v>
+        <v>4.318</v>
       </c>
       <c r="D177" t="n">
-        <v>4.313</v>
+        <v>4.318</v>
       </c>
       <c r="E177" t="n">
-        <v>4.313</v>
+        <v>4.318</v>
       </c>
       <c r="F177" t="n">
-        <v>11760</v>
+        <v>49409.598</v>
       </c>
       <c r="G177" t="n">
-        <v>4.30668333333333</v>
+        <v>4.306383333333331</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6621,7 +7065,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6631,22 +7079,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.31</v>
+        <v>4.313</v>
       </c>
       <c r="C178" t="n">
-        <v>4.346</v>
+        <v>4.313</v>
       </c>
       <c r="D178" t="n">
-        <v>4.346</v>
+        <v>4.313</v>
       </c>
       <c r="E178" t="n">
-        <v>4.31</v>
+        <v>4.313</v>
       </c>
       <c r="F178" t="n">
-        <v>48359.0923</v>
+        <v>11760</v>
       </c>
       <c r="G178" t="n">
-        <v>4.30753333333333</v>
+        <v>4.30668333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6656,7 +7104,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6666,22 +7118,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.343</v>
+        <v>4.31</v>
       </c>
       <c r="C179" t="n">
-        <v>4.343</v>
+        <v>4.346</v>
       </c>
       <c r="D179" t="n">
-        <v>4.343</v>
+        <v>4.346</v>
       </c>
       <c r="E179" t="n">
-        <v>4.343</v>
+        <v>4.31</v>
       </c>
       <c r="F179" t="n">
-        <v>170000</v>
+        <v>48359.0923</v>
       </c>
       <c r="G179" t="n">
-        <v>4.307583333333331</v>
+        <v>4.30753333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6691,7 +7143,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6713,10 +7169,10 @@
         <v>4.343</v>
       </c>
       <c r="F180" t="n">
-        <v>58000</v>
+        <v>170000</v>
       </c>
       <c r="G180" t="n">
-        <v>4.308383333333331</v>
+        <v>4.307583333333331</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6726,7 +7182,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6748,10 +7208,10 @@
         <v>4.343</v>
       </c>
       <c r="F181" t="n">
-        <v>18879.9357</v>
+        <v>58000</v>
       </c>
       <c r="G181" t="n">
-        <v>4.309183333333332</v>
+        <v>4.308383333333331</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6761,7 +7221,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6771,22 +7235,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.345</v>
+        <v>4.343</v>
       </c>
       <c r="C182" t="n">
-        <v>4.345</v>
+        <v>4.343</v>
       </c>
       <c r="D182" t="n">
-        <v>4.345</v>
+        <v>4.343</v>
       </c>
       <c r="E182" t="n">
-        <v>4.345</v>
+        <v>4.343</v>
       </c>
       <c r="F182" t="n">
-        <v>139207.2056</v>
+        <v>18879.9357</v>
       </c>
       <c r="G182" t="n">
-        <v>4.309266666666665</v>
+        <v>4.309183333333332</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6796,7 +7260,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6806,22 +7274,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4.348</v>
+        <v>4.345</v>
       </c>
       <c r="C183" t="n">
-        <v>4.348</v>
+        <v>4.345</v>
       </c>
       <c r="D183" t="n">
-        <v>4.348</v>
+        <v>4.345</v>
       </c>
       <c r="E183" t="n">
-        <v>4.348</v>
+        <v>4.345</v>
       </c>
       <c r="F183" t="n">
-        <v>16065.3117</v>
+        <v>139207.2056</v>
       </c>
       <c r="G183" t="n">
-        <v>4.309399999999999</v>
+        <v>4.309266666666665</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6831,7 +7299,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6841,22 +7313,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4.367</v>
+        <v>4.348</v>
       </c>
       <c r="C184" t="n">
-        <v>4.38</v>
+        <v>4.348</v>
       </c>
       <c r="D184" t="n">
-        <v>4.38</v>
+        <v>4.348</v>
       </c>
       <c r="E184" t="n">
-        <v>4.367</v>
+        <v>4.348</v>
       </c>
       <c r="F184" t="n">
-        <v>250000</v>
+        <v>16065.3117</v>
       </c>
       <c r="G184" t="n">
-        <v>4.309899999999999</v>
+        <v>4.309399999999999</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6866,7 +7338,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6876,22 +7352,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>4.367</v>
+      </c>
+      <c r="C185" t="n">
         <v>4.38</v>
       </c>
-      <c r="C185" t="n">
-        <v>4.408</v>
-      </c>
       <c r="D185" t="n">
-        <v>4.408</v>
+        <v>4.38</v>
       </c>
       <c r="E185" t="n">
-        <v>4.38</v>
+        <v>4.367</v>
       </c>
       <c r="F185" t="n">
-        <v>125857.169</v>
+        <v>250000</v>
       </c>
       <c r="G185" t="n">
-        <v>4.311616666666666</v>
+        <v>4.309899999999999</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6901,7 +7377,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6911,7 +7391,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4.408</v>
+        <v>4.38</v>
       </c>
       <c r="C186" t="n">
         <v>4.408</v>
@@ -6920,13 +7400,13 @@
         <v>4.408</v>
       </c>
       <c r="E186" t="n">
-        <v>4.408</v>
+        <v>4.38</v>
       </c>
       <c r="F186" t="n">
-        <v>24142.831</v>
+        <v>125857.169</v>
       </c>
       <c r="G186" t="n">
-        <v>4.313333333333333</v>
+        <v>4.311616666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6936,7 +7416,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6958,10 +7442,10 @@
         <v>4.408</v>
       </c>
       <c r="F187" t="n">
-        <v>29202.4934</v>
+        <v>24142.831</v>
       </c>
       <c r="G187" t="n">
-        <v>4.315233333333333</v>
+        <v>4.313333333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6971,7 +7455,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6981,22 +7469,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4.409</v>
+        <v>4.408</v>
       </c>
       <c r="C188" t="n">
-        <v>4.436</v>
+        <v>4.408</v>
       </c>
       <c r="D188" t="n">
-        <v>4.436</v>
+        <v>4.408</v>
       </c>
       <c r="E188" t="n">
-        <v>4.409</v>
+        <v>4.408</v>
       </c>
       <c r="F188" t="n">
-        <v>836</v>
+        <v>29202.4934</v>
       </c>
       <c r="G188" t="n">
-        <v>4.317266666666666</v>
+        <v>4.315233333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7006,7 +7494,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7016,7 +7508,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4.436</v>
+        <v>4.409</v>
       </c>
       <c r="C189" t="n">
         <v>4.436</v>
@@ -7025,13 +7517,13 @@
         <v>4.436</v>
       </c>
       <c r="E189" t="n">
-        <v>4.436</v>
+        <v>4.409</v>
       </c>
       <c r="F189" t="n">
-        <v>50000</v>
+        <v>836</v>
       </c>
       <c r="G189" t="n">
-        <v>4.319633333333332</v>
+        <v>4.317266666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7041,7 +7533,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7054,19 +7550,19 @@
         <v>4.436</v>
       </c>
       <c r="C190" t="n">
-        <v>4.54</v>
+        <v>4.436</v>
       </c>
       <c r="D190" t="n">
-        <v>4.54</v>
+        <v>4.436</v>
       </c>
       <c r="E190" t="n">
         <v>4.436</v>
       </c>
       <c r="F190" t="n">
-        <v>1028419.959850176</v>
+        <v>50000</v>
       </c>
       <c r="G190" t="n">
-        <v>4.323483333333332</v>
+        <v>4.319633333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7076,7 +7572,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7086,22 +7586,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
+        <v>4.436</v>
+      </c>
+      <c r="C191" t="n">
         <v>4.54</v>
       </c>
-      <c r="C191" t="n">
-        <v>4.548</v>
-      </c>
       <c r="D191" t="n">
-        <v>4.548</v>
+        <v>4.54</v>
       </c>
       <c r="E191" t="n">
-        <v>4.54</v>
+        <v>4.436</v>
       </c>
       <c r="F191" t="n">
-        <v>588846.8412</v>
+        <v>1028419.959850176</v>
       </c>
       <c r="G191" t="n">
-        <v>4.327466666666665</v>
+        <v>4.323483333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7111,7 +7611,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7121,57 +7625,59 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4.547</v>
+        <v>4.54</v>
       </c>
       <c r="C192" t="n">
-        <v>4.547</v>
+        <v>4.548</v>
       </c>
       <c r="D192" t="n">
-        <v>4.547</v>
+        <v>4.548</v>
       </c>
       <c r="E192" t="n">
-        <v>4.546</v>
+        <v>4.54</v>
       </c>
       <c r="F192" t="n">
-        <v>123965.6971</v>
+        <v>588846.8412</v>
       </c>
       <c r="G192" t="n">
-        <v>4.331916666666666</v>
+        <v>4.327466666666665</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4.546</v>
+        <v>4.547</v>
       </c>
       <c r="C193" t="n">
-        <v>4.43</v>
+        <v>4.547</v>
       </c>
       <c r="D193" t="n">
         <v>4.547</v>
       </c>
       <c r="E193" t="n">
-        <v>4.43</v>
+        <v>4.546</v>
       </c>
       <c r="F193" t="n">
-        <v>536360.9347548051</v>
+        <v>123965.6971</v>
       </c>
       <c r="G193" t="n">
-        <v>4.3341</v>
+        <v>4.331916666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7191,28 +7697,28 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4.441</v>
+        <v>4.546</v>
       </c>
       <c r="C194" t="n">
-        <v>4.441</v>
+        <v>4.43</v>
       </c>
       <c r="D194" t="n">
-        <v>4.441</v>
+        <v>4.547</v>
       </c>
       <c r="E194" t="n">
-        <v>4.441</v>
+        <v>4.43</v>
       </c>
       <c r="F194" t="n">
-        <v>679923.8743490879</v>
+        <v>536360.9347548051</v>
       </c>
       <c r="G194" t="n">
-        <v>4.336483333333333</v>
+        <v>4.3341</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
@@ -7238,10 +7744,10 @@
         <v>4.441</v>
       </c>
       <c r="F195" t="n">
-        <v>1601702.368604908</v>
+        <v>679923.8743490879</v>
       </c>
       <c r="G195" t="n">
-        <v>4.338683333333332</v>
+        <v>4.336483333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7261,22 +7767,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4.435</v>
+        <v>4.441</v>
       </c>
       <c r="C196" t="n">
-        <v>4.425</v>
+        <v>4.441</v>
       </c>
       <c r="D196" t="n">
-        <v>4.435</v>
+        <v>4.441</v>
       </c>
       <c r="E196" t="n">
-        <v>4.425</v>
+        <v>4.441</v>
       </c>
       <c r="F196" t="n">
-        <v>87296.1778</v>
+        <v>1601702.368604908</v>
       </c>
       <c r="G196" t="n">
-        <v>4.341083333333332</v>
+        <v>4.338683333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7299,19 +7805,19 @@
         <v>4.435</v>
       </c>
       <c r="C197" t="n">
-        <v>4.424</v>
+        <v>4.425</v>
       </c>
       <c r="D197" t="n">
         <v>4.435</v>
       </c>
       <c r="E197" t="n">
-        <v>4.424</v>
+        <v>4.425</v>
       </c>
       <c r="F197" t="n">
-        <v>123329.0291</v>
+        <v>87296.1778</v>
       </c>
       <c r="G197" t="n">
-        <v>4.342999999999998</v>
+        <v>4.341083333333332</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7331,22 +7837,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4.42</v>
+        <v>4.435</v>
       </c>
       <c r="C198" t="n">
-        <v>4.42</v>
+        <v>4.424</v>
       </c>
       <c r="D198" t="n">
-        <v>4.42</v>
+        <v>4.435</v>
       </c>
       <c r="E198" t="n">
-        <v>4.42</v>
+        <v>4.424</v>
       </c>
       <c r="F198" t="n">
-        <v>14011.562</v>
+        <v>123329.0291</v>
       </c>
       <c r="G198" t="n">
-        <v>4.345133333333332</v>
+        <v>4.342999999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7369,19 +7875,19 @@
         <v>4.42</v>
       </c>
       <c r="C199" t="n">
-        <v>4.384</v>
+        <v>4.42</v>
       </c>
       <c r="D199" t="n">
         <v>4.42</v>
       </c>
       <c r="E199" t="n">
-        <v>4.384</v>
+        <v>4.42</v>
       </c>
       <c r="F199" t="n">
-        <v>61655.8212</v>
+        <v>14011.562</v>
       </c>
       <c r="G199" t="n">
-        <v>4.346866666666666</v>
+        <v>4.345133333333332</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7401,22 +7907,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4.385</v>
+        <v>4.42</v>
       </c>
       <c r="C200" t="n">
-        <v>4.349</v>
+        <v>4.384</v>
       </c>
       <c r="D200" t="n">
-        <v>4.385</v>
+        <v>4.42</v>
       </c>
       <c r="E200" t="n">
-        <v>4.349</v>
+        <v>4.384</v>
       </c>
       <c r="F200" t="n">
-        <v>718013.3517999999</v>
+        <v>61655.8212</v>
       </c>
       <c r="G200" t="n">
-        <v>4.348016666666666</v>
+        <v>4.346866666666666</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7436,22 +7942,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4.354</v>
+        <v>4.385</v>
       </c>
       <c r="C201" t="n">
-        <v>4.352</v>
+        <v>4.349</v>
       </c>
       <c r="D201" t="n">
-        <v>4.354</v>
+        <v>4.385</v>
       </c>
       <c r="E201" t="n">
-        <v>4.352</v>
+        <v>4.349</v>
       </c>
       <c r="F201" t="n">
-        <v>856590.8269</v>
+        <v>718013.3517999999</v>
       </c>
       <c r="G201" t="n">
-        <v>4.349583333333332</v>
+        <v>4.348016666666666</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7471,22 +7977,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4.353</v>
+        <v>4.354</v>
       </c>
       <c r="C202" t="n">
         <v>4.352</v>
       </c>
       <c r="D202" t="n">
-        <v>4.353</v>
+        <v>4.354</v>
       </c>
       <c r="E202" t="n">
         <v>4.352</v>
       </c>
       <c r="F202" t="n">
-        <v>355723.3222</v>
+        <v>856590.8269</v>
       </c>
       <c r="G202" t="n">
-        <v>4.351299999999998</v>
+        <v>4.349583333333332</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7506,22 +8012,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4.352</v>
+        <v>4.353</v>
       </c>
       <c r="C203" t="n">
         <v>4.352</v>
       </c>
       <c r="D203" t="n">
-        <v>4.352</v>
+        <v>4.353</v>
       </c>
       <c r="E203" t="n">
         <v>4.352</v>
       </c>
       <c r="F203" t="n">
-        <v>10149.5872</v>
+        <v>355723.3222</v>
       </c>
       <c r="G203" t="n">
-        <v>4.352183333333332</v>
+        <v>4.351299999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7553,10 +8059,10 @@
         <v>4.352</v>
       </c>
       <c r="F204" t="n">
-        <v>33282.0679</v>
+        <v>10149.5872</v>
       </c>
       <c r="G204" t="n">
-        <v>4.353066666666665</v>
+        <v>4.352183333333332</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7588,19 +8094,23 @@
         <v>4.352</v>
       </c>
       <c r="F205" t="n">
-        <v>108125.5068</v>
+        <v>33282.0679</v>
       </c>
       <c r="G205" t="n">
-        <v>4.353949999999998</v>
+        <v>4.353066666666665</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="K205" t="n">
+        <v>4.352</v>
+      </c>
       <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
@@ -7614,19 +8124,19 @@
         <v>4.352</v>
       </c>
       <c r="C206" t="n">
-        <v>4.384</v>
+        <v>4.352</v>
       </c>
       <c r="D206" t="n">
-        <v>4.384</v>
+        <v>4.352</v>
       </c>
       <c r="E206" t="n">
         <v>4.352</v>
       </c>
       <c r="F206" t="n">
-        <v>146852.3758</v>
+        <v>108125.5068</v>
       </c>
       <c r="G206" t="n">
-        <v>4.355199999999998</v>
+        <v>4.353949999999998</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7635,8 +8145,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7646,32 +8162,40 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>4.385</v>
+        <v>4.352</v>
       </c>
       <c r="C207" t="n">
-        <v>4.385</v>
+        <v>4.384</v>
       </c>
       <c r="D207" t="n">
-        <v>4.385</v>
+        <v>4.384</v>
       </c>
       <c r="E207" t="n">
-        <v>4.385</v>
+        <v>4.352</v>
       </c>
       <c r="F207" t="n">
-        <v>336392.335</v>
+        <v>146852.3758</v>
       </c>
       <c r="G207" t="n">
-        <v>4.356466666666664</v>
+        <v>4.355199999999998</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="K207" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7681,22 +8205,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>4.355</v>
+        <v>4.385</v>
       </c>
       <c r="C208" t="n">
-        <v>4.355</v>
+        <v>4.385</v>
       </c>
       <c r="D208" t="n">
-        <v>4.355</v>
+        <v>4.385</v>
       </c>
       <c r="E208" t="n">
-        <v>4.355</v>
+        <v>4.385</v>
       </c>
       <c r="F208" t="n">
-        <v>64007.0354</v>
+        <v>336392.335</v>
       </c>
       <c r="G208" t="n">
-        <v>4.357083333333332</v>
+        <v>4.356466666666664</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7705,8 +8229,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7731,7 +8261,7 @@
         <v>64007.0354</v>
       </c>
       <c r="G209" t="n">
-        <v>4.357683333333331</v>
+        <v>4.357083333333332</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7740,8 +8270,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7751,22 +8287,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>4.356</v>
+        <v>4.355</v>
       </c>
       <c r="C210" t="n">
-        <v>4.356</v>
+        <v>4.355</v>
       </c>
       <c r="D210" t="n">
-        <v>4.356</v>
+        <v>4.355</v>
       </c>
       <c r="E210" t="n">
-        <v>4.356</v>
+        <v>4.355</v>
       </c>
       <c r="F210" t="n">
-        <v>32003.5177</v>
+        <v>64007.0354</v>
       </c>
       <c r="G210" t="n">
-        <v>4.358299999999998</v>
+        <v>4.357683333333331</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7775,8 +8311,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7786,22 +8328,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>4.402</v>
+        <v>4.356</v>
       </c>
       <c r="C211" t="n">
-        <v>4.402</v>
+        <v>4.356</v>
       </c>
       <c r="D211" t="n">
-        <v>4.402</v>
+        <v>4.356</v>
       </c>
       <c r="E211" t="n">
-        <v>4.402</v>
+        <v>4.356</v>
       </c>
       <c r="F211" t="n">
-        <v>114</v>
+        <v>32003.5177</v>
       </c>
       <c r="G211" t="n">
-        <v>4.359349999999997</v>
+        <v>4.358299999999998</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7810,8 +8352,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7833,20 +8381,28 @@
         <v>4.402</v>
       </c>
       <c r="F212" t="n">
-        <v>1426.6627</v>
+        <v>114</v>
       </c>
       <c r="G212" t="n">
-        <v>4.360399999999998</v>
+        <v>4.359349999999997</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.356</v>
+      </c>
+      <c r="K212" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7868,20 +8424,28 @@
         <v>4.402</v>
       </c>
       <c r="F213" t="n">
-        <v>16614.3024</v>
+        <v>1426.6627</v>
       </c>
       <c r="G213" t="n">
-        <v>4.361616666666664</v>
+        <v>4.360399999999998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.402</v>
+      </c>
+      <c r="K213" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7894,19 +8458,19 @@
         <v>4.402</v>
       </c>
       <c r="C214" t="n">
-        <v>4.403</v>
+        <v>4.402</v>
       </c>
       <c r="D214" t="n">
-        <v>4.403</v>
+        <v>4.402</v>
       </c>
       <c r="E214" t="n">
         <v>4.402</v>
       </c>
       <c r="F214" t="n">
-        <v>96242.43489999999</v>
+        <v>16614.3024</v>
       </c>
       <c r="G214" t="n">
-        <v>4.362849999999997</v>
+        <v>4.361616666666664</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7915,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7926,22 +8496,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>4.429</v>
+        <v>4.402</v>
       </c>
       <c r="C215" t="n">
-        <v>4.429</v>
+        <v>4.403</v>
       </c>
       <c r="D215" t="n">
-        <v>4.429</v>
+        <v>4.403</v>
       </c>
       <c r="E215" t="n">
-        <v>4.429</v>
+        <v>4.402</v>
       </c>
       <c r="F215" t="n">
-        <v>49436.3298</v>
+        <v>96242.43489999999</v>
       </c>
       <c r="G215" t="n">
-        <v>4.364516666666663</v>
+        <v>4.362849999999997</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7950,8 +8520,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7961,22 +8537,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>4.44</v>
+        <v>4.429</v>
       </c>
       <c r="C216" t="n">
-        <v>4.441</v>
+        <v>4.429</v>
       </c>
       <c r="D216" t="n">
-        <v>4.441</v>
+        <v>4.429</v>
       </c>
       <c r="E216" t="n">
-        <v>4.44</v>
+        <v>4.429</v>
       </c>
       <c r="F216" t="n">
-        <v>7817.236446004</v>
+        <v>49436.3298</v>
       </c>
       <c r="G216" t="n">
-        <v>4.36638333333333</v>
+        <v>4.364516666666663</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7985,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7996,22 +8578,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>4.444</v>
+        <v>4.44</v>
       </c>
       <c r="C217" t="n">
-        <v>4.444</v>
+        <v>4.441</v>
       </c>
       <c r="D217" t="n">
-        <v>4.444</v>
+        <v>4.441</v>
       </c>
       <c r="E217" t="n">
-        <v>4.444</v>
+        <v>4.44</v>
       </c>
       <c r="F217" t="n">
-        <v>37278.2431</v>
+        <v>7817.236446004</v>
       </c>
       <c r="G217" t="n">
-        <v>4.36848333333333</v>
+        <v>4.36638333333333</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8020,8 +8602,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8031,22 +8619,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.441</v>
+        <v>4.444</v>
       </c>
       <c r="C218" t="n">
-        <v>4.48</v>
+        <v>4.444</v>
       </c>
       <c r="D218" t="n">
-        <v>4.48</v>
+        <v>4.444</v>
       </c>
       <c r="E218" t="n">
-        <v>4.441</v>
+        <v>4.444</v>
       </c>
       <c r="F218" t="n">
-        <v>28884.709</v>
+        <v>37278.2431</v>
       </c>
       <c r="G218" t="n">
-        <v>4.37133333333333</v>
+        <v>4.36848333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8055,8 +8643,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8066,7 +8660,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>4.479</v>
+        <v>4.441</v>
       </c>
       <c r="C219" t="n">
         <v>4.48</v>
@@ -8075,13 +8669,13 @@
         <v>4.48</v>
       </c>
       <c r="E219" t="n">
-        <v>4.479</v>
+        <v>4.441</v>
       </c>
       <c r="F219" t="n">
-        <v>20000</v>
+        <v>28884.709</v>
       </c>
       <c r="G219" t="n">
-        <v>4.374199999999997</v>
+        <v>4.37133333333333</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8090,8 +8684,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8101,7 +8701,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>4.48</v>
+        <v>4.479</v>
       </c>
       <c r="C220" t="n">
         <v>4.48</v>
@@ -8110,13 +8710,13 @@
         <v>4.48</v>
       </c>
       <c r="E220" t="n">
-        <v>4.48</v>
+        <v>4.479</v>
       </c>
       <c r="F220" t="n">
-        <v>16648.4643</v>
+        <v>20000</v>
       </c>
       <c r="G220" t="n">
-        <v>4.377899999999998</v>
+        <v>4.374199999999997</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8125,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8136,22 +8742,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="C221" t="n">
-        <v>4.578</v>
+        <v>4.48</v>
       </c>
       <c r="D221" t="n">
-        <v>4.578</v>
+        <v>4.48</v>
       </c>
       <c r="E221" t="n">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="F221" t="n">
-        <v>675984.003439536</v>
+        <v>16648.4643</v>
       </c>
       <c r="G221" t="n">
-        <v>4.382399999999998</v>
+        <v>4.377899999999998</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8160,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8171,22 +8783,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>4.568</v>
+        <v>4.5</v>
       </c>
       <c r="C222" t="n">
-        <v>4.462</v>
+        <v>4.578</v>
       </c>
       <c r="D222" t="n">
-        <v>4.568</v>
+        <v>4.578</v>
       </c>
       <c r="E222" t="n">
-        <v>4.462</v>
+        <v>4.5</v>
       </c>
       <c r="F222" t="n">
-        <v>188461.8892</v>
+        <v>675984.003439536</v>
       </c>
       <c r="G222" t="n">
-        <v>4.38498333333333</v>
+        <v>4.382399999999998</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8195,8 +8807,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8206,22 +8824,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>4.512</v>
+        <v>4.568</v>
       </c>
       <c r="C223" t="n">
-        <v>4.534</v>
+        <v>4.462</v>
       </c>
       <c r="D223" t="n">
-        <v>4.534</v>
+        <v>4.568</v>
       </c>
       <c r="E223" t="n">
-        <v>4.512</v>
+        <v>4.462</v>
       </c>
       <c r="F223" t="n">
-        <v>2519.033</v>
+        <v>188461.8892</v>
       </c>
       <c r="G223" t="n">
-        <v>4.389399999999997</v>
+        <v>4.38498333333333</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8230,8 +8848,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8241,22 +8865,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4.484</v>
+        <v>4.512</v>
       </c>
       <c r="C224" t="n">
-        <v>4.473</v>
+        <v>4.534</v>
       </c>
       <c r="D224" t="n">
-        <v>4.484</v>
+        <v>4.534</v>
       </c>
       <c r="E224" t="n">
-        <v>4.473</v>
+        <v>4.512</v>
       </c>
       <c r="F224" t="n">
-        <v>63235.4768</v>
+        <v>2519.033</v>
       </c>
       <c r="G224" t="n">
-        <v>4.392799999999997</v>
+        <v>4.389399999999997</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8265,8 +8889,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8276,22 +8906,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>4.462</v>
+        <v>4.484</v>
       </c>
       <c r="C225" t="n">
-        <v>4.462</v>
+        <v>4.473</v>
       </c>
       <c r="D225" t="n">
-        <v>4.462</v>
+        <v>4.484</v>
       </c>
       <c r="E225" t="n">
-        <v>4.462</v>
+        <v>4.473</v>
       </c>
       <c r="F225" t="n">
-        <v>7912.9423</v>
+        <v>63235.4768</v>
       </c>
       <c r="G225" t="n">
-        <v>4.395366666666663</v>
+        <v>4.392799999999997</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8300,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8311,22 +8947,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>4.452</v>
+        <v>4.462</v>
       </c>
       <c r="C226" t="n">
-        <v>4.451</v>
+        <v>4.462</v>
       </c>
       <c r="D226" t="n">
-        <v>4.452</v>
+        <v>4.462</v>
       </c>
       <c r="E226" t="n">
-        <v>4.451</v>
+        <v>4.462</v>
       </c>
       <c r="F226" t="n">
-        <v>41623.9972</v>
+        <v>7912.9423</v>
       </c>
       <c r="G226" t="n">
-        <v>4.397749999999998</v>
+        <v>4.395366666666663</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8335,8 +8971,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8346,22 +8988,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>4.451</v>
+        <v>4.452</v>
       </c>
       <c r="C227" t="n">
         <v>4.451</v>
       </c>
       <c r="D227" t="n">
-        <v>4.451</v>
+        <v>4.452</v>
       </c>
       <c r="E227" t="n">
         <v>4.451</v>
       </c>
       <c r="F227" t="n">
-        <v>97427.2988</v>
+        <v>41623.9972</v>
       </c>
       <c r="G227" t="n">
-        <v>4.400116666666664</v>
+        <v>4.397749999999998</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8370,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8393,10 +9041,10 @@
         <v>4.451</v>
       </c>
       <c r="F228" t="n">
-        <v>113</v>
+        <v>97427.2988</v>
       </c>
       <c r="G228" t="n">
-        <v>4.402499999999998</v>
+        <v>4.400116666666664</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8405,8 +9053,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8428,10 +9082,10 @@
         <v>4.451</v>
       </c>
       <c r="F229" t="n">
-        <v>163195.044484385</v>
+        <v>113</v>
       </c>
       <c r="G229" t="n">
-        <v>4.404883333333331</v>
+        <v>4.402499999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8440,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8451,22 +9111,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>4.45</v>
+        <v>4.451</v>
       </c>
       <c r="C230" t="n">
-        <v>4.43</v>
+        <v>4.451</v>
       </c>
       <c r="D230" t="n">
-        <v>4.45</v>
+        <v>4.451</v>
       </c>
       <c r="E230" t="n">
-        <v>4.43</v>
+        <v>4.451</v>
       </c>
       <c r="F230" t="n">
-        <v>44136.021053996</v>
+        <v>163195.044484385</v>
       </c>
       <c r="G230" t="n">
-        <v>4.406583333333332</v>
+        <v>4.404883333333331</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8475,8 +9135,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8486,22 +9152,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>4.459</v>
+        <v>4.45</v>
       </c>
       <c r="C231" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="D231" t="n">
-        <v>4.459</v>
+        <v>4.45</v>
       </c>
       <c r="E231" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F231" t="n">
-        <v>22150.352096882</v>
+        <v>44136.021053996</v>
       </c>
       <c r="G231" t="n">
-        <v>4.408716666666665</v>
+        <v>4.406583333333332</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8510,8 +9176,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8521,22 +9193,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4.43</v>
+        <v>4.459</v>
       </c>
       <c r="C232" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="D232" t="n">
-        <v>4.43</v>
+        <v>4.459</v>
       </c>
       <c r="E232" t="n">
-        <v>4.43</v>
+        <v>4.44</v>
       </c>
       <c r="F232" t="n">
-        <v>124777.9562</v>
+        <v>22150.352096882</v>
       </c>
       <c r="G232" t="n">
-        <v>4.410849999999998</v>
+        <v>4.408716666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8545,8 +9217,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8556,22 +9234,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="C233" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="D233" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="E233" t="n">
-        <v>4.44</v>
+        <v>4.43</v>
       </c>
       <c r="F233" t="n">
-        <v>2000</v>
+        <v>124777.9562</v>
       </c>
       <c r="G233" t="n">
-        <v>4.412983333333331</v>
+        <v>4.410849999999998</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8580,8 +9258,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8591,22 +9275,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>4.429</v>
+        <v>4.44</v>
       </c>
       <c r="C234" t="n">
-        <v>4.429</v>
+        <v>4.44</v>
       </c>
       <c r="D234" t="n">
-        <v>4.429</v>
+        <v>4.44</v>
       </c>
       <c r="E234" t="n">
-        <v>4.429</v>
+        <v>4.44</v>
       </c>
       <c r="F234" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G234" t="n">
-        <v>4.414766666666664</v>
+        <v>4.412983333333331</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8615,8 +9299,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8638,10 +9328,10 @@
         <v>4.429</v>
       </c>
       <c r="F235" t="n">
-        <v>89841.0794</v>
+        <v>1000</v>
       </c>
       <c r="G235" t="n">
-        <v>4.416549999999997</v>
+        <v>4.414766666666664</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8650,8 +9340,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8661,22 +9357,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>4.382</v>
+        <v>4.429</v>
       </c>
       <c r="C236" t="n">
-        <v>4.359</v>
+        <v>4.429</v>
       </c>
       <c r="D236" t="n">
-        <v>4.382</v>
+        <v>4.429</v>
       </c>
       <c r="E236" t="n">
-        <v>4.359</v>
+        <v>4.429</v>
       </c>
       <c r="F236" t="n">
-        <v>675984.0034</v>
+        <v>89841.0794</v>
       </c>
       <c r="G236" t="n">
-        <v>4.41723333333333</v>
+        <v>4.416549999999997</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8685,8 +9381,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8696,22 +9398,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4.359</v>
+        <v>4.382</v>
       </c>
       <c r="C237" t="n">
         <v>4.359</v>
       </c>
       <c r="D237" t="n">
-        <v>4.359</v>
+        <v>4.382</v>
       </c>
       <c r="E237" t="n">
         <v>4.359</v>
       </c>
       <c r="F237" t="n">
-        <v>15075.0732</v>
+        <v>675984.0034</v>
       </c>
       <c r="G237" t="n">
-        <v>4.417999999999997</v>
+        <v>4.41723333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8720,8 +9422,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8731,22 +9439,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>4.43</v>
+        <v>4.359</v>
       </c>
       <c r="C238" t="n">
-        <v>4.43</v>
+        <v>4.359</v>
       </c>
       <c r="D238" t="n">
-        <v>4.43</v>
+        <v>4.359</v>
       </c>
       <c r="E238" t="n">
-        <v>4.43</v>
+        <v>4.359</v>
       </c>
       <c r="F238" t="n">
-        <v>798.1423</v>
+        <v>15075.0732</v>
       </c>
       <c r="G238" t="n">
-        <v>4.419399999999997</v>
+        <v>4.417999999999997</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8755,8 +9463,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8766,22 +9480,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>4.418</v>
+        <v>4.43</v>
       </c>
       <c r="C239" t="n">
-        <v>4.419</v>
+        <v>4.43</v>
       </c>
       <c r="D239" t="n">
-        <v>4.419</v>
+        <v>4.43</v>
       </c>
       <c r="E239" t="n">
-        <v>4.418</v>
+        <v>4.43</v>
       </c>
       <c r="F239" t="n">
-        <v>293769.3512</v>
+        <v>798.1423</v>
       </c>
       <c r="G239" t="n">
-        <v>4.420666666666663</v>
+        <v>4.419399999999997</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8790,8 +9504,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8801,22 +9521,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>4.394</v>
+        <v>4.418</v>
       </c>
       <c r="C240" t="n">
-        <v>4.394</v>
+        <v>4.419</v>
       </c>
       <c r="D240" t="n">
-        <v>4.394</v>
+        <v>4.419</v>
       </c>
       <c r="E240" t="n">
-        <v>4.394</v>
+        <v>4.418</v>
       </c>
       <c r="F240" t="n">
-        <v>60116.8321</v>
+        <v>293769.3512</v>
       </c>
       <c r="G240" t="n">
-        <v>4.421516666666663</v>
+        <v>4.420666666666663</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8825,8 +9545,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8836,33 +9562,80 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="D241" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.394</v>
+      </c>
+      <c r="F241" t="n">
+        <v>60116.8321</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4.421516666666663</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
         <v>4.395</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C242" t="n">
         <v>4.395</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D242" t="n">
         <v>4.395</v>
       </c>
-      <c r="E241" t="n">
+      <c r="E242" t="n">
         <v>4.395</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F242" t="n">
         <v>12670</v>
       </c>
-      <c r="G241" t="n">
+      <c r="G242" t="n">
         <v>4.422383333333329</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>4.352</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M242"/>
+  <dimension ref="A1:N252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>108931.4417</v>
       </c>
       <c r="G2" t="n">
+        <v>4.368866666666666</v>
+      </c>
+      <c r="H2" t="n">
         <v>4.372516666666661</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>335393.0657</v>
       </c>
       <c r="G3" t="n">
+        <v>4.360866666666666</v>
+      </c>
+      <c r="H3" t="n">
         <v>4.37036666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>65308.1137</v>
       </c>
       <c r="G4" t="n">
+        <v>4.352266666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.368399999999994</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>51754.802</v>
       </c>
       <c r="G5" t="n">
+        <v>4.344533333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>4.366283333333327</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>239490</v>
       </c>
       <c r="G6" t="n">
+        <v>4.339466666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>4.364816666666661</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>11985.3289</v>
       </c>
       <c r="G7" t="n">
+        <v>4.335733333333332</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.363699999999994</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>14797.9582</v>
       </c>
       <c r="G8" t="n">
+        <v>4.329933333333331</v>
+      </c>
+      <c r="H8" t="n">
         <v>4.365066666666661</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>9102.5792</v>
       </c>
       <c r="G9" t="n">
+        <v>4.326533333333331</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.365733333333328</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>92000</v>
       </c>
       <c r="G10" t="n">
+        <v>4.320999999999998</v>
+      </c>
+      <c r="H10" t="n">
         <v>4.365333333333328</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>109850</v>
       </c>
       <c r="G11" t="n">
+        <v>4.314266666666665</v>
+      </c>
+      <c r="H11" t="n">
         <v>4.365299999999995</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>300414.3958</v>
       </c>
       <c r="G12" t="n">
+        <v>4.311466666666664</v>
+      </c>
+      <c r="H12" t="n">
         <v>4.36523333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>187288.7563</v>
       </c>
       <c r="G13" t="n">
+        <v>4.307999999999998</v>
+      </c>
+      <c r="H13" t="n">
         <v>4.363916666666663</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>665.0721</v>
       </c>
       <c r="G14" t="n">
+        <v>4.309733333333331</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.363216666666662</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1354.8587</v>
       </c>
       <c r="G15" t="n">
+        <v>4.308999999999998</v>
+      </c>
+      <c r="H15" t="n">
         <v>4.361899999999995</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>37563.985</v>
       </c>
       <c r="G16" t="n">
+        <v>4.307266666666665</v>
+      </c>
+      <c r="H16" t="n">
         <v>4.360933333333329</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2841.2079</v>
       </c>
       <c r="G17" t="n">
+        <v>4.308399999999998</v>
+      </c>
+      <c r="H17" t="n">
         <v>4.360966666666662</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>15990</v>
       </c>
       <c r="G18" t="n">
+        <v>4.308933333333332</v>
+      </c>
+      <c r="H18" t="n">
         <v>4.359866666666663</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>180365.4864</v>
       </c>
       <c r="G19" t="n">
+        <v>4.306999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>4.35878333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,22 +1137,21 @@
         <v>1742.4498</v>
       </c>
       <c r="G20" t="n">
+        <v>4.304066666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>4.357716666666663</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1117,24 +1175,21 @@
         <v>337926.4382</v>
       </c>
       <c r="G21" t="n">
+        <v>4.297933333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>4.356516666666663</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1158,26 +1213,21 @@
         <v>309335.5832</v>
       </c>
       <c r="G22" t="n">
+        <v>4.290533333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>4.355499999999997</v>
       </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.268</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,26 +1251,21 @@
         <v>210457.662</v>
       </c>
       <c r="G23" t="n">
+        <v>4.284466666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>4.353816666666663</v>
       </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1244,26 +1289,21 @@
         <v>69019.8357</v>
       </c>
       <c r="G24" t="n">
+        <v>4.2802</v>
+      </c>
+      <c r="H24" t="n">
         <v>4.353249999999997</v>
       </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>4.269</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,24 +1327,21 @@
         <v>117771.5543</v>
       </c>
       <c r="G25" t="n">
+        <v>4.282133333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>4.352699999999998</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,24 +1365,21 @@
         <v>8056.1287</v>
       </c>
       <c r="G26" t="n">
+        <v>4.2826</v>
+      </c>
+      <c r="H26" t="n">
         <v>4.352149999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1369,24 +1403,21 @@
         <v>11537.1666</v>
       </c>
       <c r="G27" t="n">
+        <v>4.283866666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>4.350766666666666</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1410,24 +1441,21 @@
         <v>14464.9964</v>
       </c>
       <c r="G28" t="n">
+        <v>4.288466666666666</v>
+      </c>
+      <c r="H28" t="n">
         <v>4.350049999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1451,24 +1479,21 @@
         <v>115.3</v>
       </c>
       <c r="G29" t="n">
+        <v>4.290533333333332</v>
+      </c>
+      <c r="H29" t="n">
         <v>4.349033333333332</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1492,24 +1517,21 @@
         <v>12018.323</v>
       </c>
       <c r="G30" t="n">
+        <v>4.294533333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>4.347866666666664</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,24 +1555,21 @@
         <v>1132.4336</v>
       </c>
       <c r="G31" t="n">
+        <v>4.297533333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>4.346666666666664</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1574,24 +1593,21 @@
         <v>47408.717</v>
       </c>
       <c r="G32" t="n">
+        <v>4.2996</v>
+      </c>
+      <c r="H32" t="n">
         <v>4.345499999999997</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1615,24 +1631,21 @@
         <v>77580</v>
       </c>
       <c r="G33" t="n">
+        <v>4.302266666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>4.344166666666663</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,24 +1669,21 @@
         <v>173.9541</v>
       </c>
       <c r="G34" t="n">
+        <v>4.306333333333332</v>
+      </c>
+      <c r="H34" t="n">
         <v>4.342966666666663</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1697,24 +1707,21 @@
         <v>87030.69620000001</v>
       </c>
       <c r="G35" t="n">
+        <v>4.309133333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>4.341416666666662</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1738,24 +1745,21 @@
         <v>116</v>
       </c>
       <c r="G36" t="n">
+        <v>4.313866666666666</v>
+      </c>
+      <c r="H36" t="n">
         <v>4.340216666666662</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,24 +1783,21 @@
         <v>114.7</v>
       </c>
       <c r="G37" t="n">
+        <v>4.319933333333332</v>
+      </c>
+      <c r="H37" t="n">
         <v>4.339366666666662</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1820,24 +1821,21 @@
         <v>578.9618</v>
       </c>
       <c r="G38" t="n">
+        <v>4.325999999999998</v>
+      </c>
+      <c r="H38" t="n">
         <v>4.338449999999995</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1861,24 +1859,21 @@
         <v>1929.4989</v>
       </c>
       <c r="G39" t="n">
+        <v>4.333599999999998</v>
+      </c>
+      <c r="H39" t="n">
         <v>4.338366666666662</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1902,24 +1897,21 @@
         <v>66010</v>
       </c>
       <c r="G40" t="n">
+        <v>4.341066666666665</v>
+      </c>
+      <c r="H40" t="n">
         <v>4.338266666666661</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1943,24 +1935,21 @@
         <v>42330.9497</v>
       </c>
       <c r="G41" t="n">
+        <v>4.348533333333332</v>
+      </c>
+      <c r="H41" t="n">
         <v>4.338166666666662</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1984,25 +1973,22 @@
         <v>182461.1104</v>
       </c>
       <c r="G42" t="n">
+        <v>4.350666666666665</v>
+      </c>
+      <c r="H42" t="n">
         <v>4.336733333333328</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>4.278</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1.006921458625526</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2025,18 +2011,21 @@
         <v>64857.1504</v>
       </c>
       <c r="G43" t="n">
+        <v>4.350199999999998</v>
+      </c>
+      <c r="H43" t="n">
         <v>4.33531666666666</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2060,18 +2049,21 @@
         <v>30017.2196</v>
       </c>
       <c r="G44" t="n">
+        <v>4.349733333333331</v>
+      </c>
+      <c r="H44" t="n">
         <v>4.333899999999994</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2095,18 +2087,21 @@
         <v>70038.91409999999</v>
       </c>
       <c r="G45" t="n">
+        <v>4.349066666666664</v>
+      </c>
+      <c r="H45" t="n">
         <v>4.332533333333327</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2130,18 +2125,21 @@
         <v>1810.9952</v>
       </c>
       <c r="G46" t="n">
+        <v>4.347666666666664</v>
+      </c>
+      <c r="H46" t="n">
         <v>4.332166666666661</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2165,18 +2163,21 @@
         <v>7964.0761</v>
       </c>
       <c r="G47" t="n">
+        <v>4.346999999999997</v>
+      </c>
+      <c r="H47" t="n">
         <v>4.33096666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2200,18 +2201,21 @@
         <v>106345.5821</v>
       </c>
       <c r="G48" t="n">
+        <v>4.347799999999997</v>
+      </c>
+      <c r="H48" t="n">
         <v>4.32996666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,18 +2239,21 @@
         <v>48727.1878</v>
       </c>
       <c r="G49" t="n">
+        <v>4.347199999999997</v>
+      </c>
+      <c r="H49" t="n">
         <v>4.328199999999994</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2270,18 +2277,21 @@
         <v>786.4462</v>
       </c>
       <c r="G50" t="n">
+        <v>4.352066666666664</v>
+      </c>
+      <c r="H50" t="n">
         <v>4.327449999999994</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2305,18 +2315,21 @@
         <v>24383.5523</v>
       </c>
       <c r="G51" t="n">
+        <v>4.355399999999998</v>
+      </c>
+      <c r="H51" t="n">
         <v>4.326666666666662</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2340,18 +2353,21 @@
         <v>493.5828</v>
       </c>
       <c r="G52" t="n">
+        <v>4.35733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>4.325883333333328</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2375,18 +2391,21 @@
         <v>772.7560999999999</v>
       </c>
       <c r="G53" t="n">
+        <v>4.356066666666663</v>
+      </c>
+      <c r="H53" t="n">
         <v>4.324116666666662</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2410,18 +2429,21 @@
         <v>1346.4387</v>
       </c>
       <c r="G54" t="n">
+        <v>4.351466666666663</v>
+      </c>
+      <c r="H54" t="n">
         <v>4.322949999999995</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2445,18 +2467,21 @@
         <v>114</v>
       </c>
       <c r="G55" t="n">
+        <v>4.350133333333329</v>
+      </c>
+      <c r="H55" t="n">
         <v>4.323583333333329</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2480,18 +2505,21 @@
         <v>158735.172</v>
       </c>
       <c r="G56" t="n">
+        <v>4.348999999999995</v>
+      </c>
+      <c r="H56" t="n">
         <v>4.323599999999995</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2515,18 +2543,21 @@
         <v>280056.020074909</v>
       </c>
       <c r="G57" t="n">
+        <v>4.354266666666662</v>
+      </c>
+      <c r="H57" t="n">
         <v>4.325066666666662</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,18 +2581,21 @@
         <v>4995.5044</v>
       </c>
       <c r="G58" t="n">
+        <v>4.359466666666663</v>
+      </c>
+      <c r="H58" t="n">
         <v>4.326533333333329</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2585,18 +2619,21 @@
         <v>307063.1615</v>
       </c>
       <c r="G59" t="n">
+        <v>4.36373333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>4.32843333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,18 +2657,21 @@
         <v>13490.198</v>
       </c>
       <c r="G60" t="n">
+        <v>4.369666666666663</v>
+      </c>
+      <c r="H60" t="n">
         <v>4.330566666666663</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2655,18 +2695,21 @@
         <v>1153169.8733</v>
       </c>
       <c r="G61" t="n">
+        <v>4.375599999999996</v>
+      </c>
+      <c r="H61" t="n">
         <v>4.332016666666663</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,18 +2733,21 @@
         <v>138645.6617</v>
       </c>
       <c r="G62" t="n">
+        <v>4.381066666666664</v>
+      </c>
+      <c r="H62" t="n">
         <v>4.334016666666662</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2725,18 +2771,21 @@
         <v>50000</v>
       </c>
       <c r="G63" t="n">
+        <v>4.385733333333331</v>
+      </c>
+      <c r="H63" t="n">
         <v>4.336183333333329</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,18 +2809,21 @@
         <v>206267.6513</v>
       </c>
       <c r="G64" t="n">
+        <v>4.390399999999998</v>
+      </c>
+      <c r="H64" t="n">
         <v>4.337733333333329</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2795,18 +2847,21 @@
         <v>14662.6803</v>
       </c>
       <c r="G65" t="n">
+        <v>4.390999999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>4.339066666666662</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2830,18 +2885,21 @@
         <v>178452.8676</v>
       </c>
       <c r="G66" t="n">
+        <v>4.391733333333332</v>
+      </c>
+      <c r="H66" t="n">
         <v>4.339733333333328</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2865,18 +2923,21 @@
         <v>8287.4202</v>
       </c>
       <c r="G67" t="n">
+        <v>4.389533333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>4.339333333333328</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2900,18 +2961,21 @@
         <v>57892.7759</v>
       </c>
       <c r="G68" t="n">
+        <v>4.390533333333332</v>
+      </c>
+      <c r="H68" t="n">
         <v>4.339266666666661</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2935,18 +2999,21 @@
         <v>100000</v>
       </c>
       <c r="G69" t="n">
+        <v>4.391533333333332</v>
+      </c>
+      <c r="H69" t="n">
         <v>4.339199999999994</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2970,18 +3037,21 @@
         <v>25710</v>
       </c>
       <c r="G70" t="n">
+        <v>4.392133333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>4.341366666666661</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3005,18 +3075,21 @@
         <v>56523.4104</v>
       </c>
       <c r="G71" t="n">
+        <v>4.392533333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>4.343166666666662</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3040,18 +3113,21 @@
         <v>369.5414</v>
       </c>
       <c r="G72" t="n">
+        <v>4.392466666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>4.345316666666661</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3075,18 +3151,21 @@
         <v>29843.6772</v>
       </c>
       <c r="G73" t="n">
+        <v>4.391733333333332</v>
+      </c>
+      <c r="H73" t="n">
         <v>4.347466666666661</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3110,18 +3189,21 @@
         <v>37393.3704</v>
       </c>
       <c r="G74" t="n">
+        <v>4.391266666666665</v>
+      </c>
+      <c r="H74" t="n">
         <v>4.348816666666662</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3145,18 +3227,21 @@
         <v>85251.32950000001</v>
       </c>
       <c r="G75" t="n">
+        <v>4.388466666666664</v>
+      </c>
+      <c r="H75" t="n">
         <v>4.350433333333329</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3180,18 +3265,21 @@
         <v>351.6229</v>
       </c>
       <c r="G76" t="n">
+        <v>4.387999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>4.352199999999995</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3215,18 +3303,21 @@
         <v>29562.1413</v>
       </c>
       <c r="G77" t="n">
+        <v>4.385733333333332</v>
+      </c>
+      <c r="H77" t="n">
         <v>4.353349999999995</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,18 +3341,21 @@
         <v>70427.77340000001</v>
       </c>
       <c r="G78" t="n">
+        <v>4.382799999999998</v>
+      </c>
+      <c r="H78" t="n">
         <v>4.354649999999994</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3285,18 +3379,21 @@
         <v>334.1176</v>
       </c>
       <c r="G79" t="n">
+        <v>4.382733333333331</v>
+      </c>
+      <c r="H79" t="n">
         <v>4.35666666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,18 +3417,21 @@
         <v>200000</v>
       </c>
       <c r="G80" t="n">
+        <v>4.382733333333331</v>
+      </c>
+      <c r="H80" t="n">
         <v>4.358733333333327</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,18 +3455,21 @@
         <v>46699.8982</v>
       </c>
       <c r="G81" t="n">
+        <v>4.379799999999997</v>
+      </c>
+      <c r="H81" t="n">
         <v>4.360199999999994</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3390,18 +3493,21 @@
         <v>7131.8861</v>
       </c>
       <c r="G82" t="n">
+        <v>4.379799999999997</v>
+      </c>
+      <c r="H82" t="n">
         <v>4.361649999999994</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3425,18 +3531,21 @@
         <v>86356.9538</v>
       </c>
       <c r="G83" t="n">
+        <v>4.37953333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>4.363033333333326</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3460,18 +3569,21 @@
         <v>300000</v>
       </c>
       <c r="G84" t="n">
+        <v>4.378466666666665</v>
+      </c>
+      <c r="H84" t="n">
         <v>4.36376666666666</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3495,18 +3607,21 @@
         <v>130000</v>
       </c>
       <c r="G85" t="n">
+        <v>4.374133333333331</v>
+      </c>
+      <c r="H85" t="n">
         <v>4.364366666666659</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3530,18 +3645,21 @@
         <v>825576.3454</v>
       </c>
       <c r="G86" t="n">
+        <v>4.364666666666665</v>
+      </c>
+      <c r="H86" t="n">
         <v>4.363683333333326</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3565,18 +3683,21 @@
         <v>322.0236</v>
       </c>
       <c r="G87" t="n">
+        <v>4.359933333333331</v>
+      </c>
+      <c r="H87" t="n">
         <v>4.364333333333326</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3600,18 +3721,21 @@
         <v>3730</v>
       </c>
       <c r="G88" t="n">
+        <v>4.350666666666664</v>
+      </c>
+      <c r="H88" t="n">
         <v>4.363016666666659</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,18 +3759,21 @@
         <v>429129.0646</v>
       </c>
       <c r="G89" t="n">
+        <v>4.342066666666664</v>
+      </c>
+      <c r="H89" t="n">
         <v>4.361699999999993</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,18 +3797,21 @@
         <v>104148.7583</v>
       </c>
       <c r="G90" t="n">
+        <v>4.33493333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>4.360533333333326</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3705,18 +3835,21 @@
         <v>533277.8229</v>
       </c>
       <c r="G91" t="n">
+        <v>4.32513333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>4.359099999999993</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,18 +3873,25 @@
         <v>1376.7275</v>
       </c>
       <c r="G92" t="n">
+        <v>4.31753333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>4.357833333333327</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3775,24 +3915,29 @@
         <v>103370.4768</v>
       </c>
       <c r="G93" t="n">
+        <v>4.31053333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>4.356716666666659</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
         <v>4.252</v>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,22 +3961,29 @@
         <v>34136.97</v>
       </c>
       <c r="G94" t="n">
+        <v>4.303666666666664</v>
+      </c>
+      <c r="H94" t="n">
         <v>4.355999999999993</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4.251</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3855,22 +4007,27 @@
         <v>118</v>
       </c>
       <c r="G95" t="n">
+        <v>4.293666666666664</v>
+      </c>
+      <c r="H95" t="n">
         <v>4.35486666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,22 +4051,29 @@
         <v>426.4181</v>
       </c>
       <c r="G96" t="n">
+        <v>4.286599999999997</v>
+      </c>
+      <c r="H96" t="n">
         <v>4.353383333333326</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L96" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,22 +4097,29 @@
         <v>14371.7677</v>
       </c>
       <c r="G97" t="n">
+        <v>4.282199999999999</v>
+      </c>
+      <c r="H97" t="n">
         <v>4.35221666666666</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,22 +4143,29 @@
         <v>83008.94530000001</v>
       </c>
       <c r="G98" t="n">
+        <v>4.275399999999999</v>
+      </c>
+      <c r="H98" t="n">
         <v>4.350383333333326</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="L98" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4011,22 +4189,29 @@
         <v>293.4007</v>
       </c>
       <c r="G99" t="n">
+        <v>4.272399999999998</v>
+      </c>
+      <c r="H99" t="n">
         <v>4.348466666666659</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4050,22 +4235,29 @@
         <v>33580.981</v>
       </c>
       <c r="G100" t="n">
+        <v>4.269733333333332</v>
+      </c>
+      <c r="H100" t="n">
         <v>4.346533333333326</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="L100" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4089,24 +4281,29 @@
         <v>52922.3619</v>
       </c>
       <c r="G101" t="n">
+        <v>4.273066666666665</v>
+      </c>
+      <c r="H101" t="n">
         <v>4.344816666666659</v>
       </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
         <v>4.293</v>
       </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4130,22 +4327,29 @@
         <v>71207.85000000001</v>
       </c>
       <c r="G102" t="n">
+        <v>4.271999999999998</v>
+      </c>
+      <c r="H102" t="n">
         <v>4.344666666666659</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4169,22 +4373,27 @@
         <v>163730.6764</v>
       </c>
       <c r="G103" t="n">
+        <v>4.276133333333332</v>
+      </c>
+      <c r="H103" t="n">
         <v>4.344499999999993</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,22 +4417,27 @@
         <v>45412.612</v>
       </c>
       <c r="G104" t="n">
+        <v>4.280266666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>4.344333333333326</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4247,22 +4461,27 @@
         <v>4269.5443</v>
       </c>
       <c r="G105" t="n">
+        <v>4.283466666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>4.344133333333327</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,22 +4505,27 @@
         <v>160544.2825</v>
       </c>
       <c r="G106" t="n">
+        <v>4.287</v>
+      </c>
+      <c r="H106" t="n">
         <v>4.343933333333326</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4325,22 +4549,27 @@
         <v>2497.8125</v>
       </c>
       <c r="G107" t="n">
+        <v>4.2906</v>
+      </c>
+      <c r="H107" t="n">
         <v>4.343733333333327</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4364,22 +4593,27 @@
         <v>10527.0752</v>
       </c>
       <c r="G108" t="n">
+        <v>4.294266666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>4.343333333333326</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,22 +4637,27 @@
         <v>50000</v>
       </c>
       <c r="G109" t="n">
+        <v>4.294199999999999</v>
+      </c>
+      <c r="H109" t="n">
         <v>4.342749999999993</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,22 +4681,27 @@
         <v>43967.2489</v>
       </c>
       <c r="G110" t="n">
+        <v>4.297199999999999</v>
+      </c>
+      <c r="H110" t="n">
         <v>4.341149999999994</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4481,22 +4725,27 @@
         <v>278.0186</v>
       </c>
       <c r="G111" t="n">
+        <v>4.300933333333332</v>
+      </c>
+      <c r="H111" t="n">
         <v>4.33976666666666</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
+      <c r="L111" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,22 +4769,27 @@
         <v>42653.9462</v>
       </c>
       <c r="G112" t="n">
+        <v>4.301999999999998</v>
+      </c>
+      <c r="H112" t="n">
         <v>4.338383333333326</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,22 +4813,27 @@
         <v>27695.8017</v>
       </c>
       <c r="G113" t="n">
+        <v>4.305799999999999</v>
+      </c>
+      <c r="H113" t="n">
         <v>4.337816666666659</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,22 +4857,27 @@
         <v>132997.098</v>
       </c>
       <c r="G114" t="n">
+        <v>4.306599999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>4.337249999999993</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M114" t="n">
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4637,22 +4901,27 @@
         <v>101209.0952</v>
       </c>
       <c r="G115" t="n">
+        <v>4.307466666666665</v>
+      </c>
+      <c r="H115" t="n">
         <v>4.335866666666659</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M115" t="n">
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,22 +4945,27 @@
         <v>997.1287</v>
       </c>
       <c r="G116" t="n">
+        <v>4.307466666666665</v>
+      </c>
+      <c r="H116" t="n">
         <v>4.334433333333325</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4715,22 +4989,27 @@
         <v>227418.2091</v>
       </c>
       <c r="G117" t="n">
+        <v>4.305733333333331</v>
+      </c>
+      <c r="H117" t="n">
         <v>4.332533333333325</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,22 +5033,27 @@
         <v>55626.9406</v>
       </c>
       <c r="G118" t="n">
+        <v>4.304066666666663</v>
+      </c>
+      <c r="H118" t="n">
         <v>4.330649999999991</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4793,22 +5077,27 @@
         <v>130000</v>
       </c>
       <c r="G119" t="n">
+        <v>4.302399999999996</v>
+      </c>
+      <c r="H119" t="n">
         <v>4.328999999999992</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,22 +5121,27 @@
         <v>116</v>
       </c>
       <c r="G120" t="n">
+        <v>4.304666666666663</v>
+      </c>
+      <c r="H120" t="n">
         <v>4.327883333333324</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4871,22 +5165,27 @@
         <v>20032.7067</v>
       </c>
       <c r="G121" t="n">
+        <v>4.303933333333331</v>
+      </c>
+      <c r="H121" t="n">
         <v>4.326016666666659</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
+      <c r="L121" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4910,22 +5209,27 @@
         <v>27427.4579</v>
       </c>
       <c r="G122" t="n">
+        <v>4.303199999999998</v>
+      </c>
+      <c r="H122" t="n">
         <v>4.324266666666659</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
+      <c r="L122" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4949,22 +5253,27 @@
         <v>262.0485</v>
       </c>
       <c r="G123" t="n">
+        <v>4.305466666666664</v>
+      </c>
+      <c r="H123" t="n">
         <v>4.323266666666659</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
+      <c r="L123" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4988,22 +5297,27 @@
         <v>95853.4216</v>
       </c>
       <c r="G124" t="n">
+        <v>4.308466666666664</v>
+      </c>
+      <c r="H124" t="n">
         <v>4.32226666666666</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
+      <c r="L124" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5027,22 +5341,27 @@
         <v>248.3738</v>
       </c>
       <c r="G125" t="n">
+        <v>4.312133333333331</v>
+      </c>
+      <c r="H125" t="n">
         <v>4.321433333333327</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
+      <c r="L125" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,22 +5385,27 @@
         <v>25410</v>
       </c>
       <c r="G126" t="n">
+        <v>4.312066666666665</v>
+      </c>
+      <c r="H126" t="n">
         <v>4.319849999999994</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+      <c r="L126" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5105,22 +5429,27 @@
         <v>20000</v>
       </c>
       <c r="G127" t="n">
+        <v>4.311999999999998</v>
+      </c>
+      <c r="H127" t="n">
         <v>4.318999999999994</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+      <c r="L127" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5144,22 +5473,27 @@
         <v>353725.9019</v>
       </c>
       <c r="G128" t="n">
+        <v>4.311133333333331</v>
+      </c>
+      <c r="H128" t="n">
         <v>4.317966666666661</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+      <c r="L128" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,22 +5517,27 @@
         <v>237.9243</v>
       </c>
       <c r="G129" t="n">
+        <v>4.311599999999998</v>
+      </c>
+      <c r="H129" t="n">
         <v>4.317266666666661</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+      <c r="L129" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5222,22 +5561,27 @@
         <v>5203.4608</v>
       </c>
       <c r="G130" t="n">
+        <v>4.310799999999998</v>
+      </c>
+      <c r="H130" t="n">
         <v>4.315533333333327</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="L130" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,22 +5605,27 @@
         <v>226.2902</v>
       </c>
       <c r="G131" t="n">
+        <v>4.310999999999997</v>
+      </c>
+      <c r="H131" t="n">
         <v>4.314049999999994</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+      <c r="L131" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5300,22 +5649,27 @@
         <v>371.315850545</v>
       </c>
       <c r="G132" t="n">
+        <v>4.311999999999998</v>
+      </c>
+      <c r="H132" t="n">
         <v>4.312416666666661</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+      <c r="L132" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5339,22 +5693,27 @@
         <v>32156.9863</v>
       </c>
       <c r="G133" t="n">
+        <v>4.310999999999997</v>
+      </c>
+      <c r="H133" t="n">
         <v>4.31046666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
+      <c r="L133" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5378,22 +5737,27 @@
         <v>215.4758</v>
       </c>
       <c r="G134" t="n">
+        <v>4.311266666666665</v>
+      </c>
+      <c r="H134" t="n">
         <v>4.308999999999994</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
+      <c r="L134" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,22 +5781,27 @@
         <v>181940</v>
       </c>
       <c r="G135" t="n">
+        <v>4.308466666666664</v>
+      </c>
+      <c r="H135" t="n">
         <v>4.307883333333327</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
+      <c r="L135" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5456,22 +5825,27 @@
         <v>204.2269</v>
       </c>
       <c r="G136" t="n">
+        <v>4.309399999999997</v>
+      </c>
+      <c r="H136" t="n">
         <v>4.306366666666661</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
+      <c r="L136" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,22 +5869,27 @@
         <v>127.0198</v>
       </c>
       <c r="G137" t="n">
+        <v>4.308466666666664</v>
+      </c>
+      <c r="H137" t="n">
         <v>4.304949999999995</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
+      <c r="L137" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5534,22 +5913,27 @@
         <v>194.0155</v>
       </c>
       <c r="G138" t="n">
+        <v>4.306399999999997</v>
+      </c>
+      <c r="H138" t="n">
         <v>4.304166666666662</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
+      <c r="L138" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,22 +5957,27 @@
         <v>35190</v>
       </c>
       <c r="G139" t="n">
+        <v>4.303199999999998</v>
+      </c>
+      <c r="H139" t="n">
         <v>4.302383333333328</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
+      <c r="L139" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5612,22 +6001,27 @@
         <v>40596.1677</v>
       </c>
       <c r="G140" t="n">
+        <v>4.298533333333331</v>
+      </c>
+      <c r="H140" t="n">
         <v>4.300383333333328</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
+      <c r="L140" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5651,22 +6045,27 @@
         <v>36417.1258</v>
       </c>
       <c r="G141" t="n">
+        <v>4.296866666666665</v>
+      </c>
+      <c r="H141" t="n">
         <v>4.299116666666661</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
+      <c r="L141" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5690,22 +6089,29 @@
         <v>676397.9323</v>
       </c>
       <c r="G142" t="n">
+        <v>4.293733333333332</v>
+      </c>
+      <c r="H142" t="n">
         <v>4.297483333333328</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="L142" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,22 +6135,27 @@
         <v>167067.8155</v>
       </c>
       <c r="G143" t="n">
+        <v>4.290733333333332</v>
+      </c>
+      <c r="H143" t="n">
         <v>4.295766666666662</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
+      <c r="L143" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,22 +6179,29 @@
         <v>120</v>
       </c>
       <c r="G144" t="n">
+        <v>4.289733333333332</v>
+      </c>
+      <c r="H144" t="n">
         <v>4.295083333333328</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>4.249</v>
+      </c>
+      <c r="L144" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5807,22 +6225,29 @@
         <v>50540</v>
       </c>
       <c r="G145" t="n">
+        <v>4.290066666666665</v>
+      </c>
+      <c r="H145" t="n">
         <v>4.294516666666661</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5846,22 +6271,27 @@
         <v>251249.0112</v>
       </c>
       <c r="G146" t="n">
+        <v>4.2894</v>
+      </c>
+      <c r="H146" t="n">
         <v>4.295233333333327</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
+      <c r="L146" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,22 +6315,29 @@
         <v>4988.0877</v>
       </c>
       <c r="G147" t="n">
+        <v>4.2894</v>
+      </c>
+      <c r="H147" t="n">
         <v>4.294783333333327</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="L147" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,22 +6361,27 @@
         <v>156838.625549455</v>
       </c>
       <c r="G148" t="n">
+        <v>4.291333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>4.295633333333328</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
+      <c r="L148" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,22 +6405,27 @@
         <v>116</v>
       </c>
       <c r="G149" t="n">
+        <v>4.292599999999998</v>
+      </c>
+      <c r="H149" t="n">
         <v>4.296633333333328</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
+      <c r="L149" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6002,22 +6449,27 @@
         <v>14447.9847</v>
       </c>
       <c r="G150" t="n">
+        <v>4.293999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>4.297649999999995</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
+      <c r="L150" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6041,22 +6493,27 @@
         <v>53526.3442</v>
       </c>
       <c r="G151" t="n">
+        <v>4.294666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>4.298749999999996</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
+      <c r="L151" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6080,22 +6537,27 @@
         <v>95362.49400000001</v>
       </c>
       <c r="G152" t="n">
+        <v>4.298533333333332</v>
+      </c>
+      <c r="H152" t="n">
         <v>4.300199999999995</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
+      <c r="L152" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6119,22 +6581,27 @@
         <v>363885.7306</v>
       </c>
       <c r="G153" t="n">
+        <v>4.300533333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>4.301666666666662</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
+      <c r="L153" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6158,22 +6625,27 @@
         <v>154.7058</v>
       </c>
       <c r="G154" t="n">
+        <v>4.302999999999998</v>
+      </c>
+      <c r="H154" t="n">
         <v>4.302216666666663</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
+      <c r="L154" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6197,22 +6669,27 @@
         <v>276.1862</v>
       </c>
       <c r="G155" t="n">
+        <v>4.306266666666664</v>
+      </c>
+      <c r="H155" t="n">
         <v>4.30353333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
+      <c r="L155" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6236,22 +6713,27 @@
         <v>13842.8088</v>
       </c>
       <c r="G156" t="n">
+        <v>4.309533333333331</v>
+      </c>
+      <c r="H156" t="n">
         <v>4.304849999999997</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
+      <c r="L156" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6275,22 +6757,27 @@
         <v>12817.2992</v>
       </c>
       <c r="G157" t="n">
+        <v>4.314266666666664</v>
+      </c>
+      <c r="H157" t="n">
         <v>4.305499999999996</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
+      <c r="L157" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6314,22 +6801,27 @@
         <v>204819.3268</v>
       </c>
       <c r="G158" t="n">
+        <v>4.318866666666664</v>
+      </c>
+      <c r="H158" t="n">
         <v>4.306633333333329</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
+      <c r="L158" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6353,22 +6845,27 @@
         <v>45601.3317</v>
       </c>
       <c r="G159" t="n">
+        <v>4.31953333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>4.306866666666663</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
+      <c r="L159" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6392,22 +6889,29 @@
         <v>107560.042750545</v>
       </c>
       <c r="G160" t="n">
+        <v>4.320133333333329</v>
+      </c>
+      <c r="H160" t="n">
         <v>4.307116666666662</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="L160" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6431,22 +6935,29 @@
         <v>405721.8803</v>
       </c>
       <c r="G161" t="n">
+        <v>4.317399999999995</v>
+      </c>
+      <c r="H161" t="n">
         <v>4.306316666666662</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6470,22 +6981,29 @@
         <v>184.3575</v>
       </c>
       <c r="G162" t="n">
+        <v>4.317333333333329</v>
+      </c>
+      <c r="H162" t="n">
         <v>4.306116666666663</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>4.258</v>
+      </c>
+      <c r="L162" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6509,22 +7027,29 @@
         <v>100000</v>
       </c>
       <c r="G163" t="n">
+        <v>4.317199999999996</v>
+      </c>
+      <c r="H163" t="n">
         <v>4.305899999999996</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="L163" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,22 +7073,29 @@
         <v>138.1523</v>
       </c>
       <c r="G164" t="n">
+        <v>4.313933333333329</v>
+      </c>
+      <c r="H164" t="n">
         <v>4.305049999999996</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="L164" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6587,22 +7119,29 @@
         <v>30000</v>
       </c>
       <c r="G165" t="n">
+        <v>4.310599999999996</v>
+      </c>
+      <c r="H165" t="n">
         <v>4.30443333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="L165" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,22 +7165,29 @@
         <v>5000</v>
       </c>
       <c r="G166" t="n">
+        <v>4.309866666666664</v>
+      </c>
+      <c r="H166" t="n">
         <v>4.304466666666664</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="L166" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6665,22 +7211,29 @@
         <v>94815.6425</v>
       </c>
       <c r="G167" t="n">
+        <v>4.307799999999998</v>
+      </c>
+      <c r="H167" t="n">
         <v>4.304499999999996</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="L167" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6704,22 +7257,29 @@
         <v>1013334.6663</v>
       </c>
       <c r="G168" t="n">
+        <v>4.305799999999997</v>
+      </c>
+      <c r="H168" t="n">
         <v>4.304549999999997</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="L168" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6743,22 +7303,27 @@
         <v>58167.4985</v>
       </c>
       <c r="G169" t="n">
+        <v>4.304399999999998</v>
+      </c>
+      <c r="H169" t="n">
         <v>4.304766666666664</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
+      <c r="L169" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,22 +7347,27 @@
         <v>576897.4661</v>
       </c>
       <c r="G170" t="n">
+        <v>4.302999999999998</v>
+      </c>
+      <c r="H170" t="n">
         <v>4.30498333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
+      <c r="L170" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,22 +7391,27 @@
         <v>50000</v>
       </c>
       <c r="G171" t="n">
+        <v>4.302933333333332</v>
+      </c>
+      <c r="H171" t="n">
         <v>4.305349999999996</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
+      <c r="L171" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6860,22 +7435,27 @@
         <v>280610</v>
       </c>
       <c r="G172" t="n">
+        <v>4.301799999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>4.305449999999997</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
+      <c r="L172" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6899,22 +7479,27 @@
         <v>42742.116</v>
       </c>
       <c r="G173" t="n">
+        <v>4.300733333333332</v>
+      </c>
+      <c r="H173" t="n">
         <v>4.305366666666663</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
+      <c r="L173" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6938,22 +7523,27 @@
         <v>761.3774</v>
       </c>
       <c r="G174" t="n">
+        <v>4.300933333333332</v>
+      </c>
+      <c r="H174" t="n">
         <v>4.305449999999997</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
+      <c r="L174" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6977,22 +7567,27 @@
         <v>11760</v>
       </c>
       <c r="G175" t="n">
+        <v>4.301866666666666</v>
+      </c>
+      <c r="H175" t="n">
         <v>4.305716666666664</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
+      <c r="L175" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7016,22 +7611,27 @@
         <v>400000</v>
       </c>
       <c r="G176" t="n">
+        <v>4.306133333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>4.305983333333331</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
+      <c r="L176" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7055,22 +7655,27 @@
         <v>49409.598</v>
       </c>
       <c r="G177" t="n">
+        <v>4.3068</v>
+      </c>
+      <c r="H177" t="n">
         <v>4.306383333333331</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
+      <c r="L177" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7094,22 +7699,27 @@
         <v>11760</v>
       </c>
       <c r="G178" t="n">
+        <v>4.3072</v>
+      </c>
+      <c r="H178" t="n">
         <v>4.30668333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
+      <c r="L178" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,22 +7743,27 @@
         <v>48359.0923</v>
       </c>
       <c r="G179" t="n">
+        <v>4.312333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>4.30753333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
+      <c r="L179" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7172,22 +7787,27 @@
         <v>170000</v>
       </c>
       <c r="G180" t="n">
+        <v>4.317266666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>4.307583333333331</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
+      <c r="L180" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7211,22 +7831,27 @@
         <v>58000</v>
       </c>
       <c r="G181" t="n">
+        <v>4.3196</v>
+      </c>
+      <c r="H181" t="n">
         <v>4.308383333333331</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
+      <c r="L181" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7250,22 +7875,27 @@
         <v>18879.9357</v>
       </c>
       <c r="G182" t="n">
+        <v>4.321933333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>4.309183333333332</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
+      <c r="L182" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,22 +7919,27 @@
         <v>139207.2056</v>
       </c>
       <c r="G183" t="n">
+        <v>4.324333333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>4.309266666666665</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
+      <c r="L183" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,22 +7963,27 @@
         <v>16065.3117</v>
       </c>
       <c r="G184" t="n">
+        <v>4.327</v>
+      </c>
+      <c r="H184" t="n">
         <v>4.309399999999999</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
+      <c r="L184" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7367,22 +8007,27 @@
         <v>250000</v>
       </c>
       <c r="G185" t="n">
+        <v>4.3318</v>
+      </c>
+      <c r="H185" t="n">
         <v>4.309899999999999</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
+      <c r="L185" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7406,22 +8051,27 @@
         <v>125857.169</v>
       </c>
       <c r="G186" t="n">
+        <v>4.337133333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>4.311616666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
+      <c r="L186" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7445,22 +8095,27 @@
         <v>24142.831</v>
       </c>
       <c r="G187" t="n">
+        <v>4.343533333333334</v>
+      </c>
+      <c r="H187" t="n">
         <v>4.313333333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
+      <c r="L187" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,22 +8139,27 @@
         <v>29202.4934</v>
       </c>
       <c r="G188" t="n">
+        <v>4.350600000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>4.315233333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
+      <c r="L188" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7523,22 +8183,27 @@
         <v>836</v>
       </c>
       <c r="G189" t="n">
+        <v>4.358866666666668</v>
+      </c>
+      <c r="H189" t="n">
         <v>4.317266666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
+      <c r="L189" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7562,22 +8227,27 @@
         <v>50000</v>
       </c>
       <c r="G190" t="n">
+        <v>4.366466666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>4.319633333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
+      <c r="L190" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7601,22 +8271,27 @@
         <v>1028419.959850176</v>
       </c>
       <c r="G191" t="n">
+        <v>4.381000000000001</v>
+      </c>
+      <c r="H191" t="n">
         <v>4.323483333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
+      <c r="L191" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7640,22 +8315,29 @@
         <v>588846.8412</v>
       </c>
       <c r="G192" t="n">
+        <v>4.396333333333335</v>
+      </c>
+      <c r="H192" t="n">
         <v>4.327466666666665</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7677,18 +8359,27 @@
         <v>123965.6971</v>
       </c>
       <c r="G193" t="n">
+        <v>4.411933333333335</v>
+      </c>
+      <c r="H193" t="n">
         <v>4.331916666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
-        <v>1</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7712,19 +8403,28 @@
         <v>536360.9347548051</v>
       </c>
       <c r="G194" t="n">
+        <v>4.417533333333334</v>
+      </c>
+      <c r="H194" t="n">
         <v>4.3341</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>1</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
+      <c r="L194" t="n">
+        <v>4.253</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1.036617681636492</v>
       </c>
     </row>
     <row r="195">
@@ -7747,18 +8447,21 @@
         <v>679923.8743490879</v>
       </c>
       <c r="G195" t="n">
+        <v>4.424066666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>4.336483333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7782,18 +8485,21 @@
         <v>1601702.368604908</v>
       </c>
       <c r="G196" t="n">
+        <v>4.4306</v>
+      </c>
+      <c r="H196" t="n">
         <v>4.338683333333332</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7817,18 +8523,21 @@
         <v>87296.1778</v>
       </c>
       <c r="G197" t="n">
+        <v>4.436066666666666</v>
+      </c>
+      <c r="H197" t="n">
         <v>4.341083333333332</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7852,18 +8561,21 @@
         <v>123329.0291</v>
       </c>
       <c r="G198" t="n">
+        <v>4.441333333333334</v>
+      </c>
+      <c r="H198" t="n">
         <v>4.342999999999998</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7887,18 +8599,21 @@
         <v>14011.562</v>
       </c>
       <c r="G199" t="n">
+        <v>4.446133333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>4.345133333333332</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7922,18 +8637,21 @@
         <v>61655.8212</v>
       </c>
       <c r="G200" t="n">
+        <v>4.446400000000001</v>
+      </c>
+      <c r="H200" t="n">
         <v>4.346866666666666</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,18 +8675,21 @@
         <v>718013.3517999999</v>
       </c>
       <c r="G201" t="n">
+        <v>4.442466666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>4.348016666666666</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7992,18 +8713,21 @@
         <v>856590.8269</v>
       </c>
       <c r="G202" t="n">
+        <v>4.438733333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>4.349583333333332</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8027,18 +8751,21 @@
         <v>355723.3222</v>
       </c>
       <c r="G203" t="n">
+        <v>4.435000000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>4.351299999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8062,18 +8789,21 @@
         <v>10149.5872</v>
       </c>
       <c r="G204" t="n">
+        <v>4.429400000000002</v>
+      </c>
+      <c r="H204" t="n">
         <v>4.352183333333332</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8097,22 +8827,21 @@
         <v>33282.0679</v>
       </c>
       <c r="G205" t="n">
+        <v>4.423800000000002</v>
+      </c>
+      <c r="H205" t="n">
         <v>4.353066666666665</v>
       </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="K205" t="n">
-        <v>4.352</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8136,24 +8865,21 @@
         <v>108125.5068</v>
       </c>
       <c r="G206" t="n">
+        <v>4.411266666666668</v>
+      </c>
+      <c r="H206" t="n">
         <v>4.353949999999998</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8177,26 +8903,21 @@
         <v>146852.3758</v>
       </c>
       <c r="G207" t="n">
+        <v>4.400333333333335</v>
+      </c>
+      <c r="H207" t="n">
         <v>4.355199999999998</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="K207" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8220,24 +8941,21 @@
         <v>336392.335</v>
       </c>
       <c r="G208" t="n">
+        <v>4.389533333333335</v>
+      </c>
+      <c r="H208" t="n">
         <v>4.356466666666664</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8261,24 +8979,21 @@
         <v>64007.0354</v>
       </c>
       <c r="G209" t="n">
+        <v>4.384533333333335</v>
+      </c>
+      <c r="H209" t="n">
         <v>4.357083333333332</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8302,24 +9017,21 @@
         <v>64007.0354</v>
       </c>
       <c r="G210" t="n">
+        <v>4.378800000000002</v>
+      </c>
+      <c r="H210" t="n">
         <v>4.357683333333331</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8343,24 +9055,21 @@
         <v>32003.5177</v>
       </c>
       <c r="G211" t="n">
+        <v>4.373133333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>4.358299999999998</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8384,26 +9093,21 @@
         <v>114</v>
       </c>
       <c r="G212" t="n">
+        <v>4.371600000000002</v>
+      </c>
+      <c r="H212" t="n">
         <v>4.359349999999997</v>
       </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>4.356</v>
-      </c>
-      <c r="K212" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8427,26 +9131,21 @@
         <v>1426.6627</v>
       </c>
       <c r="G213" t="n">
+        <v>4.370133333333334</v>
+      </c>
+      <c r="H213" t="n">
         <v>4.360399999999998</v>
       </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>4.402</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8470,24 +9169,21 @@
         <v>16614.3024</v>
       </c>
       <c r="G214" t="n">
+        <v>4.368933333333334</v>
+      </c>
+      <c r="H214" t="n">
         <v>4.361616666666664</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8511,24 +9207,21 @@
         <v>96242.43489999999</v>
       </c>
       <c r="G215" t="n">
+        <v>4.370200000000001</v>
+      </c>
+      <c r="H215" t="n">
         <v>4.362849999999997</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8552,24 +9245,21 @@
         <v>49436.3298</v>
       </c>
       <c r="G216" t="n">
+        <v>4.375533333333335</v>
+      </c>
+      <c r="H216" t="n">
         <v>4.364516666666663</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8593,24 +9283,21 @@
         <v>7817.236446004</v>
       </c>
       <c r="G217" t="n">
+        <v>4.381466666666668</v>
+      </c>
+      <c r="H217" t="n">
         <v>4.36638333333333</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8634,24 +9321,21 @@
         <v>37278.2431</v>
       </c>
       <c r="G218" t="n">
+        <v>4.387600000000002</v>
+      </c>
+      <c r="H218" t="n">
         <v>4.36848333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8675,24 +9359,21 @@
         <v>28884.709</v>
       </c>
       <c r="G219" t="n">
+        <v>4.396133333333335</v>
+      </c>
+      <c r="H219" t="n">
         <v>4.37133333333333</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8716,24 +9397,21 @@
         <v>20000</v>
       </c>
       <c r="G220" t="n">
+        <v>4.404666666666668</v>
+      </c>
+      <c r="H220" t="n">
         <v>4.374199999999997</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8757,24 +9435,21 @@
         <v>16648.4643</v>
       </c>
       <c r="G221" t="n">
+        <v>4.413200000000002</v>
+      </c>
+      <c r="H221" t="n">
         <v>4.377899999999998</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,24 +9473,21 @@
         <v>675984.003439536</v>
       </c>
       <c r="G222" t="n">
+        <v>4.426133333333335</v>
+      </c>
+      <c r="H222" t="n">
         <v>4.382399999999998</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8839,24 +9511,21 @@
         <v>188461.8892</v>
       </c>
       <c r="G223" t="n">
+        <v>4.431266666666668</v>
+      </c>
+      <c r="H223" t="n">
         <v>4.38498333333333</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8880,24 +9549,21 @@
         <v>2519.033</v>
       </c>
       <c r="G224" t="n">
+        <v>4.443200000000002</v>
+      </c>
+      <c r="H224" t="n">
         <v>4.389399999999997</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8921,24 +9587,21 @@
         <v>63235.4768</v>
       </c>
       <c r="G225" t="n">
+        <v>4.451066666666668</v>
+      </c>
+      <c r="H225" t="n">
         <v>4.392799999999997</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8962,24 +9625,21 @@
         <v>7912.9423</v>
       </c>
       <c r="G226" t="n">
+        <v>4.458133333333335</v>
+      </c>
+      <c r="H226" t="n">
         <v>4.395366666666663</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9003,24 +9663,21 @@
         <v>41623.9972</v>
       </c>
       <c r="G227" t="n">
+        <v>4.461400000000001</v>
+      </c>
+      <c r="H227" t="n">
         <v>4.397749999999998</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9044,24 +9701,21 @@
         <v>97427.2988</v>
       </c>
       <c r="G228" t="n">
+        <v>4.464666666666668</v>
+      </c>
+      <c r="H228" t="n">
         <v>4.400116666666664</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9085,24 +9739,21 @@
         <v>113</v>
       </c>
       <c r="G229" t="n">
+        <v>4.467933333333334</v>
+      </c>
+      <c r="H229" t="n">
         <v>4.402499999999998</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9126,24 +9777,21 @@
         <v>163195.044484385</v>
       </c>
       <c r="G230" t="n">
+        <v>4.471133333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>4.404883333333331</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,24 +9815,21 @@
         <v>44136.021053996</v>
       </c>
       <c r="G231" t="n">
+        <v>4.471199999999999</v>
+      </c>
+      <c r="H231" t="n">
         <v>4.406583333333332</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9208,24 +9853,21 @@
         <v>22150.352096882</v>
       </c>
       <c r="G232" t="n">
+        <v>4.471133333333332</v>
+      </c>
+      <c r="H232" t="n">
         <v>4.408716666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9249,24 +9891,21 @@
         <v>124777.9562</v>
       </c>
       <c r="G233" t="n">
+        <v>4.470199999999999</v>
+      </c>
+      <c r="H233" t="n">
         <v>4.410849999999998</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9290,24 +9929,21 @@
         <v>2000</v>
       </c>
       <c r="G234" t="n">
+        <v>4.467533333333332</v>
+      </c>
+      <c r="H234" t="n">
         <v>4.412983333333331</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9331,24 +9967,21 @@
         <v>1000</v>
       </c>
       <c r="G235" t="n">
+        <v>4.464133333333332</v>
+      </c>
+      <c r="H235" t="n">
         <v>4.414766666666664</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9372,24 +10005,21 @@
         <v>89841.0794</v>
       </c>
       <c r="G236" t="n">
+        <v>4.460733333333332</v>
+      </c>
+      <c r="H236" t="n">
         <v>4.416549999999997</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9413,24 +10043,21 @@
         <v>675984.0034</v>
       </c>
       <c r="G237" t="n">
+        <v>4.446133333333331</v>
+      </c>
+      <c r="H237" t="n">
         <v>4.41723333333333</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9454,24 +10081,21 @@
         <v>15075.0732</v>
       </c>
       <c r="G238" t="n">
+        <v>4.439266666666664</v>
+      </c>
+      <c r="H238" t="n">
         <v>4.417999999999997</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9495,24 +10119,21 @@
         <v>798.1423</v>
       </c>
       <c r="G239" t="n">
+        <v>4.43233333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>4.419399999999997</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9536,24 +10157,21 @@
         <v>293769.3512</v>
       </c>
       <c r="G240" t="n">
+        <v>4.428733333333329</v>
+      </c>
+      <c r="H240" t="n">
         <v>4.420666666666663</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9577,24 +10195,21 @@
         <v>60116.8321</v>
       </c>
       <c r="G241" t="n">
+        <v>4.424199999999996</v>
+      </c>
+      <c r="H241" t="n">
         <v>4.421516666666663</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,24 +10233,401 @@
         <v>12670</v>
       </c>
       <c r="G242" t="n">
+        <v>4.420466666666663</v>
+      </c>
+      <c r="H242" t="n">
         <v>4.422383333333329</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>4.395</v>
+      </c>
+      <c r="C243" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="D243" t="n">
+        <v>4.395</v>
+      </c>
+      <c r="E243" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="F243" t="n">
+        <v>13160</v>
+      </c>
+      <c r="G243" t="n">
+        <v>4.414666666666664</v>
+      </c>
+      <c r="H243" t="n">
+        <v>4.422699999999995</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>4.427</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.427</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.427</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.427</v>
+      </c>
+      <c r="F244" t="n">
+        <v>125741.7626</v>
+      </c>
+      <c r="G244" t="n">
+        <v>4.413066666666665</v>
+      </c>
+      <c r="H244" t="n">
+        <v>4.424016666666661</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="C245" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="D245" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="E245" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="F245" t="n">
+        <v>72220.323</v>
+      </c>
+      <c r="G245" t="n">
+        <v>4.410799999999998</v>
+      </c>
+      <c r="H245" t="n">
+        <v>4.424633333333328</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="C246" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="D246" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="E246" t="n">
+        <v>4.417</v>
+      </c>
+      <c r="F246" t="n">
+        <v>38378.0214</v>
+      </c>
+      <c r="G246" t="n">
+        <v>4.409933333333331</v>
+      </c>
+      <c r="H246" t="n">
+        <v>4.424783333333327</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>4.374</v>
+      </c>
+      <c r="C247" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.374</v>
+      </c>
+      <c r="E247" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="F247" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G247" t="n">
+        <v>4.405466666666666</v>
+      </c>
+      <c r="H247" t="n">
+        <v>4.424199999999994</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="C248" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="D248" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="E248" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="F248" t="n">
+        <v>257626.4425</v>
+      </c>
+      <c r="G248" t="n">
+        <v>4.401666666666666</v>
+      </c>
+      <c r="H248" t="n">
+        <v>4.42361666666666</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="F249" t="n">
+        <v>115367.2601</v>
+      </c>
+      <c r="G249" t="n">
+        <v>4.397199999999999</v>
+      </c>
+      <c r="H249" t="n">
+        <v>4.422566666666659</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="D250" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="E250" t="n">
+        <v>4.373</v>
+      </c>
+      <c r="F250" t="n">
+        <v>5991.4226</v>
+      </c>
+      <c r="G250" t="n">
+        <v>4.393466666666666</v>
+      </c>
+      <c r="H250" t="n">
+        <v>4.42151666666666</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="C251" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="D251" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="E251" t="n">
+        <v>4.363</v>
+      </c>
+      <c r="F251" t="n">
+        <v>46000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>4.389066666666666</v>
+      </c>
+      <c r="H251" t="n">
+        <v>4.41856666666666</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="C252" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="D252" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="E252" t="n">
+        <v>4.404</v>
+      </c>
+      <c r="F252" t="n">
+        <v>114</v>
+      </c>
+      <c r="G252" t="n">
+        <v>4.392066666666666</v>
+      </c>
+      <c r="H252" t="n">
+        <v>4.416166666666659</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N310"/>
+  <dimension ref="A1:M310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-2408256.784700001</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>-2875029.1187</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-3068029.1187</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>-3067650.1187</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -780,18 +748,19 @@
         <v>-3220991.5872</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>4.282</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.282</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +785,23 @@
         <v>-3167593.470900001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>4.347</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +826,23 @@
         <v>-3167791.2188</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>4.348</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +867,19 @@
         <v>-3144926.5888</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>4.347</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.347</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +904,23 @@
         <v>-3207392.737800001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>4.352</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.347</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +945,23 @@
         <v>-3207277.537800001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>4.295</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.347</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +986,19 @@
         <v>-3207397.537800001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>4.344</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.344</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1025,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>4.344</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1064,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>4.344</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1103,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1136,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1169,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1202,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1235,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1266,19 @@
         <v>-3199929.915400001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.33</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1303,23 @@
         <v>-3199929.915400001</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>4.38</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1346,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1385,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1416,15 @@
         <v>-2729969.018109251</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1449,15 @@
         <v>-2752400.902909251</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1484,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1517,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1550,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1583,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1616,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1649,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1682,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1715,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1746,15 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1779,15 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1812,15 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1845,15 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1880,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1913,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1944,15 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1977,15 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2010,15 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2043,15 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2078,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2111,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2144,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2175,15 @@
         <v>-4382558.334026095</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2208,15 @@
         <v>-4534312.066626095</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2243,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2274,15 @@
         <v>-5154606.701826096</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2309,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2342,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2375,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2408,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2441,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2472,21 @@
         <v>-6143604.210826096</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2511,21 @@
         <v>-6078296.097126096</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>4.27</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2552,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2589,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2626,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2663,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2700,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2737,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2774,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2811,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2848,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2885,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2922,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2959,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2994,21 @@
         <v>-6220001.670226095</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>4.294</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +3033,21 @@
         <v>-6235991.670226095</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>4.297</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3072,21 @@
         <v>-6235991.670226095</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>4.278</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3111,21 @@
         <v>-6237734.120026095</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>4.278</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3150,21 @@
         <v>-6575660.558226095</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4.276</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3191,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3228,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3265,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3302,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3339,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3376,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3413,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3450,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3487,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3524,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3561,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3598,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3635,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3672,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3709,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3746,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3783,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3820,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3857,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3894,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3931,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3968,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +4005,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4042,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4079,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4116,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4153,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4190,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4227,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4264,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4301,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4338,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4375,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4410,19 @@
         <v>-6457202.892426094</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4447,19 @@
         <v>-6298467.720426094</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4486,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4523,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4596,18 +4558,19 @@
         <v>-6325474.861851186</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4597,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4634,17 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4671,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4708,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4776,18 +4743,19 @@
         <v>-6450630.325551186</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4782,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4819,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4856,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4893,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4930,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4967,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +5004,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +5041,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +5078,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +5115,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5152,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5189,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5226,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5263,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5300,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5337,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5374,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5411,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5448,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5485,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5522,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5559,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5596,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5633,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5670,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5707,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5744,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5781,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5818,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5855,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5892,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5928,18 +5927,21 @@
         <v>-8480677.986651184</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5964,22 +5966,21 @@
         <v>-8466306.218951184</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
         <v>4.25</v>
       </c>
-      <c r="K155" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6004,24 +6005,21 @@
         <v>-8549315.164251184</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6046,24 +6044,21 @@
         <v>-8549021.763551185</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6088,18 +6083,21 @@
         <v>-8582602.744551186</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>4.295</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6124,18 +6122,21 @@
         <v>-8529680.382651186</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>4.293</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6160,18 +6161,21 @@
         <v>-8458472.532651186</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>4.306</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6196,18 +6200,21 @@
         <v>-8458472.532651186</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6234,16 +6241,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6270,16 +6278,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6306,16 +6315,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6342,16 +6352,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6378,16 +6389,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6414,16 +6426,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6450,16 +6463,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6486,16 +6500,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6522,16 +6537,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6558,16 +6574,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6594,16 +6611,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6630,16 +6648,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6666,16 +6685,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6702,16 +6722,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6738,16 +6759,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6774,16 +6796,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6810,16 +6833,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6846,16 +6870,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6882,16 +6907,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6918,16 +6944,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6954,16 +6981,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6990,16 +7018,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7026,16 +7055,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7062,16 +7092,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7098,16 +7129,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7134,16 +7166,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7168,18 +7201,21 @@
         <v>-9161276.343151188</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>4.314</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7206,16 +7242,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7240,18 +7277,21 @@
         <v>-9161050.052951187</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>4.309</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7276,18 +7316,21 @@
         <v>-9193207.039251188</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
+        <v>4.309</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7312,18 +7355,21 @@
         <v>-9192991.563451188</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7348,18 +7394,21 @@
         <v>-9374931.563451188</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
+        <v>4.299</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7384,18 +7433,21 @@
         <v>-9374727.336551188</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>4.298</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7420,18 +7472,21 @@
         <v>-9374854.356351187</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>4.309</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7456,18 +7511,21 @@
         <v>-9374660.340851188</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>4.281</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7492,18 +7550,21 @@
         <v>-9409850.340851188</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>4.309</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7528,18 +7589,21 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>4.292</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7564,24 +7628,21 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
         <v>4.28</v>
       </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7606,24 +7667,21 @@
         <v>-10126844.44085119</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
         <v>4.28</v>
       </c>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7648,24 +7706,21 @@
         <v>-10293912.25635119</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="n">
         <v>4.258</v>
       </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7690,24 +7745,21 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
         <v>4.249</v>
       </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7732,24 +7784,19 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7774,24 +7821,21 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="n">
         <v>4.299</v>
       </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7816,24 +7860,21 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
         <v>4.299</v>
       </c>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7858,24 +7899,21 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="n">
         <v>4.309</v>
       </c>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7900,24 +7938,21 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
         <v>4.309</v>
       </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7942,24 +7977,19 @@
         <v>-10274240.18395119</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>4.318</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7984,24 +8014,21 @@
         <v>-10274240.18395119</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
         <v>4.319</v>
       </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8026,24 +8053,19 @@
         <v>-10178877.68995119</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>4.319</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8068,24 +8090,21 @@
         <v>-10178877.68995119</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
         <v>4.339</v>
       </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8112,20 +8131,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8150,22 +8166,21 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>4.329</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8190,24 +8205,21 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
         <v>4.329</v>
       </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8232,22 +8244,21 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="n">
-        <v>0</v>
+        <v>4.329</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8272,24 +8283,21 @@
         <v>-10383851.72255119</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
         <v>4.329</v>
       </c>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8314,24 +8322,21 @@
         <v>-10429453.05425119</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
         <v>4.318</v>
       </c>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8356,24 +8361,21 @@
         <v>-10537013.09700173</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
         <v>4.309</v>
       </c>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8398,24 +8400,21 @@
         <v>-10942734.97730173</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
         <v>4.308</v>
       </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8440,24 +8439,21 @@
         <v>-10942550.61980173</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
         <v>4.258</v>
       </c>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8482,24 +8478,21 @@
         <v>-11042550.61980173</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
         <v>4.308</v>
       </c>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8524,24 +8517,21 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
         <v>4.307</v>
       </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8566,24 +8556,21 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
         <v>4.269</v>
       </c>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8608,24 +8595,21 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
         <v>4.269</v>
       </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8650,24 +8634,21 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
         <v>4.308</v>
       </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8692,24 +8673,19 @@
         <v>-10024354.10580173</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8734,24 +8710,21 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
         <v>4.309</v>
       </c>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8776,22 +8749,21 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="n">
-        <v>0</v>
+        <v>4.308</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8816,22 +8788,21 @@
         <v>-10032521.60430173</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
+        <v>4.308</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8856,22 +8827,21 @@
         <v>-10313131.60430173</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>4.328</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8896,22 +8866,21 @@
         <v>-10355873.72030173</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
+        <v>4.312</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8936,22 +8905,21 @@
         <v>-10355112.34290173</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>4.302</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8976,22 +8944,21 @@
         <v>-10343352.34290173</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>4.312</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9016,22 +8983,21 @@
         <v>-10343352.34290173</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
+        <v>4.322</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9056,22 +9022,21 @@
         <v>-10392761.94090173</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>4.322</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9096,22 +9061,21 @@
         <v>-10404521.94090173</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>4.318</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9136,22 +9100,21 @@
         <v>-10356162.84860173</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
+        <v>4.313</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9176,24 +9139,21 @@
         <v>-10526162.84860173</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
         <v>4.346</v>
       </c>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9220,20 +9180,17 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9260,20 +9217,17 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9300,20 +9254,17 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9340,20 +9291,17 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9380,20 +9328,17 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9420,20 +9365,17 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9460,20 +9402,17 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9500,20 +9439,17 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9540,20 +9476,17 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9580,20 +9513,17 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9620,20 +9550,17 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9660,20 +9587,17 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9700,20 +9624,17 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9738,22 +9659,19 @@
         <v>-9037256.993106367</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9780,20 +9698,17 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9818,22 +9733,19 @@
         <v>-8357333.11875728</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9860,20 +9772,17 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9900,20 +9809,17 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9940,20 +9846,17 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9980,20 +9883,17 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10020,20 +9920,17 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10060,20 +9957,17 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10100,20 +9994,17 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10140,20 +10031,17 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10180,20 +10068,17 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10220,20 +10105,17 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10260,20 +10142,17 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10300,20 +10179,17 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10340,20 +10216,17 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10380,20 +10253,17 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10420,20 +10290,17 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10460,20 +10327,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10500,20 +10364,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10540,20 +10401,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10580,20 +10438,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10620,20 +10475,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10660,20 +10512,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10700,20 +10549,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10740,20 +10586,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10778,22 +10621,19 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10818,22 +10658,19 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10858,22 +10695,19 @@
         <v>-7158050.083971743</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10898,20 +10732,19 @@
         <v>-7346511.973171743</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
       </c>
       <c r="M281" t="inlineStr"/>
-      <c r="N281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10936,18 +10769,19 @@
         <v>-7343992.940171743</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10972,18 +10806,19 @@
         <v>-7407228.416971743</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11008,18 +10843,19 @@
         <v>-7415141.359271743</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11044,18 +10880,17 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11082,16 +10917,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11118,16 +10950,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11152,18 +10981,15 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11190,16 +11016,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11224,18 +11047,15 @@
         <v>-7478751.025428858</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11260,18 +11080,15 @@
         <v>-7603528.981628858</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11298,16 +11115,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11334,16 +11148,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11370,16 +11181,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11406,16 +11214,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11442,16 +11247,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11478,16 +11280,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11514,16 +11313,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11550,16 +11346,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11586,16 +11379,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11622,16 +11412,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11658,16 +11445,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11694,16 +11478,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11730,16 +11511,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11766,16 +11544,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11802,16 +11577,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11838,16 +11610,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11874,16 +11643,13 @@
       <c r="H308" t="n">
         <v>0</v>
       </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11908,18 +11674,15 @@
         <v>-8654569.586428858</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11944,20 +11707,17 @@
         <v>-8654455.586428858</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-2408256.784700001</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2875029.1187</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-3068029.1187</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-3067650.1187</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,14 +748,10 @@
         <v>-3220991.5872</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.282</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4.282</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,19 +781,11 @@
         <v>-3167593.470900001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4.347</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.282</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -826,19 +814,11 @@
         <v>-3167791.2188</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.348</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.282</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -867,14 +847,10 @@
         <v>-3144926.5888</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.347</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
@@ -904,19 +880,11 @@
         <v>-3207392.737800001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.352</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.347</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -945,19 +913,11 @@
         <v>-3207277.537800001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.347</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,14 +946,10 @@
         <v>-3207397.537800001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.344</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -1026,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>4.344</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1065,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>4.344</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1266,14 +1210,10 @@
         <v>-3199929.915400001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1303,19 +1243,11 @@
         <v>-3199929.915400001</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1347,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1416,7 +1342,7 @@
         <v>-2729969.018109251</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1449,7 +1375,7 @@
         <v>-2752400.902909251</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1548,7 +1474,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1746,7 +1672,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1779,7 +1705,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1812,7 +1738,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1845,7 +1771,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1878,7 +1804,7 @@
         <v>-4386292.656326095</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1911,7 +1837,7 @@
         <v>-4393316.713726095</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1944,7 +1870,7 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1977,7 +1903,7 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2010,7 +1936,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2043,7 +1969,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2076,7 +2002,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2109,7 +2035,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2142,7 +2068,7 @@
         <v>-4378287.597426095</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2175,7 +2101,7 @@
         <v>-4382558.334026095</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2208,7 +2134,7 @@
         <v>-4534312.066626095</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2241,7 +2167,7 @@
         <v>-4509630.701826096</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2274,7 +2200,7 @@
         <v>-5154606.701826096</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2307,7 +2233,7 @@
         <v>-5154606.701826096</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2472,17 +2398,11 @@
         <v>-6143604.210826096</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2511,17 +2431,11 @@
         <v>-6078296.097126096</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2554,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2591,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2628,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2665,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2702,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2739,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2776,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2813,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2850,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2994,17 +2860,11 @@
         <v>-6220001.670226095</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4.294</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3033,17 +2893,11 @@
         <v>-6235991.670226095</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>4.297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3072,17 +2926,11 @@
         <v>-6235991.670226095</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4.278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3111,17 +2959,11 @@
         <v>-6237734.120026095</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>4.278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3150,17 +2992,11 @@
         <v>-6575660.558226095</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4.276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3193,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3230,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3267,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3304,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3341,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3415,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3452,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3489,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3526,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3600,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3711,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3748,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3822,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3859,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3896,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3933,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4007,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4044,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4118,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4155,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4192,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4266,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4303,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4410,15 +4114,11 @@
         <v>-6457202.892426094</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4447,15 +4147,11 @@
         <v>-6298467.720426094</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4488,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4558,15 +4246,11 @@
         <v>-6325474.861851186</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4743,15 +4411,11 @@
         <v>-6450630.325551186</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4784,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4858,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4969,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5006,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5043,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5080,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5117,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5154,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5228,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5265,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5339,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5376,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5413,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5487,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5524,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5561,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5598,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5635,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5672,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5709,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5746,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5783,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5820,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5857,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5890,15 +5434,15 @@
         <v>-8480677.986651184</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5927,15 +5471,17 @@
         <v>-8480677.986651184</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>4.25</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5966,12 +5512,14 @@
         <v>-8466306.218951184</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>4.25</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6005,12 +5553,14 @@
         <v>-8549315.164251184</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>4.29</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6044,12 +5594,14 @@
         <v>-8549021.763551185</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>4.25</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6083,12 +5635,14 @@
         <v>-8582602.744551186</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>4.295</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6122,12 +5676,14 @@
         <v>-8529680.382651186</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>4.293</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6161,12 +5717,14 @@
         <v>-8458472.532651186</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>4.306</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,12 +5758,14 @@
         <v>-8458472.532651186</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>4.32</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6242,7 +5802,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,7 +5841,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,7 +5880,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,7 +5919,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6390,7 +5958,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6427,7 +5997,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6464,7 +6036,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,7 +6075,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6538,7 +6114,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6575,7 +6153,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,7 +6192,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6649,7 +6231,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,7 +6270,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6723,7 +6309,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,7 +6348,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6797,7 +6387,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6834,7 +6426,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6871,7 +6465,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6908,7 +6504,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,7 +6543,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,7 +6582,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7019,7 +6621,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7056,7 +6660,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7093,7 +6699,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,7 +6738,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,7 +6777,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,12 +6813,12 @@
         <v>-9161276.343151188</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7243,7 +6855,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7277,12 +6891,12 @@
         <v>-9161050.052951187</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7316,12 +6930,12 @@
         <v>-9193207.039251188</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7355,12 +6969,12 @@
         <v>-9192991.563451188</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7394,12 +7008,12 @@
         <v>-9374931.563451188</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7433,12 +7047,12 @@
         <v>-9374727.336551188</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>4.298</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7472,12 +7086,12 @@
         <v>-9374854.356351187</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7511,12 +7125,12 @@
         <v>-9374660.340851188</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,12 +7164,12 @@
         <v>-9409850.340851188</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7589,12 +7203,12 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>4.292</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,12 +7242,12 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7667,12 +7281,12 @@
         <v>-10126844.44085119</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7706,12 +7320,12 @@
         <v>-10293912.25635119</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>4.258</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7745,12 +7359,12 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>4.249</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,7 +7401,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,12 +7437,14 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>4.299</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,12 +7478,14 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>4.299</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,12 +7519,14 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>4.309</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,12 +7560,14 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>4.309</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7980,7 +7604,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8014,12 +7640,12 @@
         <v>-10274240.18395119</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.319</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8056,7 +7682,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8090,12 +7718,12 @@
         <v>-10178877.68995119</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="n">
-        <v>4.339</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,7 +7760,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,12 +7796,12 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="n">
-        <v>4.329</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8205,12 +7835,12 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>4.329</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8244,12 +7874,12 @@
         <v>-10179032.39575119</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="n">
-        <v>4.329</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8283,12 +7913,12 @@
         <v>-10383851.72255119</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="n">
-        <v>4.329</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8322,12 +7952,12 @@
         <v>-10429453.05425119</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="n">
-        <v>4.318</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8361,12 +7991,12 @@
         <v>-10537013.09700173</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8400,12 +8030,12 @@
         <v>-10942734.97730173</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8439,12 +8069,12 @@
         <v>-10942550.61980173</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="n">
-        <v>4.258</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8478,12 +8108,12 @@
         <v>-11042550.61980173</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8517,12 +8147,12 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8556,12 +8186,14 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>4.269</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8595,12 +8227,14 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>4.269</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,12 +8268,14 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>4.308</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,10 +8309,14 @@
         <v>-10024354.10580173</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="J226" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8710,12 +8350,14 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>4.309</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,12 +8391,12 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8788,12 +8430,12 @@
         <v>-10032521.60430173</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8827,12 +8469,12 @@
         <v>-10313131.60430173</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>4.328</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8866,12 +8508,12 @@
         <v>-10355873.72030173</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4.312</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8905,12 +8547,12 @@
         <v>-10355112.34290173</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>4.302</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8944,12 +8586,12 @@
         <v>-10343352.34290173</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.312</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8983,12 +8625,12 @@
         <v>-10343352.34290173</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.322</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,12 +8664,12 @@
         <v>-10392761.94090173</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4.322</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9061,12 +8703,12 @@
         <v>-10404521.94090173</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>4.318</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9100,12 +8742,12 @@
         <v>-10356162.84860173</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>4.313</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9139,12 +8781,12 @@
         <v>-10526162.84860173</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>4.346</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9181,7 +8823,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9218,7 +8862,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9255,7 +8901,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9292,7 +8940,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9329,7 +8979,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9366,7 +9018,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9403,7 +9057,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,7 +9096,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9477,7 +9135,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,7 +9174,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9551,7 +9213,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9588,7 +9252,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9625,7 +9291,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,10 +9327,12 @@
         <v>-9037256.993106367</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9699,7 +9369,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,10 +9405,12 @@
         <v>-8357333.11875728</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9773,7 +9447,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,7 +9486,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9847,7 +9525,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9884,7 +9564,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9921,7 +9603,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9958,7 +9642,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9995,7 +9681,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10032,7 +9720,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10069,7 +9759,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10106,7 +9798,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10143,7 +9837,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,7 +9876,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10217,7 +9915,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10254,7 +9954,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10291,7 +9993,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10328,7 +10032,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10365,7 +10071,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10402,7 +10110,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10439,7 +10149,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10476,7 +10188,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10513,7 +10227,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10550,7 +10266,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +10305,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,10 +10341,12 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,10 +10380,12 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,10 +10419,12 @@
         <v>-7158050.083971743</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,10 +10458,12 @@
         <v>-7346511.973171743</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,10 +10497,12 @@
         <v>-7343992.940171743</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,10 +10536,12 @@
         <v>-7407228.416971743</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,10 +10575,12 @@
         <v>-7415141.359271743</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10880,16 +10614,20 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>4.296</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L285" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
       <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
@@ -10918,8 +10656,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10951,8 +10695,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10981,11 +10731,17 @@
         <v>-7456765.356471743</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11017,8 +10773,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11047,11 +10809,17 @@
         <v>-7478751.025428858</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11080,11 +10848,17 @@
         <v>-7603528.981628858</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11116,8 +10890,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11149,8 +10929,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11182,8 +10968,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11215,8 +11007,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11248,8 +11046,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11281,8 +11085,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11314,8 +11124,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11347,8 +11163,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11380,8 +11202,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11413,8 +11241,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11446,8 +11280,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11479,8 +11319,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11512,8 +11358,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11545,8 +11397,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11578,8 +11436,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11611,8 +11475,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11644,8 +11514,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11674,11 +11550,17 @@
         <v>-8654569.586428858</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11707,17 +11589,23 @@
         <v>-8654455.586428858</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>4.296</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
       <c r="M310" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1375,7 +1375,7 @@
         <v>-2752400.902909251</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-4386292.656326095</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-4393316.713726095</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-4379400.597426095</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-4378400.597426095</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-4378287.597426095</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-4382558.334026095</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-4534312.066626095</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-4509630.701826096</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-5154606.701826096</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-5154606.701826096</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -5434,14 +5434,10 @@
         <v>-8480677.986651184</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="J153" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
@@ -5471,1827 +5467,1535 @@
         <v>-8480677.986651184</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="E155" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F155" t="n">
+        <v>14371.7677</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-8466306.218951184</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>4.25</v>
       </c>
-      <c r="J154" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K154" t="inlineStr">
+      <c r="C156" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E156" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F156" t="n">
+        <v>83008.94530000001</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-8549315.164251184</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E157" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F157" t="n">
+        <v>293.4007</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-8549021.763551185</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.293</v>
+      </c>
+      <c r="C158" t="n">
+        <v>4.293</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4.293</v>
+      </c>
+      <c r="E158" t="n">
+        <v>4.293</v>
+      </c>
+      <c r="F158" t="n">
+        <v>33580.981</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-8582602.744551186</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="C159" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E159" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="F159" t="n">
+        <v>52922.3619</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-8529680.382651186</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.317</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E160" t="n">
+        <v>4.317</v>
+      </c>
+      <c r="F160" t="n">
+        <v>71207.85000000001</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-8458472.532651186</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C161" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D161" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E161" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F161" t="n">
+        <v>163730.6764</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-8458472.532651186</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C162" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="D162" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="E162" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="F162" t="n">
+        <v>45412.612</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-8458472.532651186</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D163" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E163" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4269.5443</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-8462742.076951185</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C164" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D164" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E164" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F164" t="n">
+        <v>160544.2825</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-8462742.076951185</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C165" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D165" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E165" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2497.8125</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-8462742.076951185</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C166" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10527.0752</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-8462742.076951185</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C167" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D167" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E167" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F167" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-8512742.076951185</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C168" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E168" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F168" t="n">
+        <v>43967.2489</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-8512742.076951185</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E169" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F169" t="n">
+        <v>278.0186</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-8512464.058351185</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E170" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F170" t="n">
+        <v>42653.9462</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-8512464.058351185</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27695.8017</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-8484768.256651185</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="D172" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.307</v>
+      </c>
+      <c r="F172" t="n">
+        <v>132997.098</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-8484768.256651185</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F173" t="n">
+        <v>101209.0952</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-8585977.351851186</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.306</v>
+      </c>
+      <c r="F174" t="n">
+        <v>997.1287</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-8585977.351851186</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="C175" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="D175" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="E175" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="F175" t="n">
+        <v>227418.2091</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-8813395.560951186</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E176" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F176" t="n">
+        <v>55626.9406</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-8757768.620351186</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C177" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D177" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F177" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-8757768.620351186</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C178" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D178" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E178" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F178" t="n">
+        <v>116</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-8757652.620351186</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D179" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F179" t="n">
+        <v>20032.7067</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-8777685.327051187</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="C180" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="D180" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="E180" t="n">
+        <v>4.295</v>
+      </c>
+      <c r="F180" t="n">
+        <v>27427.4579</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-8777685.327051187</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D181" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E181" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F181" t="n">
+        <v>262.0485</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-8777423.278551187</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="D182" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="E182" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F182" t="n">
+        <v>95853.4216</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-8777423.278551187</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C183" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="F183" t="n">
+        <v>248.3738</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-8777174.904751187</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="D184" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="F184" t="n">
+        <v>25410</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-8802584.904751187</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="C185" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="D185" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="E185" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="F185" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-8802584.904751187</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="C186" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.305</v>
+      </c>
+      <c r="E186" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="F186" t="n">
+        <v>353725.9019</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-9156310.806651188</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.314</v>
+      </c>
+      <c r="C187" t="n">
+        <v>4.314</v>
+      </c>
+      <c r="D187" t="n">
+        <v>4.314</v>
+      </c>
+      <c r="E187" t="n">
+        <v>4.314</v>
+      </c>
+      <c r="F187" t="n">
+        <v>237.9243</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-9156072.882351188</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="C188" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="D188" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="E188" t="n">
+        <v>4.294</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5203.4608</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-9161276.343151188</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="F189" t="n">
+        <v>226.2902</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-9161050.052951187</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="F190" t="n">
+        <v>371.315850545</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-9161050.052951187</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F191" t="n">
+        <v>32156.9863</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-9193207.039251188</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="C192" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="F192" t="n">
+        <v>215.4758</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-9192991.563451188</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.288</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.298</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.298</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.288</v>
+      </c>
+      <c r="F193" t="n">
+        <v>181940</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-9374931.563451188</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="F194" t="n">
+        <v>204.2269</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-9374727.336551188</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.281</v>
+      </c>
+      <c r="F195" t="n">
+        <v>127.0198</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-9374854.356351187</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.309</v>
+      </c>
+      <c r="F196" t="n">
+        <v>194.0155</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-9374660.340851188</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.292</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.292</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="F197" t="n">
+        <v>35190</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-9409850.340851188</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.282</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F198" t="n">
+        <v>40596.1677</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-9450446.508551188</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="F199" t="n">
+        <v>36417.1258</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-9450446.508551188</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C200" t="n">
+        <v>4.258</v>
+      </c>
+      <c r="D200" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="E200" t="n">
+        <v>4.258</v>
+      </c>
+      <c r="F200" t="n">
+        <v>676397.9323</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-10126844.44085119</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C155" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="D155" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="E155" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F155" t="n">
-        <v>14371.7677</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-8466306.218951184</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J155" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C156" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="D156" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E156" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="F156" t="n">
-        <v>83008.94530000001</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-8549315.164251184</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="J156" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C157" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D157" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E157" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F157" t="n">
-        <v>293.4007</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-8549021.763551185</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="D158" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="E158" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="F158" t="n">
-        <v>33580.981</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-8582602.744551186</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="J158" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="C159" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D159" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E159" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="F159" t="n">
-        <v>52922.3619</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-8529680.382651186</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>4.293</v>
-      </c>
-      <c r="J159" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>4.317</v>
-      </c>
-      <c r="C160" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D160" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E160" t="n">
-        <v>4.317</v>
-      </c>
-      <c r="F160" t="n">
-        <v>71207.85000000001</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="J160" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C161" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D161" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E161" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F161" t="n">
-        <v>163730.6764</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="J161" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C162" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="D162" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="E162" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="F162" t="n">
-        <v>45412.612</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C163" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D163" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E163" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4269.5443</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C164" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D164" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E164" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F164" t="n">
-        <v>160544.2825</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D165" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E165" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F165" t="n">
-        <v>2497.8125</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C166" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D166" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E166" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F166" t="n">
-        <v>10527.0752</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C167" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D167" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E167" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F167" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-8512742.076951185</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C168" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D168" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E168" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F168" t="n">
-        <v>43967.2489</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-8512742.076951185</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C169" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D169" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E169" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F169" t="n">
-        <v>278.0186</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-8512464.058351185</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C170" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D170" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E170" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F170" t="n">
-        <v>42653.9462</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-8512464.058351185</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="C171" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="D171" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="E171" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27695.8017</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-8484768.256651185</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="C172" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="D172" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="E172" t="n">
-        <v>4.307</v>
-      </c>
-      <c r="F172" t="n">
-        <v>132997.098</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-8484768.256651185</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C173" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D173" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E173" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F173" t="n">
-        <v>101209.0952</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-8585977.351851186</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="C174" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="D174" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="E174" t="n">
-        <v>4.306</v>
-      </c>
-      <c r="F174" t="n">
-        <v>997.1287</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-8585977.351851186</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="C175" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="D175" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="E175" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="F175" t="n">
-        <v>227418.2091</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-8813395.560951186</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C176" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D176" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E176" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F176" t="n">
-        <v>55626.9406</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-8757768.620351186</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C177" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D177" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F177" t="n">
-        <v>130000</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-8757768.620351186</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C178" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D178" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E178" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F178" t="n">
-        <v>116</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-8757652.620351186</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D179" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E179" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F179" t="n">
-        <v>20032.7067</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-8777685.327051187</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="C180" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="D180" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="E180" t="n">
-        <v>4.295</v>
-      </c>
-      <c r="F180" t="n">
-        <v>27427.4579</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-8777685.327051187</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D181" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E181" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F181" t="n">
-        <v>262.0485</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-8777423.278551187</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="D182" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="E182" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="F182" t="n">
-        <v>95853.4216</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-8777423.278551187</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C183" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="D183" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E183" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F183" t="n">
-        <v>248.3738</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-8777174.904751187</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="C184" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="D184" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="E184" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="F184" t="n">
-        <v>25410</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-8802584.904751187</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="C185" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="D185" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="E185" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="F185" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-8802584.904751187</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="C186" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="D186" t="n">
-        <v>4.305</v>
-      </c>
-      <c r="E186" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="F186" t="n">
-        <v>353725.9019</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-9156310.806651188</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="C187" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="D187" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="E187" t="n">
-        <v>4.314</v>
-      </c>
-      <c r="F187" t="n">
-        <v>237.9243</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-9156072.882351188</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="C188" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="D188" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="E188" t="n">
-        <v>4.294</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5203.4608</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-9161276.343151188</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="C189" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="D189" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="E189" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="F189" t="n">
-        <v>226.2902</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-9161050.052951187</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="C190" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="D190" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="E190" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="F190" t="n">
-        <v>371.315850545</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-9161050.052951187</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="C191" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D191" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="E191" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F191" t="n">
-        <v>32156.9863</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-9193207.039251188</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="C192" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="D192" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="E192" t="n">
-        <v>4.299</v>
-      </c>
-      <c r="F192" t="n">
-        <v>215.4758</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-9192991.563451188</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>4.288</v>
-      </c>
-      <c r="C193" t="n">
-        <v>4.298</v>
-      </c>
-      <c r="D193" t="n">
-        <v>4.298</v>
-      </c>
-      <c r="E193" t="n">
-        <v>4.288</v>
-      </c>
-      <c r="F193" t="n">
-        <v>181940</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-9374931.563451188</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="C194" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="D194" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="E194" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="F194" t="n">
-        <v>204.2269</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-9374727.336551188</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="C195" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="D195" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="E195" t="n">
-        <v>4.281</v>
-      </c>
-      <c r="F195" t="n">
-        <v>127.0198</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-9374854.356351187</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="C196" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="D196" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="E196" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="F196" t="n">
-        <v>194.0155</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-9374660.340851188</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>4.283</v>
-      </c>
-      <c r="C197" t="n">
-        <v>4.292</v>
-      </c>
-      <c r="D197" t="n">
-        <v>4.292</v>
-      </c>
-      <c r="E197" t="n">
-        <v>4.283</v>
-      </c>
-      <c r="F197" t="n">
-        <v>35190</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-9409850.340851188</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>4.282</v>
-      </c>
-      <c r="C198" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D198" t="n">
-        <v>4.282</v>
-      </c>
-      <c r="E198" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F198" t="n">
-        <v>40596.1677</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-9450446.508551188</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>4.283</v>
-      </c>
-      <c r="C199" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="D199" t="n">
-        <v>4.283</v>
-      </c>
-      <c r="E199" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="F199" t="n">
-        <v>36417.1258</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-9450446.508551188</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C200" t="n">
-        <v>4.258</v>
-      </c>
-      <c r="D200" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="E200" t="n">
-        <v>4.258</v>
-      </c>
-      <c r="F200" t="n">
-        <v>676397.9323</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-10126844.44085119</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7320,12 +7024,12 @@
         <v>-10293912.25635119</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>4.296</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>4.258</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7359,12 +7063,12 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>4.296</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>4.249</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7398,12 +7102,12 @@
         <v>-10293792.25635119</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>4.296</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>4.299</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7442,9 +7146,7 @@
       <c r="I204" t="n">
         <v>4.299</v>
       </c>
-      <c r="J204" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7483,9 +7185,7 @@
       <c r="I205" t="n">
         <v>4.299</v>
       </c>
-      <c r="J205" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7519,14 +7219,10 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J206" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,14 +7256,10 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J207" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7604,9 +7296,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,9 +7333,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,9 +7370,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7721,9 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7760,9 +7444,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7799,9 +7481,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7838,9 +7518,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7877,9 +7555,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7916,9 +7592,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,9 +7629,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,9 +7666,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8033,9 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8072,9 +7740,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8108,12 +7774,12 @@
         <v>-11042550.61980173</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>4.296</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>4.308</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,9 +7816,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8191,9 +7855,7 @@
       <c r="I223" t="n">
         <v>4.269</v>
       </c>
-      <c r="J223" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8232,9 +7894,7 @@
       <c r="I224" t="n">
         <v>4.269</v>
       </c>
-      <c r="J224" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,14 +7928,10 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J225" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,14 +7965,10 @@
         <v>-10024354.10580173</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>4.308</v>
-      </c>
-      <c r="J226" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8350,14 +8002,10 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>4.309</v>
-      </c>
-      <c r="J227" t="n">
-        <v>4.296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8394,9 +8042,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8433,9 +8079,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8472,9 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,9 +8153,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8550,9 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8589,9 +8227,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8628,9 +8264,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8667,9 +8301,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8706,9 +8338,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8745,9 +8375,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8784,9 +8412,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8823,9 +8449,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8862,9 +8486,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8901,9 +8523,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,9 +8560,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,9 +8597,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,9 +8634,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,9 +8671,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9096,9 +8708,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,9 +8745,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9174,9 +8782,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,9 +8819,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9249,20 +8853,16 @@
         <v>-8376930.361251561</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4.296</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -9291,14 +8891,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9330,14 +8924,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9369,14 +8957,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9408,14 +8990,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9447,14 +9023,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9486,14 +9056,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9525,14 +9089,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9564,14 +9122,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9603,14 +9155,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9642,14 +9188,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +9221,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +9254,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +9287,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9798,14 +9320,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9837,14 +9353,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9876,14 +9386,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9915,14 +9419,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9954,14 +9452,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9993,14 +9485,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10032,14 +9518,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10071,14 +9551,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10110,14 +9584,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10146,17 +9614,11 @@
         <v>-7957450.605757283</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10185,17 +9647,11 @@
         <v>-7908014.275957283</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10227,14 +9683,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10266,14 +9716,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10302,17 +9746,11 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10341,17 +9779,11 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10380,17 +9812,11 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10419,17 +9845,11 @@
         <v>-7158050.083971743</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10458,17 +9878,11 @@
         <v>-7346511.973171743</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10500,14 +9914,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10539,14 +9947,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10578,14 +9980,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +10013,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10656,14 +10046,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10695,14 +10079,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10734,14 +10112,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10773,14 +10145,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10812,14 +10178,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10851,14 +10211,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10890,14 +10244,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10929,14 +10277,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10968,14 +10310,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11007,14 +10343,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11046,14 +10376,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11085,14 +10409,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11124,14 +10442,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11163,14 +10475,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11202,14 +10508,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11241,14 +10541,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +10574,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11319,14 +10607,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11358,14 +10640,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11397,14 +10673,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11436,14 +10706,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11475,14 +10739,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11514,14 +10772,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11553,14 +10805,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11592,20 +10838,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>4.296</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
       <c r="M310" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -1441,7 +1441,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-2666983.976009251</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-2214021.024426095</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -6952,11 +6952,17 @@
         <v>-9450446.508551188</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>4.28</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6993,7 +6999,7 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7219,9 +7225,11 @@
         <v>-10288804.16865119</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>4.309</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7256,9 +7264,11 @@
         <v>-10288688.16865119</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>4.309</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7330,9 +7340,11 @@
         <v>-10274240.18395119</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>4.319</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -7367,9 +7379,11 @@
         <v>-10178877.68995119</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>4.319</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -7626,9 +7640,11 @@
         <v>-10429453.05425119</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>4.318</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -7663,9 +7679,11 @@
         <v>-10537013.09700173</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>4.309</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -7700,9 +7718,11 @@
         <v>-10942734.97730173</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>4.308</v>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
@@ -7737,9 +7757,11 @@
         <v>-10942550.61980173</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>4.258</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -7813,9 +7835,11 @@
         <v>-11042688.77210173</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>4.307</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
@@ -7928,9 +7952,11 @@
         <v>-11037688.77210173</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>4.308</v>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
@@ -7965,9 +7991,11 @@
         <v>-10024354.10580173</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>4.308</v>
+      </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
@@ -8002,9 +8030,11 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4.309</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8039,9 +8069,11 @@
         <v>-10082521.60430173</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>4.308</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8520,9 +8552,11 @@
         <v>-10386955.64300174</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>4.343</v>
+      </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
@@ -8557,9 +8591,11 @@
         <v>-10370890.33130174</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>4.345</v>
+      </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
@@ -8853,16 +8889,18 @@
         <v>-8376930.361251561</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
       <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
@@ -8892,7 +8930,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8925,7 +8967,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8958,7 +9004,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8991,7 +9041,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9024,7 +9078,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9057,7 +9115,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +9152,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9123,7 +9189,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9156,7 +9226,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9189,7 +9263,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9222,7 +9300,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9255,7 +9337,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9288,7 +9374,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9321,7 +9411,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9354,7 +9448,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9387,7 +9485,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9420,7 +9522,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9559,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9486,7 +9596,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9519,7 +9633,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9552,7 +9670,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9585,7 +9707,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9614,11 +9740,15 @@
         <v>-7957450.605757283</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9647,11 +9777,15 @@
         <v>-7908014.275957283</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9684,7 +9818,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9717,7 +9855,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9746,11 +9888,15 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9779,11 +9925,15 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9812,11 +9962,15 @@
         <v>-7834034.087411279</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9849,10 +10003,12 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
@@ -9911,7 +10067,7 @@
         <v>-7343992.940171743</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9944,7 +10100,7 @@
         <v>-7407228.416971743</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9977,7 +10133,7 @@
         <v>-7415141.359271743</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>

--- a/BackTest/2020-01-14 BackTest PLY.xlsx
+++ b/BackTest/2020-01-14 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M310"/>
+  <dimension ref="A1:L310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>25718.3242</v>
       </c>
       <c r="G2" t="n">
-        <v>-2508468.295700001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>41491.2467</v>
       </c>
       <c r="G3" t="n">
-        <v>-2466977.049000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>58720.2643</v>
       </c>
       <c r="G4" t="n">
-        <v>-2408256.784700001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>466772.334</v>
       </c>
       <c r="G5" t="n">
-        <v>-2875029.1187</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>193000</v>
       </c>
       <c r="G6" t="n">
-        <v>-3068029.1187</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>379</v>
       </c>
       <c r="G7" t="n">
-        <v>-3067650.1187</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>7740</v>
       </c>
       <c r="G8" t="n">
-        <v>-3075390.1187</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>13944.5479</v>
       </c>
       <c r="G9" t="n">
-        <v>-3075390.1187</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>221251.1522</v>
       </c>
       <c r="G10" t="n">
-        <v>-3296641.2709</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>75649.68369999999</v>
       </c>
       <c r="G11" t="n">
-        <v>-3220991.5872</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>53398.1163</v>
       </c>
       <c r="G12" t="n">
-        <v>-3167593.470900001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>197.7479</v>
       </c>
       <c r="G13" t="n">
-        <v>-3167791.2188</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>22864.63</v>
       </c>
       <c r="G14" t="n">
-        <v>-3144926.5888</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>62466.149</v>
       </c>
       <c r="G15" t="n">
-        <v>-3207392.737800001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>115.2</v>
       </c>
       <c r="G16" t="n">
-        <v>-3207277.537800001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>120</v>
       </c>
       <c r="G17" t="n">
-        <v>-3207397.537800001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2343.9429</v>
       </c>
       <c r="G18" t="n">
-        <v>-3209741.480700001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>188.9112</v>
       </c>
       <c r="G19" t="n">
-        <v>-3209741.480700001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>188.9112</v>
       </c>
       <c r="G20" t="n">
-        <v>-3209930.391900001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10253.7287</v>
       </c>
       <c r="G21" t="n">
-        <v>-3199676.663200001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>709.6394</v>
       </c>
       <c r="G22" t="n">
-        <v>-3200386.302600001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3166.1343</v>
       </c>
       <c r="G23" t="n">
-        <v>-3200386.302600001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>111117.006</v>
       </c>
       <c r="G24" t="n">
-        <v>-3200386.302600001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>456.3872</v>
       </c>
       <c r="G25" t="n">
-        <v>-3199929.915400001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>4652.465</v>
       </c>
       <c r="G26" t="n">
-        <v>-3199929.915400001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>4803.2872</v>
       </c>
       <c r="G27" t="n">
-        <v>-3195126.628200001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>28885.1885</v>
       </c>
       <c r="G28" t="n">
-        <v>-3195126.628200001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>465157.61009075</v>
       </c>
       <c r="G29" t="n">
-        <v>-2729969.018109251</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>22431.8848</v>
       </c>
       <c r="G30" t="n">
-        <v>-2752400.902909251</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>85669.18309999999</v>
       </c>
       <c r="G31" t="n">
-        <v>-2752400.902909251</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>85416.92690000001</v>
       </c>
       <c r="G32" t="n">
-        <v>-2666983.976009251</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>225496.9943</v>
       </c>
       <c r="G33" t="n">
-        <v>-2666983.976009251</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>15597.143504874</v>
       </c>
       <c r="G34" t="n">
-        <v>-2666983.976009251</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>242433.91521197</v>
       </c>
       <c r="G35" t="n">
-        <v>-2666983.976009251</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>452962.951583156</v>
       </c>
       <c r="G36" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>982928.2044</v>
       </c>
       <c r="G37" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>22500</v>
       </c>
       <c r="G38" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>476584.4383</v>
       </c>
       <c r="G39" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>31956.6502</v>
       </c>
       <c r="G40" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>9825.8892</v>
       </c>
       <c r="G41" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>5174.1108</v>
       </c>
       <c r="G42" t="n">
-        <v>-2214021.024426095</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>2172271.6319</v>
       </c>
       <c r="G43" t="n">
-        <v>-4386292.656326095</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>7024.0574</v>
       </c>
       <c r="G44" t="n">
-        <v>-4393316.713726095</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13916.1163</v>
       </c>
       <c r="G45" t="n">
-        <v>-4379400.597426095</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>42283.9274</v>
       </c>
       <c r="G46" t="n">
-        <v>-4379400.597426095</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>-4378400.597426095</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6030</v>
       </c>
       <c r="G48" t="n">
-        <v>-4378400.597426095</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>42399.2649</v>
       </c>
       <c r="G49" t="n">
-        <v>-4378400.597426095</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>171312.6524</v>
       </c>
       <c r="G50" t="n">
-        <v>-4378400.597426095</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>113</v>
       </c>
       <c r="G51" t="n">
-        <v>-4378287.597426095</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>4270.7366</v>
       </c>
       <c r="G52" t="n">
-        <v>-4382558.334026095</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>151753.7326</v>
       </c>
       <c r="G53" t="n">
-        <v>-4534312.066626095</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>24681.3648</v>
       </c>
       <c r="G54" t="n">
-        <v>-4509630.701826096</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>644976</v>
       </c>
       <c r="G55" t="n">
-        <v>-5154606.701826096</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>124319.0362</v>
       </c>
       <c r="G56" t="n">
-        <v>-5154606.701826096</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>334239.9376</v>
       </c>
       <c r="G57" t="n">
-        <v>-5488846.639426095</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>219257.9485</v>
       </c>
       <c r="G58" t="n">
-        <v>-5708104.587926095</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>8824.8845</v>
       </c>
       <c r="G59" t="n">
-        <v>-5699279.703426096</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>108931.4417</v>
       </c>
       <c r="G60" t="n">
-        <v>-5808211.145126096</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>335393.0657</v>
       </c>
       <c r="G61" t="n">
-        <v>-6143604.210826096</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>65308.1137</v>
       </c>
       <c r="G62" t="n">
-        <v>-6078296.097126096</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>51754.802</v>
       </c>
       <c r="G63" t="n">
-        <v>-6026541.295126096</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>239490</v>
       </c>
       <c r="G64" t="n">
-        <v>-5787051.295126096</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>11985.3289</v>
       </c>
       <c r="G65" t="n">
-        <v>-5775065.966226096</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>14797.9582</v>
       </c>
       <c r="G66" t="n">
-        <v>-5789863.924426096</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>9102.5792</v>
       </c>
       <c r="G67" t="n">
-        <v>-5789863.924426096</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>92000</v>
       </c>
       <c r="G68" t="n">
-        <v>-5881863.924426096</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>109850</v>
       </c>
       <c r="G69" t="n">
-        <v>-5772013.924426096</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>300414.3958</v>
       </c>
       <c r="G70" t="n">
-        <v>-6072428.320226097</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>187288.7563</v>
       </c>
       <c r="G71" t="n">
-        <v>-6259717.076526096</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>665.0721</v>
       </c>
       <c r="G72" t="n">
-        <v>-6259052.004426096</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>1354.8587</v>
       </c>
       <c r="G73" t="n">
-        <v>-6260406.863126095</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>37563.985</v>
       </c>
       <c r="G74" t="n">
-        <v>-6222842.878126095</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2841.2079</v>
       </c>
       <c r="G75" t="n">
-        <v>-6220001.670226095</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>15990</v>
       </c>
       <c r="G76" t="n">
-        <v>-6235991.670226095</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>180365.4864</v>
       </c>
       <c r="G77" t="n">
-        <v>-6235991.670226095</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>1742.4498</v>
       </c>
       <c r="G78" t="n">
-        <v>-6237734.120026095</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>337926.4382</v>
       </c>
       <c r="G79" t="n">
-        <v>-6575660.558226095</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>309335.5832</v>
       </c>
       <c r="G80" t="n">
-        <v>-6266324.975026094</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>210457.662</v>
       </c>
       <c r="G81" t="n">
-        <v>-6266324.975026094</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>69019.8357</v>
       </c>
       <c r="G82" t="n">
-        <v>-6197305.139326095</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>117771.5543</v>
       </c>
       <c r="G83" t="n">
-        <v>-6079533.585026095</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>8056.1287</v>
       </c>
       <c r="G84" t="n">
-        <v>-6079533.585026095</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>11537.1666</v>
       </c>
       <c r="G85" t="n">
-        <v>-6079533.585026095</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>14464.9964</v>
       </c>
       <c r="G86" t="n">
-        <v>-6065068.588626095</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>115.3</v>
       </c>
       <c r="G87" t="n">
-        <v>-6065068.588626095</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>12018.323</v>
       </c>
       <c r="G88" t="n">
-        <v>-6077086.911626095</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>1132.4336</v>
       </c>
       <c r="G89" t="n">
-        <v>-6075954.478026095</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>47408.717</v>
       </c>
       <c r="G90" t="n">
-        <v>-6123363.195026095</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>77580</v>
       </c>
       <c r="G91" t="n">
-        <v>-6200943.195026095</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>173.9541</v>
       </c>
       <c r="G92" t="n">
-        <v>-6200769.240926095</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>87030.69620000001</v>
       </c>
       <c r="G93" t="n">
-        <v>-6287799.937126095</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>116</v>
       </c>
       <c r="G94" t="n">
-        <v>-6287683.937126095</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>114.7</v>
       </c>
       <c r="G95" t="n">
-        <v>-6287569.237126095</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>578.9618</v>
       </c>
       <c r="G96" t="n">
-        <v>-6287569.237126095</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1929.4989</v>
       </c>
       <c r="G97" t="n">
-        <v>-6285639.738226095</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>66010</v>
       </c>
       <c r="G98" t="n">
-        <v>-6351649.738226095</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>42330.9497</v>
       </c>
       <c r="G99" t="n">
-        <v>-6351649.738226095</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>182461.1104</v>
       </c>
       <c r="G100" t="n">
-        <v>-6534110.848626095</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>64857.1504</v>
       </c>
       <c r="G101" t="n">
-        <v>-6469253.698226095</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>30017.2196</v>
       </c>
       <c r="G102" t="n">
-        <v>-6469253.698226095</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>70038.91409999999</v>
       </c>
       <c r="G103" t="n">
-        <v>-6539292.612326095</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1810.9952</v>
       </c>
       <c r="G104" t="n">
-        <v>-6539292.612326095</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>7964.0761</v>
       </c>
       <c r="G105" t="n">
-        <v>-6539292.612326095</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>106345.5821</v>
       </c>
       <c r="G106" t="n">
-        <v>-6432947.030226095</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>48727.1878</v>
       </c>
       <c r="G107" t="n">
-        <v>-6432947.030226095</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>786.4462</v>
       </c>
       <c r="G108" t="n">
-        <v>-6432160.584026095</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>24383.5523</v>
       </c>
       <c r="G109" t="n">
-        <v>-6456544.136326094</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>493.5828</v>
       </c>
       <c r="G110" t="n">
-        <v>-6456544.136326094</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>772.7560999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>-6457316.892426094</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>1346.4387</v>
       </c>
       <c r="G112" t="n">
-        <v>-6457316.892426094</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>114</v>
       </c>
       <c r="G113" t="n">
-        <v>-6457202.892426094</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>158735.172</v>
       </c>
       <c r="G114" t="n">
-        <v>-6298467.720426094</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>280056.020074909</v>
       </c>
       <c r="G115" t="n">
-        <v>-6018411.700351185</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>4995.5044</v>
       </c>
       <c r="G116" t="n">
-        <v>-6018411.700351185</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>307063.1615</v>
       </c>
       <c r="G117" t="n">
-        <v>-6325474.861851186</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>13490.198</v>
       </c>
       <c r="G118" t="n">
-        <v>-6311984.663851186</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>1153169.8733</v>
       </c>
       <c r="G119" t="n">
-        <v>-6311984.663851186</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>138645.6617</v>
       </c>
       <c r="G120" t="n">
-        <v>-6450630.325551186</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>50000</v>
       </c>
       <c r="G121" t="n">
-        <v>-6450630.325551186</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>206267.6513</v>
       </c>
       <c r="G122" t="n">
-        <v>-6450630.325551186</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>14662.6803</v>
       </c>
       <c r="G123" t="n">
-        <v>-6450630.325551186</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>178452.8676</v>
       </c>
       <c r="G124" t="n">
-        <v>-6450630.325551186</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>8287.4202</v>
       </c>
       <c r="G125" t="n">
-        <v>-6458917.745751185</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>57892.7759</v>
       </c>
       <c r="G126" t="n">
-        <v>-6458917.745751185</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>100000</v>
       </c>
       <c r="G127" t="n">
-        <v>-6458917.745751185</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>25710</v>
       </c>
       <c r="G128" t="n">
-        <v>-6433207.745751185</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>56523.4104</v>
       </c>
       <c r="G129" t="n">
-        <v>-6433207.745751185</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>369.5414</v>
       </c>
       <c r="G130" t="n">
-        <v>-6432838.204351185</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>29843.6772</v>
       </c>
       <c r="G131" t="n">
-        <v>-6462681.881551185</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>37393.3704</v>
       </c>
       <c r="G132" t="n">
-        <v>-6500075.251951185</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>85251.32950000001</v>
       </c>
       <c r="G133" t="n">
-        <v>-6585326.581451185</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>351.6229</v>
       </c>
       <c r="G134" t="n">
-        <v>-6584974.958551185</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>29562.1413</v>
       </c>
       <c r="G135" t="n">
-        <v>-6614537.099851185</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>70427.77340000001</v>
       </c>
       <c r="G136" t="n">
-        <v>-6684964.873251186</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>334.1176</v>
       </c>
       <c r="G137" t="n">
-        <v>-6684630.755651185</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>200000</v>
       </c>
       <c r="G138" t="n">
-        <v>-6484630.755651185</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>46699.8982</v>
       </c>
       <c r="G139" t="n">
-        <v>-6531330.653851185</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>7131.8861</v>
       </c>
       <c r="G140" t="n">
-        <v>-6531330.653851185</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>86356.9538</v>
       </c>
       <c r="G141" t="n">
-        <v>-6617687.607651185</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>300000</v>
       </c>
       <c r="G142" t="n">
-        <v>-6917687.607651185</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>130000</v>
       </c>
       <c r="G143" t="n">
-        <v>-7047687.607651185</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>825576.3454</v>
       </c>
       <c r="G144" t="n">
-        <v>-7873263.953051185</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>322.0236</v>
       </c>
       <c r="G145" t="n">
-        <v>-7872941.929451185</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>3730</v>
       </c>
       <c r="G146" t="n">
-        <v>-7876671.929451185</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>429129.0646</v>
       </c>
       <c r="G147" t="n">
-        <v>-7876671.929451185</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>104148.7583</v>
       </c>
       <c r="G148" t="n">
-        <v>-7876671.929451185</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>533277.8229</v>
       </c>
       <c r="G149" t="n">
-        <v>-8409949.752351185</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>1376.7275</v>
       </c>
       <c r="G150" t="n">
-        <v>-8411326.479851184</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>103370.4768</v>
       </c>
       <c r="G151" t="n">
-        <v>-8514696.956651185</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>34136.97</v>
       </c>
       <c r="G152" t="n">
-        <v>-8480559.986651184</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>118</v>
       </c>
       <c r="G153" t="n">
-        <v>-8480677.986651184</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>426.4181</v>
       </c>
       <c r="G154" t="n">
-        <v>-8480677.986651184</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>14371.7677</v>
       </c>
       <c r="G155" t="n">
-        <v>-8466306.218951184</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>83008.94530000001</v>
       </c>
       <c r="G156" t="n">
-        <v>-8549315.164251184</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,19 @@
         <v>293.4007</v>
       </c>
       <c r="G157" t="n">
-        <v>-8549021.763551185</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>4.25</v>
+      </c>
+      <c r="I157" t="n">
+        <v>4.25</v>
+      </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5127,23 @@
         <v>33580.981</v>
       </c>
       <c r="G158" t="n">
-        <v>-8582602.744551186</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>4.295</v>
+      </c>
+      <c r="I158" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5165,21 @@
         <v>52922.3619</v>
       </c>
       <c r="G159" t="n">
-        <v>-8529680.382651186</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5201,15 @@
         <v>71207.85000000001</v>
       </c>
       <c r="G160" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5231,15 @@
         <v>163730.6764</v>
       </c>
       <c r="G161" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5261,15 @@
         <v>45412.612</v>
       </c>
       <c r="G162" t="n">
-        <v>-8458472.532651186</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>4269.5443</v>
       </c>
       <c r="G163" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>160544.2825</v>
       </c>
       <c r="G164" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>2497.8125</v>
       </c>
       <c r="G165" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>10527.0752</v>
       </c>
       <c r="G166" t="n">
-        <v>-8462742.076951185</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,15 @@
         <v>50000</v>
       </c>
       <c r="G167" t="n">
-        <v>-8512742.076951185</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5441,15 @@
         <v>43967.2489</v>
       </c>
       <c r="G168" t="n">
-        <v>-8512742.076951185</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5471,15 @@
         <v>278.0186</v>
       </c>
       <c r="G169" t="n">
-        <v>-8512464.058351185</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5501,15 @@
         <v>42653.9462</v>
       </c>
       <c r="G170" t="n">
-        <v>-8512464.058351185</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5531,15 @@
         <v>27695.8017</v>
       </c>
       <c r="G171" t="n">
-        <v>-8484768.256651185</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5561,15 @@
         <v>132997.098</v>
       </c>
       <c r="G172" t="n">
-        <v>-8484768.256651185</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5591,15 @@
         <v>101209.0952</v>
       </c>
       <c r="G173" t="n">
-        <v>-8585977.351851186</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5621,15 @@
         <v>997.1287</v>
       </c>
       <c r="G174" t="n">
-        <v>-8585977.351851186</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5651,15 @@
         <v>227418.2091</v>
       </c>
       <c r="G175" t="n">
-        <v>-8813395.560951186</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5681,15 @@
         <v>55626.9406</v>
       </c>
       <c r="G176" t="n">
-        <v>-8757768.620351186</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5711,15 @@
         <v>130000</v>
       </c>
       <c r="G177" t="n">
-        <v>-8757768.620351186</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5741,15 @@
         <v>116</v>
       </c>
       <c r="G178" t="n">
-        <v>-8757652.620351186</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5771,15 @@
         <v>20032.7067</v>
       </c>
       <c r="G179" t="n">
-        <v>-8777685.327051187</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5801,15 @@
         <v>27427.4579</v>
       </c>
       <c r="G180" t="n">
-        <v>-8777685.327051187</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5831,15 @@
         <v>262.0485</v>
       </c>
       <c r="G181" t="n">
-        <v>-8777423.278551187</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5861,15 @@
         <v>95853.4216</v>
       </c>
       <c r="G182" t="n">
-        <v>-8777423.278551187</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5891,15 @@
         <v>248.3738</v>
       </c>
       <c r="G183" t="n">
-        <v>-8777174.904751187</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5921,15 @@
         <v>25410</v>
       </c>
       <c r="G184" t="n">
-        <v>-8802584.904751187</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5951,15 @@
         <v>20000</v>
       </c>
       <c r="G185" t="n">
-        <v>-8802584.904751187</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5981,15 @@
         <v>353725.9019</v>
       </c>
       <c r="G186" t="n">
-        <v>-9156310.806651188</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6011,15 @@
         <v>237.9243</v>
       </c>
       <c r="G187" t="n">
-        <v>-9156072.882351188</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6041,15 @@
         <v>5203.4608</v>
       </c>
       <c r="G188" t="n">
-        <v>-9161276.343151188</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6071,15 @@
         <v>226.2902</v>
       </c>
       <c r="G189" t="n">
-        <v>-9161050.052951187</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6101,15 @@
         <v>371.315850545</v>
       </c>
       <c r="G190" t="n">
-        <v>-9161050.052951187</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6131,15 @@
         <v>32156.9863</v>
       </c>
       <c r="G191" t="n">
-        <v>-9193207.039251188</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6161,15 @@
         <v>215.4758</v>
       </c>
       <c r="G192" t="n">
-        <v>-9192991.563451188</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6191,15 @@
         <v>181940</v>
       </c>
       <c r="G193" t="n">
-        <v>-9374931.563451188</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6221,15 @@
         <v>204.2269</v>
       </c>
       <c r="G194" t="n">
-        <v>-9374727.336551188</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6251,15 @@
         <v>127.0198</v>
       </c>
       <c r="G195" t="n">
-        <v>-9374854.356351187</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6281,15 @@
         <v>194.0155</v>
       </c>
       <c r="G196" t="n">
-        <v>-9374660.340851188</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6311,15 @@
         <v>35190</v>
       </c>
       <c r="G197" t="n">
-        <v>-9409850.340851188</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6341,15 @@
         <v>40596.1677</v>
       </c>
       <c r="G198" t="n">
-        <v>-9450446.508551188</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,24 +6371,15 @@
         <v>36417.1258</v>
       </c>
       <c r="G199" t="n">
-        <v>-9450446.508551188</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6988,24 +6401,15 @@
         <v>676397.9323</v>
       </c>
       <c r="G200" t="n">
-        <v>-10126844.44085119</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7027,24 +6431,15 @@
         <v>167067.8155</v>
       </c>
       <c r="G201" t="n">
-        <v>-10293912.25635119</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>4.258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7066,24 +6461,15 @@
         <v>120</v>
       </c>
       <c r="G202" t="n">
-        <v>-10293792.25635119</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>4.249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7105,24 +6491,15 @@
         <v>50540</v>
       </c>
       <c r="G203" t="n">
-        <v>-10293792.25635119</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>4.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7144,24 +6521,15 @@
         <v>251249.0112</v>
       </c>
       <c r="G204" t="n">
-        <v>-10293792.25635119</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>4.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7183,24 +6551,15 @@
         <v>4988.0877</v>
       </c>
       <c r="G205" t="n">
-        <v>-10288804.16865119</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>4.299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7222,24 +6581,15 @@
         <v>156838.625549455</v>
       </c>
       <c r="G206" t="n">
-        <v>-10288804.16865119</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>4.309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7261,24 +6611,15 @@
         <v>116</v>
       </c>
       <c r="G207" t="n">
-        <v>-10288688.16865119</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4.309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7300,22 +6641,15 @@
         <v>14447.9847</v>
       </c>
       <c r="G208" t="n">
-        <v>-10274240.18395119</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7337,24 +6671,15 @@
         <v>53526.3442</v>
       </c>
       <c r="G209" t="n">
-        <v>-10274240.18395119</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>4.319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7376,24 +6701,15 @@
         <v>95362.49400000001</v>
       </c>
       <c r="G210" t="n">
-        <v>-10178877.68995119</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>4.319</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7415,22 +6731,15 @@
         <v>363885.7306</v>
       </c>
       <c r="G211" t="n">
-        <v>-10178877.68995119</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7452,22 +6761,15 @@
         <v>154.7058</v>
       </c>
       <c r="G212" t="n">
-        <v>-10179032.39575119</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7489,22 +6791,15 @@
         <v>276.1862</v>
       </c>
       <c r="G213" t="n">
-        <v>-10179032.39575119</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7526,22 +6821,15 @@
         <v>13842.8088</v>
       </c>
       <c r="G214" t="n">
-        <v>-10179032.39575119</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7563,22 +6851,15 @@
         <v>12817.2992</v>
       </c>
       <c r="G215" t="n">
-        <v>-10179032.39575119</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7600,22 +6881,15 @@
         <v>204819.3268</v>
       </c>
       <c r="G216" t="n">
-        <v>-10383851.72255119</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7637,24 +6911,15 @@
         <v>45601.3317</v>
       </c>
       <c r="G217" t="n">
-        <v>-10429453.05425119</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>4.318</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7676,24 +6941,15 @@
         <v>107560.042750545</v>
       </c>
       <c r="G218" t="n">
-        <v>-10537013.09700173</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>4.309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7715,24 +6971,15 @@
         <v>405721.8803</v>
       </c>
       <c r="G219" t="n">
-        <v>-10942734.97730173</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7754,24 +7001,15 @@
         <v>184.3575</v>
       </c>
       <c r="G220" t="n">
-        <v>-10942550.61980173</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>4.258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7793,24 +7031,15 @@
         <v>100000</v>
       </c>
       <c r="G221" t="n">
-        <v>-11042550.61980173</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7832,24 +7061,15 @@
         <v>138.1523</v>
       </c>
       <c r="G222" t="n">
-        <v>-11042688.77210173</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>4.307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7871,24 +7091,15 @@
         <v>30000</v>
       </c>
       <c r="G223" t="n">
-        <v>-11042688.77210173</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>4.269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7910,24 +7121,15 @@
         <v>5000</v>
       </c>
       <c r="G224" t="n">
-        <v>-11037688.77210173</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>4.269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7949,24 +7151,15 @@
         <v>94815.6425</v>
       </c>
       <c r="G225" t="n">
-        <v>-11037688.77210173</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7988,24 +7181,15 @@
         <v>1013334.6663</v>
       </c>
       <c r="G226" t="n">
-        <v>-10024354.10580173</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8027,24 +7211,15 @@
         <v>58167.4985</v>
       </c>
       <c r="G227" t="n">
-        <v>-10082521.60430173</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>4.309</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8066,24 +7241,15 @@
         <v>576897.4661</v>
       </c>
       <c r="G228" t="n">
-        <v>-10082521.60430173</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>4.308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8105,22 +7271,15 @@
         <v>50000</v>
       </c>
       <c r="G229" t="n">
-        <v>-10032521.60430173</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8142,22 +7301,15 @@
         <v>280610</v>
       </c>
       <c r="G230" t="n">
-        <v>-10313131.60430173</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8179,22 +7331,15 @@
         <v>42742.116</v>
       </c>
       <c r="G231" t="n">
-        <v>-10355873.72030173</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8216,22 +7361,15 @@
         <v>761.3774</v>
       </c>
       <c r="G232" t="n">
-        <v>-10355112.34290173</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8253,22 +7391,15 @@
         <v>11760</v>
       </c>
       <c r="G233" t="n">
-        <v>-10343352.34290173</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8290,22 +7421,15 @@
         <v>400000</v>
       </c>
       <c r="G234" t="n">
-        <v>-10343352.34290173</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8327,22 +7451,15 @@
         <v>49409.598</v>
       </c>
       <c r="G235" t="n">
-        <v>-10392761.94090173</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8364,22 +7481,15 @@
         <v>11760</v>
       </c>
       <c r="G236" t="n">
-        <v>-10404521.94090173</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8401,22 +7511,15 @@
         <v>48359.0923</v>
       </c>
       <c r="G237" t="n">
-        <v>-10356162.84860173</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8438,22 +7541,15 @@
         <v>170000</v>
       </c>
       <c r="G238" t="n">
-        <v>-10526162.84860173</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8475,22 +7571,15 @@
         <v>58000</v>
       </c>
       <c r="G239" t="n">
-        <v>-10526162.84860173</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8512,22 +7601,15 @@
         <v>18879.9357</v>
       </c>
       <c r="G240" t="n">
-        <v>-10526162.84860173</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8549,24 +7631,15 @@
         <v>139207.2056</v>
       </c>
       <c r="G241" t="n">
-        <v>-10386955.64300174</v>
-      </c>
-      <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>4.343</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8588,24 +7661,15 @@
         <v>16065.3117</v>
       </c>
       <c r="G242" t="n">
-        <v>-10370890.33130174</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.345</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8627,22 +7691,15 @@
         <v>250000</v>
       </c>
       <c r="G243" t="n">
-        <v>-10120890.33130174</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8664,22 +7721,15 @@
         <v>125857.169</v>
       </c>
       <c r="G244" t="n">
-        <v>-9995033.162301736</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8701,22 +7751,15 @@
         <v>24142.831</v>
       </c>
       <c r="G245" t="n">
-        <v>-9995033.162301736</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8738,22 +7781,15 @@
         <v>29202.4934</v>
       </c>
       <c r="G246" t="n">
-        <v>-9995033.162301736</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8775,22 +7811,15 @@
         <v>836</v>
       </c>
       <c r="G247" t="n">
-        <v>-9994197.162301736</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8812,22 +7841,15 @@
         <v>50000</v>
       </c>
       <c r="G248" t="n">
-        <v>-9994197.162301736</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8849,22 +7871,15 @@
         <v>1028419.959850176</v>
       </c>
       <c r="G249" t="n">
-        <v>-8965777.202451561</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8886,22 +7901,15 @@
         <v>588846.8412</v>
       </c>
       <c r="G250" t="n">
-        <v>-8376930.361251561</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8923,22 +7931,15 @@
         <v>123965.6971</v>
       </c>
       <c r="G251" t="n">
-        <v>-8500896.058351561</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8960,22 +7961,15 @@
         <v>536360.9347548051</v>
       </c>
       <c r="G252" t="n">
-        <v>-9037256.993106367</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8997,22 +7991,15 @@
         <v>679923.8743490879</v>
       </c>
       <c r="G253" t="n">
-        <v>-8357333.11875728</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9034,22 +8021,15 @@
         <v>1601702.368604908</v>
       </c>
       <c r="G254" t="n">
-        <v>-8357333.11875728</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9071,22 +8051,15 @@
         <v>87296.1778</v>
       </c>
       <c r="G255" t="n">
-        <v>-8444629.296557279</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9108,22 +8081,15 @@
         <v>123329.0291</v>
       </c>
       <c r="G256" t="n">
-        <v>-8567958.32565728</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9145,22 +8111,15 @@
         <v>14011.562</v>
       </c>
       <c r="G257" t="n">
-        <v>-8581969.887657281</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9182,22 +8141,15 @@
         <v>61655.8212</v>
       </c>
       <c r="G258" t="n">
-        <v>-8643625.708857281</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9219,22 +8171,15 @@
         <v>718013.3517999999</v>
       </c>
       <c r="G259" t="n">
-        <v>-9361639.060657281</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9256,22 +8201,15 @@
         <v>856590.8269</v>
       </c>
       <c r="G260" t="n">
-        <v>-8505048.233757282</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9293,22 +8231,15 @@
         <v>355723.3222</v>
       </c>
       <c r="G261" t="n">
-        <v>-8505048.233757282</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9330,22 +8261,15 @@
         <v>10149.5872</v>
       </c>
       <c r="G262" t="n">
-        <v>-8505048.233757282</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9367,22 +8291,15 @@
         <v>33282.0679</v>
       </c>
       <c r="G263" t="n">
-        <v>-8505048.233757282</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9404,22 +8321,15 @@
         <v>108125.5068</v>
       </c>
       <c r="G264" t="n">
-        <v>-8505048.233757282</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9441,22 +8351,15 @@
         <v>146852.3758</v>
       </c>
       <c r="G265" t="n">
-        <v>-8358195.857957282</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9478,22 +8381,15 @@
         <v>336392.335</v>
       </c>
       <c r="G266" t="n">
-        <v>-8021803.522957282</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9515,22 +8411,15 @@
         <v>64007.0354</v>
       </c>
       <c r="G267" t="n">
-        <v>-8085810.558357283</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9552,22 +8441,15 @@
         <v>64007.0354</v>
       </c>
       <c r="G268" t="n">
-        <v>-8085810.558357283</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9589,22 +8471,15 @@
         <v>32003.5177</v>
       </c>
       <c r="G269" t="n">
-        <v>-8053807.040657283</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9626,22 +8501,15 @@
         <v>114</v>
       </c>
       <c r="G270" t="n">
-        <v>-8053693.040657283</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9663,22 +8531,15 @@
         <v>1426.6627</v>
       </c>
       <c r="G271" t="n">
-        <v>-8053693.040657283</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9700,22 +8561,15 @@
         <v>16614.3024</v>
       </c>
       <c r="G272" t="n">
-        <v>-8053693.040657283</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9737,22 +8591,15 @@
         <v>96242.43489999999</v>
       </c>
       <c r="G273" t="n">
-        <v>-7957450.605757283</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9774,22 +8621,15 @@
         <v>49436.3298</v>
       </c>
       <c r="G274" t="n">
-        <v>-7908014.275957283</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9811,22 +8651,15 @@
         <v>7817.236446004</v>
       </c>
       <c r="G275" t="n">
-        <v>-7900197.039511278</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9848,22 +8681,15 @@
         <v>37278.2431</v>
       </c>
       <c r="G276" t="n">
-        <v>-7862918.796411279</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9885,22 +8711,15 @@
         <v>28884.709</v>
       </c>
       <c r="G277" t="n">
-        <v>-7834034.087411279</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9922,22 +8741,15 @@
         <v>20000</v>
       </c>
       <c r="G278" t="n">
-        <v>-7834034.087411279</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9959,22 +8771,15 @@
         <v>16648.4643</v>
       </c>
       <c r="G279" t="n">
-        <v>-7834034.087411279</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9996,20 +8801,15 @@
         <v>675984.003439536</v>
       </c>
       <c r="G280" t="n">
-        <v>-7158050.083971743</v>
-      </c>
-      <c r="H280" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K280" t="n">
+        <v>1</v>
       </c>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10031,18 +8831,15 @@
         <v>188461.8892</v>
       </c>
       <c r="G281" t="n">
-        <v>-7346511.973171743</v>
-      </c>
-      <c r="H281" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10064,18 +8861,15 @@
         <v>2519.033</v>
       </c>
       <c r="G282" t="n">
-        <v>-7343992.940171743</v>
-      </c>
-      <c r="H282" t="n">
         <v>2</v>
       </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10097,18 +8891,15 @@
         <v>63235.4768</v>
       </c>
       <c r="G283" t="n">
-        <v>-7407228.416971743</v>
-      </c>
-      <c r="H283" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10130,18 +8921,15 @@
         <v>7912.9423</v>
       </c>
       <c r="G284" t="n">
-        <v>-7415141.359271743</v>
-      </c>
-      <c r="H284" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10163,18 +8951,15 @@
         <v>41623.9972</v>
       </c>
       <c r="G285" t="n">
-        <v>-7456765.356471743</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10196,18 +8981,15 @@
         <v>97427.2988</v>
       </c>
       <c r="G286" t="n">
-        <v>-7456765.356471743</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10229,18 +9011,15 @@
         <v>113</v>
       </c>
       <c r="G287" t="n">
-        <v>-7456765.356471743</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10262,18 +9041,15 @@
         <v>163195.044484385</v>
       </c>
       <c r="G288" t="n">
-        <v>-7456765.356471743</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10295,18 +9071,15 @@
         <v>44136.021053996</v>
       </c>
       <c r="G289" t="n">
-        <v>-7500901.377525739</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10328,18 +9101,15 @@
         <v>22150.352096882</v>
       </c>
       <c r="G290" t="n">
-        <v>-7478751.025428858</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10361,18 +9131,15 @@
         <v>124777.9562</v>
       </c>
       <c r="G291" t="n">
-        <v>-7603528.981628858</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10394,18 +9161,15 @@
         <v>2000</v>
       </c>
       <c r="G292" t="n">
-        <v>-7601528.981628858</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10427,18 +9191,15 @@
         <v>1000</v>
       </c>
       <c r="G293" t="n">
-        <v>-7602528.981628858</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10460,18 +9221,15 @@
         <v>89841.0794</v>
       </c>
       <c r="G294" t="n">
-        <v>-7602528.981628858</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10493,18 +9251,15 @@
         <v>675984.0034</v>
       </c>
       <c r="G295" t="n">
-        <v>-8278512.985028857</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10526,18 +9281,15 @@
         <v>15075.0732</v>
       </c>
       <c r="G296" t="n">
-        <v>-8278512.985028857</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10559,18 +9311,15 @@
         <v>798.1423</v>
       </c>
       <c r="G297" t="n">
-        <v>-8277714.842728857</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10592,18 +9341,15 @@
         <v>293769.3512</v>
       </c>
       <c r="G298" t="n">
-        <v>-8571484.193928856</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10625,18 +9371,15 @@
         <v>60116.8321</v>
       </c>
       <c r="G299" t="n">
-        <v>-8631601.026028857</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10658,18 +9401,15 @@
         <v>12670</v>
       </c>
       <c r="G300" t="n">
-        <v>-8618931.026028857</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10691,18 +9431,15 @@
         <v>13160</v>
       </c>
       <c r="G301" t="n">
-        <v>-8632091.026028857</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10724,18 +9461,15 @@
         <v>125741.7626</v>
       </c>
       <c r="G302" t="n">
-        <v>-8506349.263428858</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10757,18 +9491,15 @@
         <v>72220.323</v>
       </c>
       <c r="G303" t="n">
-        <v>-8578569.586428858</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10790,18 +9521,15 @@
         <v>38378.0214</v>
       </c>
       <c r="G304" t="n">
-        <v>-8578569.586428858</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10823,18 +9551,15 @@
         <v>30000</v>
       </c>
       <c r="G305" t="n">
-        <v>-8608569.586428858</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10856,18 +9581,15 @@
         <v>257626.4425</v>
       </c>
       <c r="G306" t="n">
-        <v>-8608569.586428858</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10889,18 +9611,15 @@
         <v>115367.2601</v>
       </c>
       <c r="G307" t="n">
-        <v>-8608569.586428858</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10922,18 +9641,15 @@
         <v>5991.4226</v>
       </c>
       <c r="G308" t="n">
-        <v>-8608569.586428858</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10955,18 +9671,15 @@
         <v>46000</v>
       </c>
       <c r="G309" t="n">
-        <v>-8654569.586428858</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10988,18 +9701,15 @@
         <v>114</v>
       </c>
       <c r="G310" t="n">
-        <v>-8654455.586428858</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
